--- a/benchmarks/benchmarks.xlsx
+++ b/benchmarks/benchmarks.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27610"/>
-  <workbookPr hidePivotFieldList="1"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17329"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/micha/git/parallel-es-example/benchmarks/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Micha Reiser\git\parallel-es-example\benchmarks\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="20000" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="465" windowWidth="38400" windowHeight="19995" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
   </definedNames>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <pivotCaches>
-    <pivotCache cacheId="31" r:id="rId3"/>
+    <pivotCache cacheId="0" r:id="rId3"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
@@ -60,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="669" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="568" uniqueCount="62">
   <si>
     <t>Set</t>
   </si>
@@ -239,25 +239,19 @@
     <t>(All)</t>
   </si>
   <si>
-    <t>Count of File</t>
-  </si>
-  <si>
-    <t>Average of Mean (s)</t>
-  </si>
-  <si>
-    <t>Average of Variance</t>
-  </si>
-  <si>
     <t>paralleljs</t>
   </si>
   <si>
     <t>v0.2.1+.json</t>
   </si>
+  <si>
+    <t>Average of Mean (s)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -287,7 +281,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -296,9 +290,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
     </xf>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
@@ -311,12 +302,15 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -330,7 +324,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -356,7 +349,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="de-DE"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -376,7 +369,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>paralleljs</c:v>
+                  <c:v>parallel-transpiled</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -395,51 +388,15 @@
             <c:strRef>
               <c:f>(Sheet1!$A$10,Sheet1!$A$14,Sheet1!$A$18,Sheet1!$A$94,Sheet1!$A$98,Sheet1!$A$102,Sheet1!$A$106,Sheet1!$A$110,Sheet1!$A$114,Sheet1!$A$118,Sheet1!$A$122,Sheet1!$A$126,Sheet1!$A$130,Sheet1!$A$134,Sheet1!$A$138)</c:f>
               <c:strCache>
-                <c:ptCount val="15"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>Knights Tour (5x5)</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Knights Tour (6x6)</c:v>
+                  <c:v>Mandelbrot 10000x10000, 1000 (150)</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Mandelbrot 10000x10000, 1000</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Monte Carlo simjs (projects: 1, runs: 1,000,000)</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Monte Carlo simjs (projects: 1, runs: 10,000)</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Monte Carlo simjs (projects: 1, runs: 100,000)</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>Monte Carlo simjs (projects: 16, runs: 1,000,000)</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>Monte Carlo simjs (projects: 16, runs: 10,000)</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>Monte Carlo simjs (projects: 16, runs: 100,000)</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>Monte Carlo simjs (projects: 4, runs: 1,000,000)</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>Monte Carlo simjs (projects: 4, runs: 10,000)</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>Monte Carlo simjs (projects: 4, runs: 100,000)</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>Monte Carlo simjs (projects: 8, runs: 1,000,000)</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>Monte Carlo simjs (projects: 8, runs: 10,000)</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>Monte Carlo simjs (projects: 8, runs: 100,000)</c:v>
+                  <c:v>Monte Carlo Math.random (projects: 1, runs: 1,000,000)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -451,53 +408,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>0.142405405405405</c:v>
+                  <c:v>34.726799999999997</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1147.6284</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>21.5606</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>5.7164</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.1382</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.983799999999999</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>77.349</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.805454545454545</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>7.4544</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>20.1502</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.271681818181818</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>1.262</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>35.6716</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0.4183125</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>4.06399999999999</c:v>
+                  <c:v>32.641199999999998</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-EB60-49A8-BA20-C699ECB26FA4}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
@@ -508,7 +431,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>parallel-transpiled</c:v>
+                  <c:v>paralleljs</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -527,51 +450,15 @@
             <c:strRef>
               <c:f>(Sheet1!$A$10,Sheet1!$A$14,Sheet1!$A$18,Sheet1!$A$94,Sheet1!$A$98,Sheet1!$A$102,Sheet1!$A$106,Sheet1!$A$110,Sheet1!$A$114,Sheet1!$A$118,Sheet1!$A$122,Sheet1!$A$126,Sheet1!$A$130,Sheet1!$A$134,Sheet1!$A$138)</c:f>
               <c:strCache>
-                <c:ptCount val="15"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>Knights Tour (5x5)</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Knights Tour (6x6)</c:v>
+                  <c:v>Mandelbrot 10000x10000, 1000 (150)</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Mandelbrot 10000x10000, 1000</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Monte Carlo simjs (projects: 1, runs: 1,000,000)</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Monte Carlo simjs (projects: 1, runs: 10,000)</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Monte Carlo simjs (projects: 1, runs: 100,000)</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>Monte Carlo simjs (projects: 16, runs: 1,000,000)</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>Monte Carlo simjs (projects: 16, runs: 10,000)</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>Monte Carlo simjs (projects: 16, runs: 100,000)</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>Monte Carlo simjs (projects: 4, runs: 1,000,000)</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>Monte Carlo simjs (projects: 4, runs: 10,000)</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>Monte Carlo simjs (projects: 4, runs: 100,000)</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>Monte Carlo simjs (projects: 8, runs: 1,000,000)</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>Monte Carlo simjs (projects: 8, runs: 10,000)</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>Monte Carlo simjs (projects: 8, runs: 100,000)</c:v>
+                  <c:v>Monte Carlo Math.random (projects: 1, runs: 1,000,000)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -583,53 +470,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>0.106361702127659</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1090.5922</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>34.7268</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>5.6564</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.0654607843137255</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.460466666666666</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>33.5306</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.253347826086956</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>2.65016666666666</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>6.2272</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.0695384615384615</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.623153846153846</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>13.275</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0.123767441860465</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>1.14044444444444</c:v>
+                  <c:v>21.560600000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-EB60-49A8-BA20-C699ECB26FA4}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="3"/>
@@ -659,51 +509,15 @@
             <c:strRef>
               <c:f>(Sheet1!$A$10,Sheet1!$A$14,Sheet1!$A$18,Sheet1!$A$94,Sheet1!$A$98,Sheet1!$A$102,Sheet1!$A$106,Sheet1!$A$110,Sheet1!$A$114,Sheet1!$A$118,Sheet1!$A$122,Sheet1!$A$126,Sheet1!$A$130,Sheet1!$A$134,Sheet1!$A$138)</c:f>
               <c:strCache>
-                <c:ptCount val="15"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>Knights Tour (5x5)</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Knights Tour (6x6)</c:v>
+                  <c:v>Mandelbrot 10000x10000, 1000 (150)</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Mandelbrot 10000x10000, 1000</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Monte Carlo simjs (projects: 1, runs: 1,000,000)</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Monte Carlo simjs (projects: 1, runs: 10,000)</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Monte Carlo simjs (projects: 1, runs: 100,000)</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>Monte Carlo simjs (projects: 16, runs: 1,000,000)</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>Monte Carlo simjs (projects: 16, runs: 10,000)</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>Monte Carlo simjs (projects: 16, runs: 100,000)</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>Monte Carlo simjs (projects: 4, runs: 1,000,000)</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>Monte Carlo simjs (projects: 4, runs: 10,000)</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>Monte Carlo simjs (projects: 4, runs: 100,000)</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>Monte Carlo simjs (projects: 8, runs: 1,000,000)</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>Monte Carlo simjs (projects: 8, runs: 10,000)</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>Monte Carlo simjs (projects: 8, runs: 100,000)</c:v>
+                  <c:v>Monte Carlo Math.random (projects: 1, runs: 1,000,000)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -715,17 +529,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>0.110565217391304</c:v>
+                  <c:v>21.718</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1057.4066</c:v>
+                  <c:v>21.562000000000001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>21.718</c:v>
+                  <c:v>2.82176470588235E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-EB60-49A8-BA20-C699ECB26FA4}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="0"/>
@@ -755,51 +574,15 @@
             <c:strRef>
               <c:f>(Sheet1!$A$10,Sheet1!$A$14,Sheet1!$A$18,Sheet1!$A$94,Sheet1!$A$98,Sheet1!$A$102,Sheet1!$A$106,Sheet1!$A$110,Sheet1!$A$114,Sheet1!$A$118,Sheet1!$A$122,Sheet1!$A$126,Sheet1!$A$130,Sheet1!$A$134,Sheet1!$A$138)</c:f>
               <c:strCache>
-                <c:ptCount val="15"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>Knights Tour (5x5)</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Knights Tour (6x6)</c:v>
+                  <c:v>Mandelbrot 10000x10000, 1000 (150)</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Mandelbrot 10000x10000, 1000</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Monte Carlo simjs (projects: 1, runs: 1,000,000)</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Monte Carlo simjs (projects: 1, runs: 10,000)</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Monte Carlo simjs (projects: 1, runs: 100,000)</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>Monte Carlo simjs (projects: 16, runs: 1,000,000)</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>Monte Carlo simjs (projects: 16, runs: 10,000)</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>Monte Carlo simjs (projects: 16, runs: 100,000)</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>Monte Carlo simjs (projects: 4, runs: 1,000,000)</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>Monte Carlo simjs (projects: 4, runs: 10,000)</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>Monte Carlo simjs (projects: 4, runs: 100,000)</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>Monte Carlo simjs (projects: 8, runs: 1,000,000)</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>Monte Carlo simjs (projects: 8, runs: 10,000)</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>Monte Carlo simjs (projects: 8, runs: 100,000)</c:v>
+                  <c:v>Monte Carlo Math.random (projects: 1, runs: 1,000,000)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -811,53 +594,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>0.244714285714285</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2573.9354</c:v>
+                  <c:v>74.738799999999998</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>74.7388</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4.6452</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.048</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.4823</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>23.8652</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.179833333333333</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>2.47019999999999</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>7.9886</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.070074074074074</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.736</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>14.4105999999999</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0.10225</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>1.02514285714285</c:v>
+                  <c:v>1.3508206686930001E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-EB60-49A8-BA20-C699ECB26FA4}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -912,7 +661,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1012343712"/>
@@ -958,7 +707,6 @@
           </c:spPr>
         </c:minorGridlines>
         <c:title>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -984,7 +732,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="de-DE"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -1016,7 +764,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1012341392"/>
@@ -1058,7 +806,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
       </c:dTable>
@@ -1096,7 +844,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="de-DE"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1107,7 +855,1217 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:pivotSource>
+    <c:name>[benchmarks.xlsx]Sheet1!PivotTable2</c:name>
+    <c:fmtId val="0"/>
+  </c:pivotSource>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:pivotFmts>
+      <c:pivotFmt>
+        <c:idx val="0"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="1"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="2"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="3"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="4"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="5"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="6"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="7"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+    </c:pivotFmts>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$C$8:$C$9</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>parallel-transpiled</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$A$10:$A$41</c:f>
+              <c:strCache>
+                <c:ptCount val="32"/>
+                <c:pt idx="0">
+                  <c:v>Knights Tour (5x5)</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Mandelbrot 10000x10000, 1000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Mandelbrot 10000x10000, 1000 (1)</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Mandelbrot 10000x10000, 1000 (1200)</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Mandelbrot 10000x10000, 1000 (150)</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Mandelbrot 10000x10000, 1000 (300)</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Mandelbrot 10000x10000, 1000 (600)</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Mandelbrot 10000x10000, 1000 (75)</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Monte Carlo Math.random (projects: 1, runs: 1,000,000)</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Monte Carlo Math.random (projects: 1, runs: 10,000)</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Monte Carlo Math.random (projects: 1, runs: 100,000)</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Monte Carlo Math.random (projects: 16, runs: 1,000,000)</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Monte Carlo Math.random (projects: 16, runs: 10,000)</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>Monte Carlo Math.random (projects: 16, runs: 100,000)</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>Monte Carlo Math.random (projects: 4, runs: 1,000,000)</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>Monte Carlo Math.random (projects: 4, runs: 10,000)</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>Monte Carlo Math.random (projects: 4, runs: 100,000)</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>Monte Carlo Math.random (projects: 8, runs: 1,000,000)</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>Monte Carlo Math.random (projects: 8, runs: 10,000)</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>Monte Carlo Math.random (projects: 8, runs: 100,000)</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>Monte Carlo simjs (projects: 1, runs: 1,000,000)</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>Monte Carlo simjs (projects: 1, runs: 10,000)</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>Monte Carlo simjs (projects: 1, runs: 100,000)</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>Monte Carlo simjs (projects: 16, runs: 1,000,000)</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>Monte Carlo simjs (projects: 16, runs: 10,000)</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>Monte Carlo simjs (projects: 16, runs: 100,000)</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>Monte Carlo simjs (projects: 4, runs: 1,000,000)</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>Monte Carlo simjs (projects: 4, runs: 10,000)</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>Monte Carlo simjs (projects: 4, runs: 100,000)</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>Monte Carlo simjs (projects: 8, runs: 1,000,000)</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>Monte Carlo simjs (projects: 8, runs: 10,000)</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>Monte Carlo simjs (projects: 8, runs: 100,000)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$10:$C$41</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="32"/>
+                <c:pt idx="0">
+                  <c:v>0.106361702127659</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>34.726799999999997</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>33.719799999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>32.996400000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>32.907999999999902</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32.641199999999998</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>33.016399999999997</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>32.694800000000001</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>5.6563999999999997</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>6.5460784313725498E-2</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.46046666666666602</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>33.5306</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.253347826086956</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2.6501666666666601</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>6.2271999999999998</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>6.9538461538461493E-2</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.62315384615384595</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>13.275</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.123767441860465</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>1.1404444444444399</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-525F-4820-AFD3-5790ED4B0B6D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$D$8:$D$9</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>paralleljs</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$A$10:$A$41</c:f>
+              <c:strCache>
+                <c:ptCount val="32"/>
+                <c:pt idx="0">
+                  <c:v>Knights Tour (5x5)</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Mandelbrot 10000x10000, 1000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Mandelbrot 10000x10000, 1000 (1)</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Mandelbrot 10000x10000, 1000 (1200)</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Mandelbrot 10000x10000, 1000 (150)</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Mandelbrot 10000x10000, 1000 (300)</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Mandelbrot 10000x10000, 1000 (600)</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Mandelbrot 10000x10000, 1000 (75)</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Monte Carlo Math.random (projects: 1, runs: 1,000,000)</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Monte Carlo Math.random (projects: 1, runs: 10,000)</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Monte Carlo Math.random (projects: 1, runs: 100,000)</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Monte Carlo Math.random (projects: 16, runs: 1,000,000)</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Monte Carlo Math.random (projects: 16, runs: 10,000)</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>Monte Carlo Math.random (projects: 16, runs: 100,000)</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>Monte Carlo Math.random (projects: 4, runs: 1,000,000)</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>Monte Carlo Math.random (projects: 4, runs: 10,000)</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>Monte Carlo Math.random (projects: 4, runs: 100,000)</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>Monte Carlo Math.random (projects: 8, runs: 1,000,000)</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>Monte Carlo Math.random (projects: 8, runs: 10,000)</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>Monte Carlo Math.random (projects: 8, runs: 100,000)</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>Monte Carlo simjs (projects: 1, runs: 1,000,000)</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>Monte Carlo simjs (projects: 1, runs: 10,000)</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>Monte Carlo simjs (projects: 1, runs: 100,000)</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>Monte Carlo simjs (projects: 16, runs: 1,000,000)</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>Monte Carlo simjs (projects: 16, runs: 10,000)</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>Monte Carlo simjs (projects: 16, runs: 100,000)</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>Monte Carlo simjs (projects: 4, runs: 1,000,000)</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>Monte Carlo simjs (projects: 4, runs: 10,000)</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>Monte Carlo simjs (projects: 4, runs: 100,000)</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>Monte Carlo simjs (projects: 8, runs: 1,000,000)</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>Monte Carlo simjs (projects: 8, runs: 10,000)</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>Monte Carlo simjs (projects: 8, runs: 100,000)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$D$10:$D$41</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="32"/>
+                <c:pt idx="0">
+                  <c:v>0.142405405405405</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>21.560600000000001</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>5.7164000000000001</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.13819999999999999</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.98379999999999901</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>77.349000000000004</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.80545454545454498</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>7.4543999999999997</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>20.150200000000002</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.27168181818181802</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1.262</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>35.671599999999998</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.41831249999999998</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>4.0639999999999903</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-525F-4820-AFD3-5790ED4B0B6D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$E$8:$E$9</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>parallel-dynamic</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$A$10:$A$41</c:f>
+              <c:strCache>
+                <c:ptCount val="32"/>
+                <c:pt idx="0">
+                  <c:v>Knights Tour (5x5)</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Mandelbrot 10000x10000, 1000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Mandelbrot 10000x10000, 1000 (1)</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Mandelbrot 10000x10000, 1000 (1200)</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Mandelbrot 10000x10000, 1000 (150)</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Mandelbrot 10000x10000, 1000 (300)</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Mandelbrot 10000x10000, 1000 (600)</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Mandelbrot 10000x10000, 1000 (75)</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Monte Carlo Math.random (projects: 1, runs: 1,000,000)</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Monte Carlo Math.random (projects: 1, runs: 10,000)</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Monte Carlo Math.random (projects: 1, runs: 100,000)</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Monte Carlo Math.random (projects: 16, runs: 1,000,000)</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Monte Carlo Math.random (projects: 16, runs: 10,000)</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>Monte Carlo Math.random (projects: 16, runs: 100,000)</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>Monte Carlo Math.random (projects: 4, runs: 1,000,000)</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>Monte Carlo Math.random (projects: 4, runs: 10,000)</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>Monte Carlo Math.random (projects: 4, runs: 100,000)</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>Monte Carlo Math.random (projects: 8, runs: 1,000,000)</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>Monte Carlo Math.random (projects: 8, runs: 10,000)</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>Monte Carlo Math.random (projects: 8, runs: 100,000)</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>Monte Carlo simjs (projects: 1, runs: 1,000,000)</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>Monte Carlo simjs (projects: 1, runs: 10,000)</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>Monte Carlo simjs (projects: 1, runs: 100,000)</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>Monte Carlo simjs (projects: 16, runs: 1,000,000)</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>Monte Carlo simjs (projects: 16, runs: 10,000)</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>Monte Carlo simjs (projects: 16, runs: 100,000)</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>Monte Carlo simjs (projects: 4, runs: 1,000,000)</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>Monte Carlo simjs (projects: 4, runs: 10,000)</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>Monte Carlo simjs (projects: 4, runs: 100,000)</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>Monte Carlo simjs (projects: 8, runs: 1,000,000)</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>Monte Carlo simjs (projects: 8, runs: 10,000)</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>Monte Carlo simjs (projects: 8, runs: 100,000)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$E$10:$E$41</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="32"/>
+                <c:pt idx="0">
+                  <c:v>0.110565217391304</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>21.718</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>21.8034</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>21.624400000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>21.064599999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>21.562000000000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>21.1264</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>20.966799999999999</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.95342857142857</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.82176470588235E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.13546153846153799</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>18.581600000000002</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.15568571428571401</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.5627500000000001</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>4.4424999999999999</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>4.5663636363636302E-2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.374764705882352</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>7.8733999999999904</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>5.8011111111111097E-2</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.67149999999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-525F-4820-AFD3-5790ED4B0B6D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$8:$B$9</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>sync</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$A$10:$A$41</c:f>
+              <c:strCache>
+                <c:ptCount val="32"/>
+                <c:pt idx="0">
+                  <c:v>Knights Tour (5x5)</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Mandelbrot 10000x10000, 1000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Mandelbrot 10000x10000, 1000 (1)</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Mandelbrot 10000x10000, 1000 (1200)</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Mandelbrot 10000x10000, 1000 (150)</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Mandelbrot 10000x10000, 1000 (300)</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Mandelbrot 10000x10000, 1000 (600)</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Mandelbrot 10000x10000, 1000 (75)</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Monte Carlo Math.random (projects: 1, runs: 1,000,000)</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Monte Carlo Math.random (projects: 1, runs: 10,000)</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Monte Carlo Math.random (projects: 1, runs: 100,000)</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Monte Carlo Math.random (projects: 16, runs: 1,000,000)</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Monte Carlo Math.random (projects: 16, runs: 10,000)</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>Monte Carlo Math.random (projects: 16, runs: 100,000)</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>Monte Carlo Math.random (projects: 4, runs: 1,000,000)</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>Monte Carlo Math.random (projects: 4, runs: 10,000)</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>Monte Carlo Math.random (projects: 4, runs: 100,000)</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>Monte Carlo Math.random (projects: 8, runs: 1,000,000)</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>Monte Carlo Math.random (projects: 8, runs: 10,000)</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>Monte Carlo Math.random (projects: 8, runs: 100,000)</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>Monte Carlo simjs (projects: 1, runs: 1,000,000)</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>Monte Carlo simjs (projects: 1, runs: 10,000)</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>Monte Carlo simjs (projects: 1, runs: 100,000)</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>Monte Carlo simjs (projects: 16, runs: 1,000,000)</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>Monte Carlo simjs (projects: 16, runs: 10,000)</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>Monte Carlo simjs (projects: 16, runs: 100,000)</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>Monte Carlo simjs (projects: 4, runs: 1,000,000)</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>Monte Carlo simjs (projects: 4, runs: 10,000)</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>Monte Carlo simjs (projects: 4, runs: 100,000)</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>Monte Carlo simjs (projects: 8, runs: 1,000,000)</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>Monte Carlo simjs (projects: 8, runs: 10,000)</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>Monte Carlo simjs (projects: 8, runs: 100,000)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$10:$B$41</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="32"/>
+                <c:pt idx="0">
+                  <c:v>0.244714285714285</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>74.738799999999998</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.7144999999999999</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.3508206686930001E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.11948</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>18.728400000000001</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.12916666666666601</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.66933333333333</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>5.1120000000000001</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>4.240625E-2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.44469999999999998</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>9.8613999999999997</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>6.1916666666666599E-2</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.764625</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>4.6452</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>4.8000000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.48230000000000001</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>23.865200000000002</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.17983333333333301</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2.47019999999999</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>7.9885999999999999</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>7.0074074074073997E-2</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.73599999999999999</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>14.410599999999899</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.10224999999999999</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>1.02514285714285</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-525F-4820-AFD3-5790ED4B0B6D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:axId val="472748672"/>
+        <c:axId val="472746704"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="472748672"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="472746704"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="472746704"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="472748672"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="de-DE"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+  <c:extLst>
+    <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{781A3756-C4B2-4CAC-9D66-4F8BD8637D16}">
+      <c14:pivotOptions>
+        <c14:dropZoneFilter val="1"/>
+        <c14:dropZoneCategories val="1"/>
+        <c14:dropZoneData val="1"/>
+        <c14:dropZoneSeries val="1"/>
+        <c14:dropZonesVisible val="1"/>
+      </c14:pivotOptions>
+    </c:ext>
+    <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{E28EC0CA-F0BB-4C9C-879D-F8772B89E7AC}">
+      <c16:pivotOptions16>
+        <c16:showExpandCollapseFieldButtons val="1"/>
+      </c16:pivotOptions16>
+    </c:ext>
+  </c:extLst>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -1650,6 +2608,509 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -1667,7 +3128,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -1677,6 +3144,42 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>561974</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>2819398</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{71BCEE03-D0EA-484D-A53C-E6485F8BD875}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -3442,19 +4945,19 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable2" cacheId="31" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="A8:E141" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="6" colPageCount="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable2" cacheId="0" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+  <location ref="A8:E41" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="5" colPageCount="1"/>
   <pivotFields count="16">
     <pivotField axis="axisCol" showAll="0" sortType="descending">
       <items count="5">
         <item x="0"/>
+        <item x="2"/>
         <item x="3"/>
-        <item x="2"/>
         <item x="1"/>
         <item t="default"/>
       </items>
     </pivotField>
-    <pivotField axis="axisPage" dataField="1" showAll="0">
+    <pivotField showAll="0">
       <items count="4">
         <item x="1"/>
         <item x="0"/>
@@ -3465,7 +4968,7 @@
     <pivotField axis="axisRow" showAll="0">
       <items count="35">
         <item x="25"/>
-        <item x="26"/>
+        <item h="1" x="26"/>
         <item x="24"/>
         <item x="27"/>
         <item x="32"/>
@@ -3594,7 +5097,7 @@
         <item t="default"/>
       </items>
     </pivotField>
-    <pivotField dataField="1" showAll="0"/>
+    <pivotField showAll="0"/>
     <pivotField axis="axisPage" numFmtId="14" showAll="0" defaultSubtotal="0">
       <items count="124">
         <item x="27"/>
@@ -3750,406 +5253,105 @@
     <pivotField showAll="0"/>
     <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
   </pivotFields>
-  <rowFields count="2">
+  <rowFields count="1">
     <field x="2"/>
-    <field x="-2"/>
   </rowFields>
-  <rowItems count="132">
+  <rowItems count="32">
     <i>
       <x/>
     </i>
-    <i r="1">
-      <x/>
-    </i>
-    <i r="1" i="1">
-      <x v="1"/>
-    </i>
-    <i r="1" i="2">
-      <x v="2"/>
-    </i>
     <i>
-      <x v="1"/>
-    </i>
-    <i r="1">
-      <x/>
-    </i>
-    <i r="1" i="1">
-      <x v="1"/>
-    </i>
-    <i r="1" i="2">
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i r="1">
-      <x/>
-    </i>
-    <i r="1" i="1">
-      <x v="1"/>
-    </i>
-    <i r="1" i="2">
       <x v="2"/>
     </i>
     <i>
       <x v="3"/>
     </i>
-    <i r="1">
-      <x/>
-    </i>
-    <i r="1" i="1">
-      <x v="1"/>
-    </i>
-    <i r="1" i="2">
-      <x v="2"/>
-    </i>
     <i>
       <x v="4"/>
-    </i>
-    <i r="1">
-      <x/>
-    </i>
-    <i r="1" i="1">
-      <x v="1"/>
-    </i>
-    <i r="1" i="2">
-      <x v="2"/>
     </i>
     <i>
       <x v="5"/>
     </i>
-    <i r="1">
-      <x/>
-    </i>
-    <i r="1" i="1">
-      <x v="1"/>
-    </i>
-    <i r="1" i="2">
-      <x v="2"/>
-    </i>
     <i>
       <x v="6"/>
-    </i>
-    <i r="1">
-      <x/>
-    </i>
-    <i r="1" i="1">
-      <x v="1"/>
-    </i>
-    <i r="1" i="2">
-      <x v="2"/>
     </i>
     <i>
       <x v="7"/>
     </i>
-    <i r="1">
-      <x/>
-    </i>
-    <i r="1" i="1">
-      <x v="1"/>
-    </i>
-    <i r="1" i="2">
-      <x v="2"/>
-    </i>
     <i>
       <x v="8"/>
-    </i>
-    <i r="1">
-      <x/>
-    </i>
-    <i r="1" i="1">
-      <x v="1"/>
-    </i>
-    <i r="1" i="2">
-      <x v="2"/>
     </i>
     <i>
       <x v="10"/>
     </i>
-    <i r="1">
-      <x/>
-    </i>
-    <i r="1" i="1">
-      <x v="1"/>
-    </i>
-    <i r="1" i="2">
-      <x v="2"/>
-    </i>
     <i>
       <x v="11"/>
-    </i>
-    <i r="1">
-      <x/>
-    </i>
-    <i r="1" i="1">
-      <x v="1"/>
-    </i>
-    <i r="1" i="2">
-      <x v="2"/>
     </i>
     <i>
       <x v="12"/>
     </i>
-    <i r="1">
-      <x/>
-    </i>
-    <i r="1" i="1">
-      <x v="1"/>
-    </i>
-    <i r="1" i="2">
-      <x v="2"/>
-    </i>
     <i>
       <x v="13"/>
-    </i>
-    <i r="1">
-      <x/>
-    </i>
-    <i r="1" i="1">
-      <x v="1"/>
-    </i>
-    <i r="1" i="2">
-      <x v="2"/>
     </i>
     <i>
       <x v="14"/>
     </i>
-    <i r="1">
-      <x/>
-    </i>
-    <i r="1" i="1">
-      <x v="1"/>
-    </i>
-    <i r="1" i="2">
-      <x v="2"/>
-    </i>
     <i>
       <x v="15"/>
-    </i>
-    <i r="1">
-      <x/>
-    </i>
-    <i r="1" i="1">
-      <x v="1"/>
-    </i>
-    <i r="1" i="2">
-      <x v="2"/>
     </i>
     <i>
       <x v="16"/>
     </i>
-    <i r="1">
-      <x/>
-    </i>
-    <i r="1" i="1">
-      <x v="1"/>
-    </i>
-    <i r="1" i="2">
-      <x v="2"/>
-    </i>
     <i>
       <x v="17"/>
-    </i>
-    <i r="1">
-      <x/>
-    </i>
-    <i r="1" i="1">
-      <x v="1"/>
-    </i>
-    <i r="1" i="2">
-      <x v="2"/>
     </i>
     <i>
       <x v="18"/>
     </i>
-    <i r="1">
-      <x/>
-    </i>
-    <i r="1" i="1">
-      <x v="1"/>
-    </i>
-    <i r="1" i="2">
-      <x v="2"/>
-    </i>
     <i>
       <x v="19"/>
-    </i>
-    <i r="1">
-      <x/>
-    </i>
-    <i r="1" i="1">
-      <x v="1"/>
-    </i>
-    <i r="1" i="2">
-      <x v="2"/>
     </i>
     <i>
       <x v="20"/>
     </i>
-    <i r="1">
-      <x/>
-    </i>
-    <i r="1" i="1">
-      <x v="1"/>
-    </i>
-    <i r="1" i="2">
-      <x v="2"/>
-    </i>
     <i>
       <x v="21"/>
-    </i>
-    <i r="1">
-      <x/>
-    </i>
-    <i r="1" i="1">
-      <x v="1"/>
-    </i>
-    <i r="1" i="2">
-      <x v="2"/>
     </i>
     <i>
       <x v="22"/>
     </i>
-    <i r="1">
-      <x/>
-    </i>
-    <i r="1" i="1">
-      <x v="1"/>
-    </i>
-    <i r="1" i="2">
-      <x v="2"/>
-    </i>
     <i>
       <x v="23"/>
-    </i>
-    <i r="1">
-      <x/>
-    </i>
-    <i r="1" i="1">
-      <x v="1"/>
-    </i>
-    <i r="1" i="2">
-      <x v="2"/>
     </i>
     <i>
       <x v="24"/>
     </i>
-    <i r="1">
-      <x/>
-    </i>
-    <i r="1" i="1">
-      <x v="1"/>
-    </i>
-    <i r="1" i="2">
-      <x v="2"/>
-    </i>
     <i>
       <x v="25"/>
-    </i>
-    <i r="1">
-      <x/>
-    </i>
-    <i r="1" i="1">
-      <x v="1"/>
-    </i>
-    <i r="1" i="2">
-      <x v="2"/>
     </i>
     <i>
       <x v="26"/>
     </i>
-    <i r="1">
-      <x/>
-    </i>
-    <i r="1" i="1">
-      <x v="1"/>
-    </i>
-    <i r="1" i="2">
-      <x v="2"/>
-    </i>
     <i>
       <x v="27"/>
-    </i>
-    <i r="1">
-      <x/>
-    </i>
-    <i r="1" i="1">
-      <x v="1"/>
-    </i>
-    <i r="1" i="2">
-      <x v="2"/>
     </i>
     <i>
       <x v="28"/>
     </i>
-    <i r="1">
-      <x/>
-    </i>
-    <i r="1" i="1">
-      <x v="1"/>
-    </i>
-    <i r="1" i="2">
-      <x v="2"/>
-    </i>
     <i>
       <x v="29"/>
-    </i>
-    <i r="1">
-      <x/>
-    </i>
-    <i r="1" i="1">
-      <x v="1"/>
-    </i>
-    <i r="1" i="2">
-      <x v="2"/>
     </i>
     <i>
       <x v="30"/>
     </i>
-    <i r="1">
-      <x/>
-    </i>
-    <i r="1" i="1">
-      <x v="1"/>
-    </i>
-    <i r="1" i="2">
-      <x v="2"/>
-    </i>
     <i>
       <x v="31"/>
-    </i>
-    <i r="1">
-      <x/>
-    </i>
-    <i r="1" i="1">
-      <x v="1"/>
-    </i>
-    <i r="1" i="2">
-      <x v="2"/>
     </i>
     <i>
       <x v="32"/>
     </i>
-    <i r="1">
-      <x/>
-    </i>
-    <i r="1" i="1">
-      <x v="1"/>
-    </i>
-    <i r="1" i="2">
-      <x v="2"/>
-    </i>
     <i>
       <x v="33"/>
-    </i>
-    <i r="1">
-      <x/>
-    </i>
-    <i r="1" i="1">
-      <x v="1"/>
-    </i>
-    <i r="1" i="2">
-      <x v="2"/>
     </i>
   </rowItems>
   <colFields count="1">
@@ -4169,19 +5371,66 @@
       <x v="3"/>
     </i>
   </colItems>
-  <pageFields count="6">
+  <pageFields count="5">
     <pageField fld="12" hier="-1"/>
     <pageField fld="13" hier="-1"/>
     <pageField fld="9" hier="-1"/>
     <pageField fld="10" hier="-1"/>
     <pageField fld="11" hier="-1"/>
-    <pageField fld="1" hier="-1"/>
   </pageFields>
-  <dataFields count="3">
-    <dataField name="Average of Mean (s)" fld="7" subtotal="average" baseField="0" baseItem="0"/>
-    <dataField name="Average of Variance" fld="8" subtotal="average" baseField="0" baseItem="0"/>
-    <dataField name="Count of File" fld="1" subtotal="count" baseField="0" baseItem="0"/>
+  <dataFields count="1">
+    <dataField name="Average of Mean (s)" fld="7" subtotal="average" baseField="2" baseItem="2"/>
   </dataFields>
+  <chartFormats count="4">
+    <chartFormat chart="0" format="4" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="5" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="6" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="7" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
   <pivotTableStyleInfo name="PivotStyleMedium7" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="1" showLastColumn="1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
@@ -4458,251 +5707,242 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E141"/>
+  <dimension ref="A2:E41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="49.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.1640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.83203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.1640625" customWidth="1"/>
-    <col min="7" max="8" width="12.1640625" customWidth="1"/>
-    <col min="9" max="9" width="20.5" customWidth="1"/>
-    <col min="10" max="10" width="29.33203125" customWidth="1"/>
-    <col min="11" max="11" width="31.83203125" customWidth="1"/>
-    <col min="12" max="12" width="32.1640625" customWidth="1"/>
-    <col min="13" max="13" width="15.83203125" customWidth="1"/>
-    <col min="14" max="14" width="34.5" customWidth="1"/>
-    <col min="15" max="15" width="35.1640625" customWidth="1"/>
-    <col min="16" max="16" width="15.83203125" customWidth="1"/>
-    <col min="17" max="17" width="37.5" customWidth="1"/>
-    <col min="18" max="18" width="34.1640625" customWidth="1"/>
-    <col min="19" max="19" width="15.83203125" customWidth="1"/>
-    <col min="20" max="20" width="36.5" customWidth="1"/>
-    <col min="21" max="21" width="34.1640625" customWidth="1"/>
-    <col min="22" max="22" width="15.83203125" customWidth="1"/>
-    <col min="23" max="23" width="36.5" customWidth="1"/>
-    <col min="24" max="24" width="34.1640625" customWidth="1"/>
-    <col min="25" max="25" width="15.83203125" customWidth="1"/>
-    <col min="26" max="26" width="36.5" customWidth="1"/>
-    <col min="27" max="27" width="33.1640625" customWidth="1"/>
-    <col min="28" max="28" width="15.83203125" customWidth="1"/>
-    <col min="29" max="29" width="35.5" customWidth="1"/>
-    <col min="30" max="30" width="39.33203125" customWidth="1"/>
-    <col min="31" max="31" width="15.83203125" customWidth="1"/>
-    <col min="32" max="32" width="41.83203125" customWidth="1"/>
-    <col min="33" max="33" width="49" customWidth="1"/>
-    <col min="34" max="34" width="7.1640625" customWidth="1"/>
-    <col min="35" max="35" width="51.5" customWidth="1"/>
-    <col min="36" max="36" width="46.5" customWidth="1"/>
-    <col min="37" max="37" width="12.1640625" customWidth="1"/>
-    <col min="38" max="38" width="48.83203125" customWidth="1"/>
-    <col min="39" max="39" width="47.5" customWidth="1"/>
-    <col min="40" max="40" width="8.1640625" customWidth="1"/>
-    <col min="41" max="41" width="49.83203125" customWidth="1"/>
-    <col min="42" max="42" width="50" customWidth="1"/>
-    <col min="43" max="43" width="8.1640625" customWidth="1"/>
-    <col min="44" max="44" width="52.5" customWidth="1"/>
-    <col min="45" max="45" width="47.5" customWidth="1"/>
-    <col min="46" max="46" width="12.1640625" customWidth="1"/>
-    <col min="47" max="47" width="49.83203125" customWidth="1"/>
-    <col min="48" max="48" width="48.5" customWidth="1"/>
-    <col min="49" max="49" width="12.1640625" customWidth="1"/>
-    <col min="50" max="50" width="51" customWidth="1"/>
-    <col min="51" max="51" width="49" customWidth="1"/>
-    <col min="52" max="52" width="6.1640625" customWidth="1"/>
-    <col min="53" max="53" width="51.5" customWidth="1"/>
-    <col min="54" max="54" width="46.5" customWidth="1"/>
-    <col min="55" max="55" width="11.1640625" customWidth="1"/>
-    <col min="56" max="56" width="48.83203125" customWidth="1"/>
-    <col min="57" max="57" width="47.5" customWidth="1"/>
-    <col min="58" max="58" width="7.1640625" customWidth="1"/>
-    <col min="59" max="59" width="49.83203125" customWidth="1"/>
-    <col min="60" max="60" width="49" customWidth="1"/>
-    <col min="61" max="61" width="7.1640625" customWidth="1"/>
-    <col min="62" max="62" width="51.5" customWidth="1"/>
-    <col min="63" max="63" width="46.5" customWidth="1"/>
-    <col min="64" max="64" width="12.1640625" customWidth="1"/>
-    <col min="65" max="65" width="48.83203125" customWidth="1"/>
-    <col min="66" max="66" width="47.5" customWidth="1"/>
-    <col min="67" max="67" width="9.1640625" customWidth="1"/>
-    <col min="68" max="68" width="49.83203125" customWidth="1"/>
-    <col min="69" max="69" width="41.83203125" customWidth="1"/>
-    <col min="70" max="70" width="7.1640625" customWidth="1"/>
-    <col min="71" max="71" width="44.1640625" customWidth="1"/>
-    <col min="72" max="72" width="39.33203125" customWidth="1"/>
-    <col min="73" max="73" width="6.1640625" customWidth="1"/>
-    <col min="74" max="74" width="41.6640625" customWidth="1"/>
-    <col min="75" max="75" width="40.33203125" customWidth="1"/>
-    <col min="76" max="76" width="7.1640625" customWidth="1"/>
-    <col min="77" max="77" width="42.6640625" customWidth="1"/>
-    <col min="78" max="78" width="42.83203125" customWidth="1"/>
-    <col min="79" max="79" width="8.1640625" customWidth="1"/>
-    <col min="80" max="80" width="45.1640625" customWidth="1"/>
-    <col min="81" max="81" width="40.33203125" customWidth="1"/>
-    <col min="82" max="82" width="12.1640625" customWidth="1"/>
-    <col min="83" max="83" width="42.6640625" customWidth="1"/>
-    <col min="84" max="84" width="41.33203125" customWidth="1"/>
-    <col min="85" max="85" width="7.1640625" customWidth="1"/>
-    <col min="86" max="86" width="43.6640625" customWidth="1"/>
-    <col min="87" max="87" width="41.83203125" customWidth="1"/>
-    <col min="88" max="88" width="7.1640625" customWidth="1"/>
-    <col min="89" max="89" width="44.1640625" customWidth="1"/>
-    <col min="90" max="90" width="39.33203125" customWidth="1"/>
-    <col min="91" max="91" width="12.1640625" customWidth="1"/>
-    <col min="92" max="92" width="41.6640625" customWidth="1"/>
-    <col min="93" max="93" width="40.33203125" customWidth="1"/>
-    <col min="94" max="94" width="6.1640625" customWidth="1"/>
-    <col min="95" max="95" width="42.6640625" bestFit="1" customWidth="1"/>
-    <col min="96" max="96" width="41.83203125" bestFit="1" customWidth="1"/>
-    <col min="97" max="97" width="8.1640625" customWidth="1"/>
-    <col min="98" max="98" width="44.1640625" customWidth="1"/>
-    <col min="99" max="99" width="39.33203125" customWidth="1"/>
-    <col min="100" max="100" width="8.1640625" customWidth="1"/>
-    <col min="101" max="101" width="41.6640625" customWidth="1"/>
-    <col min="102" max="102" width="40.33203125" customWidth="1"/>
-    <col min="103" max="103" width="12.1640625" customWidth="1"/>
-    <col min="104" max="104" width="42.6640625" customWidth="1"/>
-    <col min="105" max="105" width="12.1640625" customWidth="1"/>
-    <col min="106" max="106" width="40.6640625" customWidth="1"/>
-    <col min="107" max="109" width="40.6640625" bestFit="1" customWidth="1"/>
-    <col min="110" max="113" width="40.6640625" customWidth="1"/>
-    <col min="114" max="115" width="40.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="48.75" customWidth="1"/>
+    <col min="2" max="2" width="14.75" customWidth="1"/>
+    <col min="3" max="3" width="16" customWidth="1"/>
+    <col min="4" max="4" width="11.875" customWidth="1"/>
+    <col min="5" max="5" width="14.75" customWidth="1"/>
+    <col min="6" max="6" width="45.125" customWidth="1"/>
+    <col min="7" max="7" width="46.25" customWidth="1"/>
+    <col min="8" max="8" width="48.75" customWidth="1"/>
+    <col min="9" max="9" width="46.25" customWidth="1"/>
+    <col min="10" max="10" width="47.25" customWidth="1"/>
+    <col min="11" max="11" width="47.75" customWidth="1"/>
+    <col min="12" max="12" width="45.125" customWidth="1"/>
+    <col min="13" max="13" width="46.25" customWidth="1"/>
+    <col min="14" max="14" width="47.75" customWidth="1"/>
+    <col min="15" max="15" width="45.125" customWidth="1"/>
+    <col min="16" max="16" width="46.25" customWidth="1"/>
+    <col min="17" max="17" width="40.375" customWidth="1"/>
+    <col min="18" max="18" width="37.875" customWidth="1"/>
+    <col min="19" max="19" width="38.875" customWidth="1"/>
+    <col min="20" max="20" width="41.375" customWidth="1"/>
+    <col min="21" max="21" width="38.875" customWidth="1"/>
+    <col min="22" max="22" width="39.875" customWidth="1"/>
+    <col min="23" max="23" width="40.375" customWidth="1"/>
+    <col min="24" max="24" width="37.875" customWidth="1"/>
+    <col min="25" max="25" width="38.875" customWidth="1"/>
+    <col min="26" max="26" width="40.375" customWidth="1"/>
+    <col min="27" max="27" width="37.875" customWidth="1"/>
+    <col min="28" max="28" width="38.875" customWidth="1"/>
+    <col min="29" max="29" width="11.875" customWidth="1"/>
+    <col min="30" max="30" width="17.75" customWidth="1"/>
+    <col min="31" max="31" width="15.75" customWidth="1"/>
+    <col min="32" max="32" width="27.375" customWidth="1"/>
+    <col min="33" max="33" width="30.25" customWidth="1"/>
+    <col min="34" max="34" width="33.25" customWidth="1"/>
+    <col min="35" max="37" width="32.25" customWidth="1"/>
+    <col min="38" max="38" width="31.25" customWidth="1"/>
+    <col min="39" max="39" width="40.375" customWidth="1"/>
+    <col min="40" max="40" width="37.875" customWidth="1"/>
+    <col min="41" max="41" width="38.875" customWidth="1"/>
+    <col min="42" max="42" width="41.375" customWidth="1"/>
+    <col min="43" max="43" width="38.875" customWidth="1"/>
+    <col min="44" max="44" width="39.875" customWidth="1"/>
+    <col min="45" max="45" width="40.375" customWidth="1"/>
+    <col min="46" max="46" width="37.875" customWidth="1"/>
+    <col min="47" max="47" width="38.875" customWidth="1"/>
+    <col min="48" max="48" width="40.375" customWidth="1"/>
+    <col min="49" max="49" width="37.875" customWidth="1"/>
+    <col min="50" max="50" width="38.875" customWidth="1"/>
+    <col min="51" max="51" width="20.75" customWidth="1"/>
+    <col min="52" max="53" width="15.75" customWidth="1"/>
+    <col min="54" max="54" width="27.375" customWidth="1"/>
+    <col min="55" max="55" width="40.375" customWidth="1"/>
+    <col min="56" max="56" width="37.875" customWidth="1"/>
+    <col min="57" max="57" width="38.875" customWidth="1"/>
+    <col min="58" max="58" width="41.375" customWidth="1"/>
+    <col min="59" max="59" width="38.875" customWidth="1"/>
+    <col min="60" max="60" width="39.875" customWidth="1"/>
+    <col min="61" max="61" width="40.375" customWidth="1"/>
+    <col min="62" max="62" width="37.875" customWidth="1"/>
+    <col min="63" max="63" width="38.875" customWidth="1"/>
+    <col min="64" max="64" width="40.375" customWidth="1"/>
+    <col min="65" max="65" width="37.875" customWidth="1"/>
+    <col min="66" max="66" width="38.875" customWidth="1"/>
+    <col min="67" max="67" width="13.125" customWidth="1"/>
+    <col min="68" max="68" width="16.5" customWidth="1"/>
+    <col min="69" max="69" width="15.75" customWidth="1"/>
+    <col min="70" max="70" width="27.375" customWidth="1"/>
+    <col min="71" max="71" width="30.25" customWidth="1"/>
+    <col min="72" max="72" width="33.25" customWidth="1"/>
+    <col min="73" max="75" width="32.25" customWidth="1"/>
+    <col min="76" max="76" width="31.25" customWidth="1"/>
+    <col min="77" max="77" width="47.75" customWidth="1"/>
+    <col min="78" max="78" width="45.125" customWidth="1"/>
+    <col min="79" max="79" width="46.25" customWidth="1"/>
+    <col min="80" max="80" width="48.75" customWidth="1"/>
+    <col min="81" max="81" width="46.25" customWidth="1"/>
+    <col min="82" max="82" width="47.25" customWidth="1"/>
+    <col min="83" max="83" width="47.75" customWidth="1"/>
+    <col min="84" max="84" width="45.125" customWidth="1"/>
+    <col min="85" max="85" width="46.25" customWidth="1"/>
+    <col min="86" max="86" width="47.75" customWidth="1"/>
+    <col min="87" max="87" width="45.125" customWidth="1"/>
+    <col min="88" max="88" width="46.25" customWidth="1"/>
+    <col min="89" max="89" width="19.5" customWidth="1"/>
+    <col min="90" max="90" width="39.375" customWidth="1"/>
+    <col min="91" max="91" width="12.125" customWidth="1"/>
+    <col min="92" max="92" width="41.625" customWidth="1"/>
+    <col min="93" max="93" width="40.375" customWidth="1"/>
+    <col min="94" max="94" width="6.125" customWidth="1"/>
+    <col min="95" max="95" width="42.625" bestFit="1" customWidth="1"/>
+    <col min="96" max="96" width="41.875" bestFit="1" customWidth="1"/>
+    <col min="97" max="97" width="8.125" customWidth="1"/>
+    <col min="98" max="98" width="44.125" customWidth="1"/>
+    <col min="99" max="99" width="39.375" customWidth="1"/>
+    <col min="100" max="100" width="8.125" customWidth="1"/>
+    <col min="101" max="101" width="41.625" customWidth="1"/>
+    <col min="102" max="102" width="40.375" customWidth="1"/>
+    <col min="103" max="103" width="12.125" customWidth="1"/>
+    <col min="104" max="104" width="42.625" customWidth="1"/>
+    <col min="105" max="105" width="12.125" customWidth="1"/>
+    <col min="106" max="106" width="40.625" customWidth="1"/>
+    <col min="107" max="109" width="40.625" bestFit="1" customWidth="1"/>
+    <col min="110" max="113" width="40.625" customWidth="1"/>
+    <col min="114" max="115" width="40.625" bestFit="1" customWidth="1"/>
     <col min="116" max="116" width="20.5" customWidth="1"/>
-    <col min="117" max="119" width="47.83203125" customWidth="1"/>
-    <col min="120" max="120" width="47.83203125" bestFit="1" customWidth="1"/>
-    <col min="121" max="123" width="47.83203125" customWidth="1"/>
-    <col min="124" max="127" width="47.83203125" bestFit="1" customWidth="1"/>
-    <col min="128" max="129" width="47.83203125" customWidth="1"/>
-    <col min="130" max="130" width="47.83203125" bestFit="1" customWidth="1"/>
-    <col min="131" max="131" width="47.83203125" customWidth="1"/>
-    <col min="132" max="133" width="47.83203125" bestFit="1" customWidth="1"/>
-    <col min="134" max="135" width="47.83203125" customWidth="1"/>
-    <col min="136" max="136" width="47.83203125" bestFit="1" customWidth="1"/>
-    <col min="137" max="137" width="47.83203125" customWidth="1"/>
-    <col min="138" max="138" width="47.83203125" bestFit="1" customWidth="1"/>
-    <col min="139" max="141" width="47.83203125" customWidth="1"/>
-    <col min="142" max="142" width="47.83203125" bestFit="1" customWidth="1"/>
-    <col min="143" max="143" width="47.83203125" customWidth="1"/>
-    <col min="144" max="144" width="12.1640625" customWidth="1"/>
+    <col min="117" max="119" width="47.875" customWidth="1"/>
+    <col min="120" max="120" width="47.875" bestFit="1" customWidth="1"/>
+    <col min="121" max="123" width="47.875" customWidth="1"/>
+    <col min="124" max="127" width="47.875" bestFit="1" customWidth="1"/>
+    <col min="128" max="129" width="47.875" customWidth="1"/>
+    <col min="130" max="130" width="47.875" bestFit="1" customWidth="1"/>
+    <col min="131" max="131" width="47.875" customWidth="1"/>
+    <col min="132" max="133" width="47.875" bestFit="1" customWidth="1"/>
+    <col min="134" max="135" width="47.875" customWidth="1"/>
+    <col min="136" max="136" width="47.875" bestFit="1" customWidth="1"/>
+    <col min="137" max="137" width="47.875" customWidth="1"/>
+    <col min="138" max="138" width="47.875" bestFit="1" customWidth="1"/>
+    <col min="139" max="141" width="47.875" customWidth="1"/>
+    <col min="142" max="142" width="47.875" bestFit="1" customWidth="1"/>
+    <col min="143" max="143" width="47.875" customWidth="1"/>
+    <col min="144" max="144" width="12.125" customWidth="1"/>
     <col min="145" max="145" width="19" bestFit="1" customWidth="1"/>
-    <col min="146" max="146" width="18.83203125" customWidth="1"/>
-    <col min="147" max="147" width="50.83203125" bestFit="1" customWidth="1"/>
-    <col min="148" max="148" width="40.33203125" bestFit="1" customWidth="1"/>
-    <col min="149" max="149" width="7.1640625" customWidth="1"/>
-    <col min="150" max="150" width="15.83203125" bestFit="1" customWidth="1"/>
-    <col min="151" max="151" width="12.1640625" bestFit="1" customWidth="1"/>
-    <col min="152" max="153" width="51.83203125" bestFit="1" customWidth="1"/>
-    <col min="154" max="154" width="42.83203125" bestFit="1" customWidth="1"/>
-    <col min="155" max="155" width="8.1640625" customWidth="1"/>
-    <col min="156" max="156" width="15.83203125" bestFit="1" customWidth="1"/>
-    <col min="157" max="157" width="10.1640625" customWidth="1"/>
+    <col min="146" max="146" width="18.875" customWidth="1"/>
+    <col min="147" max="147" width="50.875" bestFit="1" customWidth="1"/>
+    <col min="148" max="148" width="40.375" bestFit="1" customWidth="1"/>
+    <col min="149" max="149" width="7.125" customWidth="1"/>
+    <col min="150" max="150" width="15.875" bestFit="1" customWidth="1"/>
+    <col min="151" max="151" width="12.125" bestFit="1" customWidth="1"/>
+    <col min="152" max="153" width="51.875" bestFit="1" customWidth="1"/>
+    <col min="154" max="154" width="42.875" bestFit="1" customWidth="1"/>
+    <col min="155" max="155" width="8.125" customWidth="1"/>
+    <col min="156" max="156" width="15.875" bestFit="1" customWidth="1"/>
+    <col min="157" max="157" width="10.125" customWidth="1"/>
     <col min="158" max="158" width="54.5" bestFit="1" customWidth="1"/>
-    <col min="159" max="159" width="54.33203125" bestFit="1" customWidth="1"/>
-    <col min="160" max="160" width="40.33203125" bestFit="1" customWidth="1"/>
-    <col min="161" max="161" width="12.1640625" bestFit="1" customWidth="1"/>
-    <col min="162" max="162" width="15.83203125" bestFit="1" customWidth="1"/>
-    <col min="163" max="163" width="12.1640625" bestFit="1" customWidth="1"/>
-    <col min="164" max="165" width="51.83203125" bestFit="1" customWidth="1"/>
-    <col min="166" max="166" width="41.33203125" bestFit="1" customWidth="1"/>
-    <col min="167" max="167" width="7.1640625" customWidth="1"/>
-    <col min="168" max="168" width="15.83203125" bestFit="1" customWidth="1"/>
-    <col min="169" max="169" width="10.1640625" customWidth="1"/>
-    <col min="170" max="171" width="52.83203125" bestFit="1" customWidth="1"/>
-    <col min="172" max="172" width="41.83203125" bestFit="1" customWidth="1"/>
-    <col min="173" max="173" width="7.1640625" customWidth="1"/>
-    <col min="174" max="174" width="15.83203125" bestFit="1" customWidth="1"/>
-    <col min="175" max="175" width="10.1640625" customWidth="1"/>
-    <col min="176" max="177" width="53.33203125" bestFit="1" customWidth="1"/>
-    <col min="178" max="178" width="39.33203125" bestFit="1" customWidth="1"/>
-    <col min="179" max="179" width="12.1640625" bestFit="1" customWidth="1"/>
-    <col min="180" max="180" width="15.83203125" bestFit="1" customWidth="1"/>
+    <col min="159" max="159" width="54.375" bestFit="1" customWidth="1"/>
+    <col min="160" max="160" width="40.375" bestFit="1" customWidth="1"/>
+    <col min="161" max="161" width="12.125" bestFit="1" customWidth="1"/>
+    <col min="162" max="162" width="15.875" bestFit="1" customWidth="1"/>
+    <col min="163" max="163" width="12.125" bestFit="1" customWidth="1"/>
+    <col min="164" max="165" width="51.875" bestFit="1" customWidth="1"/>
+    <col min="166" max="166" width="41.375" bestFit="1" customWidth="1"/>
+    <col min="167" max="167" width="7.125" customWidth="1"/>
+    <col min="168" max="168" width="15.875" bestFit="1" customWidth="1"/>
+    <col min="169" max="169" width="10.125" customWidth="1"/>
+    <col min="170" max="171" width="52.875" bestFit="1" customWidth="1"/>
+    <col min="172" max="172" width="41.875" bestFit="1" customWidth="1"/>
+    <col min="173" max="173" width="7.125" customWidth="1"/>
+    <col min="174" max="174" width="15.875" bestFit="1" customWidth="1"/>
+    <col min="175" max="175" width="10.125" customWidth="1"/>
+    <col min="176" max="177" width="53.375" bestFit="1" customWidth="1"/>
+    <col min="178" max="178" width="39.375" bestFit="1" customWidth="1"/>
+    <col min="179" max="179" width="12.125" bestFit="1" customWidth="1"/>
+    <col min="180" max="180" width="15.875" bestFit="1" customWidth="1"/>
     <col min="181" max="181" width="12" bestFit="1" customWidth="1"/>
-    <col min="182" max="183" width="50.83203125" bestFit="1" customWidth="1"/>
-    <col min="184" max="184" width="40.33203125" bestFit="1" customWidth="1"/>
-    <col min="185" max="185" width="6.1640625" customWidth="1"/>
-    <col min="186" max="186" width="15.83203125" bestFit="1" customWidth="1"/>
-    <col min="187" max="187" width="12.1640625" bestFit="1" customWidth="1"/>
-    <col min="188" max="189" width="51.83203125" bestFit="1" customWidth="1"/>
-    <col min="190" max="190" width="41.83203125" bestFit="1" customWidth="1"/>
-    <col min="191" max="191" width="8.1640625" customWidth="1"/>
-    <col min="192" max="192" width="15.83203125" bestFit="1" customWidth="1"/>
-    <col min="193" max="193" width="10.1640625" customWidth="1"/>
-    <col min="194" max="195" width="53.33203125" bestFit="1" customWidth="1"/>
-    <col min="196" max="196" width="39.33203125" bestFit="1" customWidth="1"/>
-    <col min="197" max="197" width="8.1640625" customWidth="1"/>
-    <col min="198" max="198" width="15.83203125" bestFit="1" customWidth="1"/>
-    <col min="199" max="199" width="11.1640625" bestFit="1" customWidth="1"/>
-    <col min="200" max="201" width="50.83203125" bestFit="1" customWidth="1"/>
-    <col min="202" max="202" width="40.33203125" bestFit="1" customWidth="1"/>
-    <col min="203" max="203" width="12.1640625" bestFit="1" customWidth="1"/>
-    <col min="204" max="204" width="15.83203125" bestFit="1" customWidth="1"/>
-    <col min="205" max="205" width="12.1640625" bestFit="1" customWidth="1"/>
-    <col min="206" max="207" width="51.83203125" bestFit="1" customWidth="1"/>
+    <col min="182" max="183" width="50.875" bestFit="1" customWidth="1"/>
+    <col min="184" max="184" width="40.375" bestFit="1" customWidth="1"/>
+    <col min="185" max="185" width="6.125" customWidth="1"/>
+    <col min="186" max="186" width="15.875" bestFit="1" customWidth="1"/>
+    <col min="187" max="187" width="12.125" bestFit="1" customWidth="1"/>
+    <col min="188" max="189" width="51.875" bestFit="1" customWidth="1"/>
+    <col min="190" max="190" width="41.875" bestFit="1" customWidth="1"/>
+    <col min="191" max="191" width="8.125" customWidth="1"/>
+    <col min="192" max="192" width="15.875" bestFit="1" customWidth="1"/>
+    <col min="193" max="193" width="10.125" customWidth="1"/>
+    <col min="194" max="195" width="53.375" bestFit="1" customWidth="1"/>
+    <col min="196" max="196" width="39.375" bestFit="1" customWidth="1"/>
+    <col min="197" max="197" width="8.125" customWidth="1"/>
+    <col min="198" max="198" width="15.875" bestFit="1" customWidth="1"/>
+    <col min="199" max="199" width="11.125" bestFit="1" customWidth="1"/>
+    <col min="200" max="201" width="50.875" bestFit="1" customWidth="1"/>
+    <col min="202" max="202" width="40.375" bestFit="1" customWidth="1"/>
+    <col min="203" max="203" width="12.125" bestFit="1" customWidth="1"/>
+    <col min="204" max="204" width="15.875" bestFit="1" customWidth="1"/>
+    <col min="205" max="205" width="12.125" bestFit="1" customWidth="1"/>
+    <col min="206" max="207" width="51.875" bestFit="1" customWidth="1"/>
     <col min="208" max="208" width="19" bestFit="1" customWidth="1"/>
-    <col min="209" max="209" width="18.83203125" bestFit="1" customWidth="1"/>
+    <col min="209" max="209" width="18.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="5" t="s">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
         <v>12</v>
-      </c>
-      <c r="B1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" s="5" t="s">
-        <v>13</v>
       </c>
       <c r="B2" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B3" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B4" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B5" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="B6" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="5" t="s">
+        <v>61</v>
+      </c>
       <c r="B8" s="5" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>56</v>
       </c>
@@ -4710,1706 +5950,462 @@
         <v>53</v>
       </c>
       <c r="C9" t="s">
-        <v>62</v>
+        <v>40</v>
       </c>
       <c r="D9" t="s">
-        <v>40</v>
+        <v>59</v>
       </c>
       <c r="E9" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="B10" s="4"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11" s="7" t="s">
-        <v>60</v>
+      <c r="B10" s="4">
+        <v>0.244714285714285</v>
+      </c>
+      <c r="C10" s="4">
+        <v>0.106361702127659</v>
+      </c>
+      <c r="D10" s="4">
+        <v>0.142405405405405</v>
+      </c>
+      <c r="E10" s="4">
+        <v>0.110565217391304</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="6" t="s">
+        <v>55</v>
       </c>
       <c r="B11" s="4">
-        <v>0.244714285714285</v>
+        <v>74.738799999999998</v>
       </c>
       <c r="C11" s="4">
-        <v>0.142405405405405</v>
+        <v>34.726799999999997</v>
       </c>
       <c r="D11" s="4">
-        <v>0.106361702127659</v>
+        <v>21.560600000000001</v>
       </c>
       <c r="E11" s="4">
-        <v>0.110565217391304</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="B12" s="4">
-        <v>5.5222197802197804E-3</v>
-      </c>
+        <v>21.718</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B12" s="4"/>
       <c r="C12" s="4">
-        <v>3.1074774774774702E-4</v>
-      </c>
-      <c r="D12" s="4">
-        <v>3.6409805735430101E-5</v>
-      </c>
+        <v>33.719799999999999</v>
+      </c>
+      <c r="D12" s="4"/>
       <c r="E12" s="4">
-        <v>2.08384541062802E-4</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A13" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="B13" s="4">
-        <v>1</v>
-      </c>
+        <v>21.8034</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="B13" s="4"/>
       <c r="C13" s="4">
-        <v>1</v>
-      </c>
-      <c r="D13" s="4">
-        <v>1</v>
-      </c>
+        <v>32.996400000000001</v>
+      </c>
+      <c r="D13" s="4"/>
       <c r="E13" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+        <v>21.624400000000001</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="B14" s="4"/>
-      <c r="C14" s="4"/>
+      <c r="C14" s="4">
+        <v>32.907999999999902</v>
+      </c>
       <c r="D14" s="4"/>
-      <c r="E14" s="4"/>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A15" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="B15" s="4">
-        <v>2573.9353999999998</v>
-      </c>
+      <c r="E14" s="4">
+        <v>21.064599999999999</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="B15" s="4"/>
       <c r="C15" s="4">
-        <v>1147.6284000000001</v>
-      </c>
-      <c r="D15" s="4">
-        <v>1090.5922</v>
-      </c>
+        <v>32.641199999999998</v>
+      </c>
+      <c r="D15" s="4"/>
       <c r="E15" s="4">
-        <v>1057.4066</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A16" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="B16" s="4">
-        <v>29613.949822799899</v>
-      </c>
+        <v>21.562000000000001</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="B16" s="4"/>
       <c r="C16" s="4">
-        <v>233.42737630000099</v>
-      </c>
-      <c r="D16" s="4">
-        <v>9.0842557000003108</v>
-      </c>
+        <v>33.016399999999997</v>
+      </c>
+      <c r="D16" s="4"/>
       <c r="E16" s="4">
-        <v>8.5723068000000797</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A17" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="B17" s="4">
-        <v>1</v>
-      </c>
+        <v>21.1264</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="B17" s="4"/>
       <c r="C17" s="4">
-        <v>1</v>
-      </c>
-      <c r="D17" s="4">
-        <v>1</v>
-      </c>
+        <v>32.694800000000001</v>
+      </c>
+      <c r="D17" s="4"/>
       <c r="E17" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+        <v>20.966799999999999</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="B18" s="4"/>
+        <v>22</v>
+      </c>
+      <c r="B18" s="4">
+        <v>1.7144999999999999</v>
+      </c>
       <c r="C18" s="4"/>
       <c r="D18" s="4"/>
-      <c r="E18" s="4"/>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A19" s="7" t="s">
-        <v>60</v>
+      <c r="E18" s="4">
+        <v>1.95342857142857</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="6" t="s">
+        <v>17</v>
       </c>
       <c r="B19" s="4">
-        <v>74.738799999999998</v>
-      </c>
-      <c r="C19" s="4">
-        <v>21.560600000000001</v>
-      </c>
-      <c r="D19" s="4">
-        <v>34.726799999999997</v>
-      </c>
+        <v>1.3508206686930001E-2</v>
+      </c>
+      <c r="C19" s="4"/>
+      <c r="D19" s="4"/>
       <c r="E19" s="4">
-        <v>21.718</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A20" s="7" t="s">
-        <v>61</v>
+        <v>2.82176470588235E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="6" t="s">
+        <v>21</v>
       </c>
       <c r="B20" s="4">
-        <v>5.6479700000001E-2</v>
-      </c>
-      <c r="C20" s="4">
-        <v>4.8386799999999702E-2</v>
-      </c>
-      <c r="D20" s="4">
-        <v>7.6278477000000002</v>
-      </c>
+        <v>0.11948</v>
+      </c>
+      <c r="C20" s="4"/>
+      <c r="D20" s="4"/>
       <c r="E20" s="4">
-        <v>3.1019999999999498E-3</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A21" s="7" t="s">
-        <v>59</v>
+        <v>0.13546153846153799</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="6" t="s">
+        <v>31</v>
       </c>
       <c r="B21" s="4">
-        <v>1</v>
-      </c>
-      <c r="C21" s="4">
-        <v>1</v>
-      </c>
-      <c r="D21" s="4">
-        <v>1</v>
-      </c>
+        <v>18.728400000000001</v>
+      </c>
+      <c r="C21" s="4"/>
+      <c r="D21" s="4"/>
       <c r="E21" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+        <v>18.581600000000002</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="B22" s="4"/>
+        <v>29</v>
+      </c>
+      <c r="B22" s="4">
+        <v>0.12916666666666601</v>
+      </c>
       <c r="C22" s="4"/>
       <c r="D22" s="4"/>
-      <c r="E22" s="4"/>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A23" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="B23" s="4"/>
+      <c r="E22" s="4">
+        <v>0.15568571428571401</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="B23" s="4">
+        <v>1.66933333333333</v>
+      </c>
       <c r="C23" s="4"/>
-      <c r="D23" s="4">
-        <v>33.719799999999999</v>
-      </c>
+      <c r="D23" s="4"/>
       <c r="E23" s="4">
-        <v>21.8034</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A24" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="B24" s="4"/>
+        <v>1.5627500000000001</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B24" s="4">
+        <v>5.1120000000000001</v>
+      </c>
       <c r="C24" s="4"/>
-      <c r="D24" s="4">
-        <v>2.9636699999999402E-2</v>
-      </c>
+      <c r="D24" s="4"/>
       <c r="E24" s="4">
-        <v>2.1237800000000001E-2</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A25" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="B25" s="4"/>
+        <v>4.4424999999999999</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B25" s="4">
+        <v>4.240625E-2</v>
+      </c>
       <c r="C25" s="4"/>
-      <c r="D25" s="4">
-        <v>1</v>
-      </c>
+      <c r="D25" s="4"/>
       <c r="E25" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+        <v>4.5663636363636302E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="B26" s="4"/>
+        <v>24</v>
+      </c>
+      <c r="B26" s="4">
+        <v>0.44469999999999998</v>
+      </c>
       <c r="C26" s="4"/>
       <c r="D26" s="4"/>
-      <c r="E26" s="4"/>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A27" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="B27" s="4"/>
+      <c r="E26" s="4">
+        <v>0.374764705882352</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B27" s="4">
+        <v>9.8613999999999997</v>
+      </c>
       <c r="C27" s="4"/>
-      <c r="D27" s="4">
-        <v>32.996400000000001</v>
-      </c>
+      <c r="D27" s="4"/>
       <c r="E27" s="4">
-        <v>21.624400000000001</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A28" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="B28" s="4"/>
+        <v>7.8733999999999904</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B28" s="4">
+        <v>6.1916666666666599E-2</v>
+      </c>
       <c r="C28" s="4"/>
-      <c r="D28" s="4">
-        <v>8.2163799999999301E-2</v>
-      </c>
+      <c r="D28" s="4"/>
       <c r="E28" s="4">
-        <v>6.3812299999999905E-2</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A29" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="B29" s="4"/>
+        <v>5.8011111111111097E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="B29" s="4">
+        <v>0.764625</v>
+      </c>
       <c r="C29" s="4"/>
-      <c r="D29" s="4">
-        <v>1</v>
-      </c>
+      <c r="D29" s="4"/>
       <c r="E29" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+        <v>0.67149999999999999</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="B30" s="4"/>
-      <c r="C30" s="4"/>
-      <c r="D30" s="4"/>
+        <v>43</v>
+      </c>
+      <c r="B30" s="4">
+        <v>4.6452</v>
+      </c>
+      <c r="C30" s="4">
+        <v>5.6563999999999997</v>
+      </c>
+      <c r="D30" s="4">
+        <v>5.7164000000000001</v>
+      </c>
       <c r="E30" s="4"/>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A31" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="B31" s="4"/>
-      <c r="C31" s="4"/>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="B31" s="4">
+        <v>4.8000000000000001E-2</v>
+      </c>
+      <c r="C31" s="4">
+        <v>6.5460784313725498E-2</v>
+      </c>
       <c r="D31" s="4">
-        <v>32.907999999999902</v>
-      </c>
-      <c r="E31" s="4">
-        <v>21.064599999999999</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A32" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="B32" s="4"/>
-      <c r="C32" s="4"/>
+        <v>0.13819999999999999</v>
+      </c>
+      <c r="E31" s="4"/>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="B32" s="4">
+        <v>0.48230000000000001</v>
+      </c>
+      <c r="C32" s="4">
+        <v>0.46046666666666602</v>
+      </c>
       <c r="D32" s="4">
-        <v>9.8488499999999396E-2</v>
-      </c>
-      <c r="E32" s="4">
-        <v>2.5250800000000299E-2</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A33" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="B33" s="4"/>
-      <c r="C33" s="4"/>
+        <v>0.98379999999999901</v>
+      </c>
+      <c r="E32" s="4"/>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="B33" s="4">
+        <v>23.865200000000002</v>
+      </c>
+      <c r="C33" s="4">
+        <v>33.5306</v>
+      </c>
       <c r="D33" s="4">
-        <v>1</v>
-      </c>
-      <c r="E33" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+        <v>77.349000000000004</v>
+      </c>
+      <c r="E33" s="4"/>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="B34" s="4"/>
-      <c r="C34" s="4"/>
-      <c r="D34" s="4"/>
+        <v>50</v>
+      </c>
+      <c r="B34" s="4">
+        <v>0.17983333333333301</v>
+      </c>
+      <c r="C34" s="4">
+        <v>0.253347826086956</v>
+      </c>
+      <c r="D34" s="4">
+        <v>0.80545454545454498</v>
+      </c>
       <c r="E34" s="4"/>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A35" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="B35" s="4"/>
-      <c r="C35" s="4"/>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="B35" s="4">
+        <v>2.47019999999999</v>
+      </c>
+      <c r="C35" s="4">
+        <v>2.6501666666666601</v>
+      </c>
       <c r="D35" s="4">
-        <v>32.641199999999998</v>
-      </c>
-      <c r="E35" s="4">
-        <v>21.562000000000001</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A36" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="B36" s="4"/>
-      <c r="C36" s="4"/>
+        <v>7.4543999999999997</v>
+      </c>
+      <c r="E35" s="4"/>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="B36" s="4">
+        <v>7.9885999999999999</v>
+      </c>
+      <c r="C36" s="4">
+        <v>6.2271999999999998</v>
+      </c>
       <c r="D36" s="4">
-        <v>5.9917700000000497E-2</v>
-      </c>
-      <c r="E36" s="4">
-        <v>3.16385E-2</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A37" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="B37" s="4"/>
-      <c r="C37" s="4"/>
+        <v>20.150200000000002</v>
+      </c>
+      <c r="E36" s="4"/>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="B37" s="4">
+        <v>7.0074074074073997E-2</v>
+      </c>
+      <c r="C37" s="4">
+        <v>6.9538461538461493E-2</v>
+      </c>
       <c r="D37" s="4">
-        <v>1</v>
-      </c>
-      <c r="E37" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+        <v>0.27168181818181802</v>
+      </c>
+      <c r="E37" s="4"/>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="B38" s="4"/>
-      <c r="C38" s="4"/>
-      <c r="D38" s="4"/>
+        <v>45</v>
+      </c>
+      <c r="B38" s="4">
+        <v>0.73599999999999999</v>
+      </c>
+      <c r="C38" s="4">
+        <v>0.62315384615384595</v>
+      </c>
+      <c r="D38" s="4">
+        <v>1.262</v>
+      </c>
       <c r="E38" s="4"/>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A39" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="B39" s="4"/>
-      <c r="C39" s="4"/>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="B39" s="4">
+        <v>14.410599999999899</v>
+      </c>
+      <c r="C39" s="4">
+        <v>13.275</v>
+      </c>
       <c r="D39" s="4">
-        <v>33.016399999999997</v>
-      </c>
-      <c r="E39" s="4">
-        <v>21.1264</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A40" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="B40" s="4"/>
-      <c r="C40" s="4"/>
+        <v>35.671599999999998</v>
+      </c>
+      <c r="E39" s="4"/>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="B40" s="4">
+        <v>0.10224999999999999</v>
+      </c>
+      <c r="C40" s="4">
+        <v>0.123767441860465</v>
+      </c>
       <c r="D40" s="4">
-        <v>0.1954323</v>
-      </c>
-      <c r="E40" s="4">
-        <v>4.2511299999999898E-2</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A41" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="B41" s="4"/>
-      <c r="C41" s="4"/>
+        <v>0.41831249999999998</v>
+      </c>
+      <c r="E40" s="4"/>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="B41" s="4">
+        <v>1.02514285714285</v>
+      </c>
+      <c r="C41" s="4">
+        <v>1.1404444444444399</v>
+      </c>
       <c r="D41" s="4">
-        <v>1</v>
-      </c>
-      <c r="E41" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A42" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="B42" s="4"/>
-      <c r="C42" s="4"/>
-      <c r="D42" s="4"/>
-      <c r="E42" s="4"/>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A43" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="B43" s="4"/>
-      <c r="C43" s="4"/>
-      <c r="D43" s="4">
-        <v>32.694800000000001</v>
-      </c>
-      <c r="E43" s="4">
-        <v>20.966799999999999</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A44" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="B44" s="4"/>
-      <c r="C44" s="4"/>
-      <c r="D44" s="4">
-        <v>5.3002700000000201E-2</v>
-      </c>
-      <c r="E44" s="4">
-        <v>2.2050699999999999E-2</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A45" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="B45" s="4"/>
-      <c r="C45" s="4"/>
-      <c r="D45" s="4">
-        <v>1</v>
-      </c>
-      <c r="E45" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A46" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="B46" s="4"/>
-      <c r="C46" s="4"/>
-      <c r="D46" s="4"/>
-      <c r="E46" s="4"/>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A47" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="B47" s="4">
-        <v>1.7144999999999999</v>
-      </c>
-      <c r="C47" s="4"/>
-      <c r="D47" s="4"/>
-      <c r="E47" s="4">
-        <v>1.95342857142857</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A48" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="B48" s="4">
-        <v>5.5170999999999901E-3</v>
-      </c>
-      <c r="C48" s="4"/>
-      <c r="D48" s="4"/>
-      <c r="E48" s="4">
-        <v>2.7868619047619E-2</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A49" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="B49" s="4">
-        <v>1</v>
-      </c>
-      <c r="C49" s="4"/>
-      <c r="D49" s="4"/>
-      <c r="E49" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A50" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="B50" s="4"/>
-      <c r="C50" s="4"/>
-      <c r="D50" s="4"/>
-      <c r="E50" s="4"/>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A51" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="B51" s="4">
-        <v>1.3508206686930001E-2</v>
-      </c>
-      <c r="C51" s="4"/>
-      <c r="D51" s="4"/>
-      <c r="E51" s="4">
-        <v>2.82176470588235E-2</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A52" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="B52" s="4">
-        <v>7.0749932979667396E-6</v>
-      </c>
-      <c r="C52" s="4"/>
-      <c r="D52" s="4"/>
-      <c r="E52" s="4">
-        <v>2.41073551198257E-4</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A53" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="B53" s="4">
-        <v>1</v>
-      </c>
-      <c r="C53" s="4"/>
-      <c r="D53" s="4"/>
-      <c r="E53" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A54" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="B54" s="4"/>
-      <c r="C54" s="4"/>
-      <c r="D54" s="4"/>
-      <c r="E54" s="4"/>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A55" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="B55" s="4">
-        <v>0.11948</v>
-      </c>
-      <c r="C55" s="4"/>
-      <c r="D55" s="4"/>
-      <c r="E55" s="4">
-        <v>0.13546153846153799</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A56" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="B56" s="4">
-        <v>1.8259333333333299E-4</v>
-      </c>
-      <c r="C56" s="4"/>
-      <c r="D56" s="4"/>
-      <c r="E56" s="4">
-        <v>2.5214979757084998E-4</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A57" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="B57" s="4">
-        <v>1</v>
-      </c>
-      <c r="C57" s="4"/>
-      <c r="D57" s="4"/>
-      <c r="E57" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A58" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="B58" s="4"/>
-      <c r="C58" s="4"/>
-      <c r="D58" s="4"/>
-      <c r="E58" s="4"/>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A59" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="B59" s="4">
-        <v>18.728400000000001</v>
-      </c>
-      <c r="C59" s="4"/>
-      <c r="D59" s="4"/>
-      <c r="E59" s="4">
-        <v>18.581600000000002</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A60" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="B60" s="4">
-        <v>2.5824552999999999</v>
-      </c>
-      <c r="C60" s="4"/>
-      <c r="D60" s="4"/>
-      <c r="E60" s="4">
-        <v>0.29269479999999998</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A61" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="B61" s="4">
-        <v>1</v>
-      </c>
-      <c r="C61" s="4"/>
-      <c r="D61" s="4"/>
-      <c r="E61" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A62" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="B62" s="4"/>
-      <c r="C62" s="4"/>
-      <c r="D62" s="4"/>
-      <c r="E62" s="4"/>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A63" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="B63" s="4">
-        <v>0.12916666666666601</v>
-      </c>
-      <c r="C63" s="4"/>
-      <c r="D63" s="4"/>
-      <c r="E63" s="4">
-        <v>0.15568571428571401</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A64" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="B64" s="4">
-        <v>2.04579710144927E-4</v>
-      </c>
-      <c r="C64" s="4"/>
-      <c r="D64" s="4"/>
-      <c r="E64" s="4">
-        <v>1.1863361344537801E-4</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A65" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="B65" s="4">
-        <v>1</v>
-      </c>
-      <c r="C65" s="4"/>
-      <c r="D65" s="4"/>
-      <c r="E65" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A66" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="B66" s="4"/>
-      <c r="C66" s="4"/>
-      <c r="D66" s="4"/>
-      <c r="E66" s="4"/>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A67" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="B67" s="4">
-        <v>1.66933333333333</v>
-      </c>
-      <c r="C67" s="4"/>
-      <c r="D67" s="4"/>
-      <c r="E67" s="4">
-        <v>1.5627500000000001</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A68" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="B68" s="4">
-        <v>2.5160266666666601E-2</v>
-      </c>
-      <c r="C68" s="4"/>
-      <c r="D68" s="4"/>
-      <c r="E68" s="4">
-        <v>5.2250000000000105E-4</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A69" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="B69" s="4">
-        <v>1</v>
-      </c>
-      <c r="C69" s="4"/>
-      <c r="D69" s="4"/>
-      <c r="E69" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A70" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="B70" s="4"/>
-      <c r="C70" s="4"/>
-      <c r="D70" s="4"/>
-      <c r="E70" s="4"/>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A71" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="B71" s="4">
-        <v>5.1120000000000001</v>
-      </c>
-      <c r="C71" s="4"/>
-      <c r="D71" s="4"/>
-      <c r="E71" s="4">
-        <v>4.4424999999999999</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A72" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="B72" s="4">
-        <v>3.4242500000000002E-2</v>
-      </c>
-      <c r="C72" s="4"/>
-      <c r="D72" s="4"/>
-      <c r="E72" s="4">
-        <v>1.39186999999999E-2</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A73" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="B73" s="4">
-        <v>1</v>
-      </c>
-      <c r="C73" s="4"/>
-      <c r="D73" s="4"/>
-      <c r="E73" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A74" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="B74" s="4"/>
-      <c r="C74" s="4"/>
-      <c r="D74" s="4"/>
-      <c r="E74" s="4"/>
-    </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A75" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="B75" s="4">
-        <v>4.240625E-2</v>
-      </c>
-      <c r="C75" s="4"/>
-      <c r="D75" s="4"/>
-      <c r="E75" s="4">
-        <v>4.5663636363636302E-2</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A76" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="B76" s="4">
-        <v>3.1481966845878097E-5</v>
-      </c>
-      <c r="C76" s="4"/>
-      <c r="D76" s="4"/>
-      <c r="E76" s="4">
-        <v>1.06991245791245E-4</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A77" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="B77" s="4">
-        <v>1</v>
-      </c>
-      <c r="C77" s="4"/>
-      <c r="D77" s="4"/>
-      <c r="E77" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A78" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="B78" s="4"/>
-      <c r="C78" s="4"/>
-      <c r="D78" s="4"/>
-      <c r="E78" s="4"/>
-    </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A79" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="B79" s="4">
-        <v>0.44469999999999998</v>
-      </c>
-      <c r="C79" s="4"/>
-      <c r="D79" s="4"/>
-      <c r="E79" s="4">
-        <v>0.374764705882352</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A80" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="B80" s="4">
-        <v>2.7601111111111098E-4</v>
-      </c>
-      <c r="C80" s="4"/>
-      <c r="D80" s="4"/>
-      <c r="E80" s="4">
-        <v>1.43406617647058E-3</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A81" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="B81" s="4">
-        <v>1</v>
-      </c>
-      <c r="C81" s="4"/>
-      <c r="D81" s="4"/>
-      <c r="E81" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A82" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="B82" s="4"/>
-      <c r="C82" s="4"/>
-      <c r="D82" s="4"/>
-      <c r="E82" s="4"/>
-    </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A83" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="B83" s="4">
-        <v>9.8613999999999997</v>
-      </c>
-      <c r="C83" s="4"/>
-      <c r="D83" s="4"/>
-      <c r="E83" s="4">
-        <v>7.8733999999999904</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A84" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="B84" s="4">
-        <v>0.23017979999999899</v>
-      </c>
-      <c r="C84" s="4"/>
-      <c r="D84" s="4"/>
-      <c r="E84" s="4">
-        <v>9.4902299999999898E-2</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A85" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="B85" s="4">
-        <v>1</v>
-      </c>
-      <c r="C85" s="4"/>
-      <c r="D85" s="4"/>
-      <c r="E85" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A86" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="B86" s="4"/>
-      <c r="C86" s="4"/>
-      <c r="D86" s="4"/>
-      <c r="E86" s="4"/>
-    </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A87" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="B87" s="4">
-        <v>6.1916666666666599E-2</v>
-      </c>
-      <c r="C87" s="4"/>
-      <c r="D87" s="4"/>
-      <c r="E87" s="4">
-        <v>5.8011111111111097E-2</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A88" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="B88" s="4">
-        <v>8.0014367816091908E-6</v>
-      </c>
-      <c r="C88" s="4"/>
-      <c r="D88" s="4"/>
-      <c r="E88" s="4">
-        <v>2.4830101010101001E-4</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A89" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="B89" s="4">
-        <v>1</v>
-      </c>
-      <c r="C89" s="4"/>
-      <c r="D89" s="4"/>
-      <c r="E89" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A90" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="B90" s="4"/>
-      <c r="C90" s="4"/>
-      <c r="D90" s="4"/>
-      <c r="E90" s="4"/>
-    </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A91" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="B91" s="4">
-        <v>0.764625</v>
-      </c>
-      <c r="C91" s="4"/>
-      <c r="D91" s="4"/>
-      <c r="E91" s="4">
-        <v>0.67149999999999999</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A92" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="B92" s="4">
-        <v>3.45125E-4</v>
-      </c>
-      <c r="C92" s="4"/>
-      <c r="D92" s="4"/>
-      <c r="E92" s="4">
-        <v>1.6880909090908999E-3</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A93" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="B93" s="4">
-        <v>1</v>
-      </c>
-      <c r="C93" s="4"/>
-      <c r="D93" s="4"/>
-      <c r="E93" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A94" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="B94" s="4"/>
-      <c r="C94" s="4"/>
-      <c r="D94" s="4"/>
-      <c r="E94" s="4"/>
-    </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A95" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="B95" s="4">
-        <v>4.6452</v>
-      </c>
-      <c r="C95" s="4">
-        <v>5.7164000000000001</v>
-      </c>
-      <c r="D95" s="4">
-        <v>5.6563999999999997</v>
-      </c>
-      <c r="E95" s="4"/>
-    </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A96" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="B96" s="4">
-        <v>6.25720000000002E-3</v>
-      </c>
-      <c r="C96" s="4">
-        <v>1.23872999999999E-2</v>
-      </c>
-      <c r="D96" s="4">
-        <v>1.9228800000000001E-2</v>
-      </c>
-      <c r="E96" s="4"/>
-    </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A97" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="B97" s="4">
-        <v>1</v>
-      </c>
-      <c r="C97" s="4">
-        <v>1</v>
-      </c>
-      <c r="D97" s="4">
-        <v>1</v>
-      </c>
-      <c r="E97" s="4"/>
-    </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A98" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="B98" s="4"/>
-      <c r="C98" s="4"/>
-      <c r="D98" s="4"/>
-      <c r="E98" s="4"/>
-    </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A99" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="B99" s="4">
-        <v>4.8000000000000001E-2</v>
-      </c>
-      <c r="C99" s="4">
-        <v>0.13819999999999999</v>
-      </c>
-      <c r="D99" s="4">
-        <v>6.5460784313725498E-2</v>
-      </c>
-      <c r="E99" s="4"/>
-    </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A100" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="B100" s="4">
-        <v>4.4675675675675602E-5</v>
-      </c>
-      <c r="C100" s="4">
-        <v>2.81790769230769E-3</v>
-      </c>
-      <c r="D100" s="4">
-        <v>1.55633184313725E-2</v>
-      </c>
-      <c r="E100" s="4"/>
-    </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A101" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="B101" s="4">
-        <v>1</v>
-      </c>
-      <c r="C101" s="4">
-        <v>1</v>
-      </c>
-      <c r="D101" s="4">
-        <v>1</v>
-      </c>
-      <c r="E101" s="4"/>
-    </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A102" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="B102" s="4"/>
-      <c r="C102" s="4"/>
-      <c r="D102" s="4"/>
-      <c r="E102" s="4"/>
-    </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A103" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="B103" s="4">
-        <v>0.48230000000000001</v>
-      </c>
-      <c r="C103" s="4">
-        <v>0.98379999999999901</v>
-      </c>
-      <c r="D103" s="4">
-        <v>0.46046666666666602</v>
-      </c>
-      <c r="E103" s="4"/>
-    </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A104" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="B104" s="4">
-        <v>6.0867777777777704E-4</v>
-      </c>
-      <c r="C104" s="4">
-        <v>3.8810666666666601E-3</v>
-      </c>
-      <c r="D104" s="4">
-        <v>1.25398095238095E-3</v>
-      </c>
-      <c r="E104" s="4"/>
-    </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A105" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="B105" s="4">
-        <v>1</v>
-      </c>
-      <c r="C105" s="4">
-        <v>1</v>
-      </c>
-      <c r="D105" s="4">
-        <v>1</v>
-      </c>
-      <c r="E105" s="4"/>
-    </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A106" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="B106" s="4"/>
-      <c r="C106" s="4"/>
-      <c r="D106" s="4"/>
-      <c r="E106" s="4"/>
-    </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A107" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="B107" s="4">
-        <v>23.865200000000002</v>
-      </c>
-      <c r="C107" s="4">
-        <v>77.349000000000004</v>
-      </c>
-      <c r="D107" s="4">
-        <v>33.5306</v>
-      </c>
-      <c r="E107" s="4"/>
-    </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A108" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="B108" s="4">
-        <v>0.58733819999999903</v>
-      </c>
-      <c r="C108" s="4">
-        <v>0.44678200000000101</v>
-      </c>
-      <c r="D108" s="4">
-        <v>44.5246943</v>
-      </c>
-      <c r="E108" s="4"/>
-    </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A109" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="B109" s="4">
-        <v>1</v>
-      </c>
-      <c r="C109" s="4">
-        <v>1</v>
-      </c>
-      <c r="D109" s="4">
-        <v>1</v>
-      </c>
-      <c r="E109" s="4"/>
-    </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A110" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="B110" s="4"/>
-      <c r="C110" s="4"/>
-      <c r="D110" s="4"/>
-      <c r="E110" s="4"/>
-    </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A111" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="B111" s="4">
-        <v>0.17983333333333301</v>
-      </c>
-      <c r="C111" s="4">
-        <v>0.80545454545454498</v>
-      </c>
-      <c r="D111" s="4">
-        <v>0.253347826086956</v>
-      </c>
-      <c r="E111" s="4"/>
-    </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A112" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="B112" s="4">
-        <v>3.3720588235294102E-4</v>
-      </c>
-      <c r="C112" s="4">
-        <v>1.10872727272726E-4</v>
-      </c>
-      <c r="D112" s="4">
-        <v>6.2055335968379502E-5</v>
-      </c>
-      <c r="E112" s="4"/>
-    </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A113" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="B113" s="4">
-        <v>1</v>
-      </c>
-      <c r="C113" s="4">
-        <v>1</v>
-      </c>
-      <c r="D113" s="4">
-        <v>1</v>
-      </c>
-      <c r="E113" s="4"/>
-    </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A114" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="B114" s="4"/>
-      <c r="C114" s="4"/>
-      <c r="D114" s="4"/>
-      <c r="E114" s="4"/>
-    </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A115" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="B115" s="4">
-        <v>2.47019999999999</v>
-      </c>
-      <c r="C115" s="4">
-        <v>7.4543999999999997</v>
-      </c>
-      <c r="D115" s="4">
-        <v>2.6501666666666601</v>
-      </c>
-      <c r="E115" s="4"/>
-    </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A116" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="B116" s="4">
-        <v>0.27349469999999998</v>
-      </c>
-      <c r="C116" s="4">
-        <v>6.32229999999995E-3</v>
-      </c>
-      <c r="D116" s="4">
-        <v>1.8576666666666401E-4</v>
-      </c>
-      <c r="E116" s="4"/>
-    </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A117" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="B117" s="4">
-        <v>1</v>
-      </c>
-      <c r="C117" s="4">
-        <v>1</v>
-      </c>
-      <c r="D117" s="4">
-        <v>1</v>
-      </c>
-      <c r="E117" s="4"/>
-    </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A118" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="B118" s="4"/>
-      <c r="C118" s="4"/>
-      <c r="D118" s="4"/>
-      <c r="E118" s="4"/>
-    </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A119" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="B119" s="4">
-        <v>7.9885999999999999</v>
-      </c>
-      <c r="C119" s="4">
-        <v>20.150200000000002</v>
-      </c>
-      <c r="D119" s="4">
-        <v>6.2271999999999998</v>
-      </c>
-      <c r="E119" s="4"/>
-    </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A120" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="B120" s="4">
-        <v>0.31333479999999903</v>
-      </c>
-      <c r="C120" s="4">
-        <v>0.17640119999999901</v>
-      </c>
-      <c r="D120" s="4">
-        <v>0.34257470000000001</v>
-      </c>
-      <c r="E120" s="4"/>
-    </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A121" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="B121" s="4">
-        <v>1</v>
-      </c>
-      <c r="C121" s="4">
-        <v>1</v>
-      </c>
-      <c r="D121" s="4">
-        <v>1</v>
-      </c>
-      <c r="E121" s="4"/>
-    </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A122" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="B122" s="4"/>
-      <c r="C122" s="4"/>
-      <c r="D122" s="4"/>
-      <c r="E122" s="4"/>
-    </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A123" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="B123" s="4">
-        <v>7.0074074074073997E-2</v>
-      </c>
-      <c r="C123" s="4">
-        <v>0.27168181818181802</v>
-      </c>
-      <c r="D123" s="4">
-        <v>6.9538461538461493E-2</v>
-      </c>
-      <c r="E123" s="4"/>
-    </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A124" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="B124" s="4">
-        <v>2.05135327635327E-5</v>
-      </c>
-      <c r="C124" s="4">
-        <v>3.19415584415583E-5</v>
-      </c>
-      <c r="D124" s="4">
-        <v>1.62215587044534E-4</v>
-      </c>
-      <c r="E124" s="4"/>
-    </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A125" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="B125" s="4">
-        <v>1</v>
-      </c>
-      <c r="C125" s="4">
-        <v>1</v>
-      </c>
-      <c r="D125" s="4">
-        <v>1</v>
-      </c>
-      <c r="E125" s="4"/>
-    </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A126" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="B126" s="4"/>
-      <c r="C126" s="4"/>
-      <c r="D126" s="4"/>
-      <c r="E126" s="4"/>
-    </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A127" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="B127" s="4">
-        <v>0.73599999999999999</v>
-      </c>
-      <c r="C127" s="4">
-        <v>1.262</v>
-      </c>
-      <c r="D127" s="4">
-        <v>0.62315384615384595</v>
-      </c>
-      <c r="E127" s="4"/>
-    </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A128" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="B128" s="4">
-        <v>1.34857142857143E-4</v>
-      </c>
-      <c r="C128" s="4">
-        <v>7.4085714285714E-4</v>
-      </c>
-      <c r="D128" s="4">
-        <v>2.8606410256410198E-3</v>
-      </c>
-      <c r="E128" s="4"/>
-    </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A129" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="B129" s="4">
-        <v>1</v>
-      </c>
-      <c r="C129" s="4">
-        <v>1</v>
-      </c>
-      <c r="D129" s="4">
-        <v>1</v>
-      </c>
-      <c r="E129" s="4"/>
-    </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A130" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="B130" s="4"/>
-      <c r="C130" s="4"/>
-      <c r="D130" s="4"/>
-      <c r="E130" s="4"/>
-    </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A131" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="B131" s="4">
-        <v>14.410599999999899</v>
-      </c>
-      <c r="C131" s="4">
-        <v>35.671599999999998</v>
-      </c>
-      <c r="D131" s="4">
-        <v>13.275</v>
-      </c>
-      <c r="E131" s="4"/>
-    </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A132" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="B132" s="4">
-        <v>1.5600267999999899</v>
-      </c>
-      <c r="C132" s="4">
-        <v>0.68296730000000005</v>
-      </c>
-      <c r="D132" s="4">
-        <v>0.32462649999999998</v>
-      </c>
-      <c r="E132" s="4"/>
-    </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A133" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="B133" s="4">
-        <v>1</v>
-      </c>
-      <c r="C133" s="4">
-        <v>1</v>
-      </c>
-      <c r="D133" s="4">
-        <v>1</v>
-      </c>
-      <c r="E133" s="4"/>
-    </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A134" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="B134" s="4"/>
-      <c r="C134" s="4"/>
-      <c r="D134" s="4"/>
-      <c r="E134" s="4"/>
-    </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A135" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="B135" s="4">
-        <v>0.10224999999999999</v>
-      </c>
-      <c r="C135" s="4">
-        <v>0.41831249999999998</v>
-      </c>
-      <c r="D135" s="4">
-        <v>0.123767441860465</v>
-      </c>
-      <c r="E135" s="4"/>
-    </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A136" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="B136" s="4">
-        <v>3.1737962962962899E-4</v>
-      </c>
-      <c r="C136" s="4">
-        <v>1.9129583333333299E-4</v>
-      </c>
-      <c r="D136" s="4">
-        <v>2.81039867109634E-4</v>
-      </c>
-      <c r="E136" s="4"/>
-    </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A137" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="B137" s="4">
-        <v>1</v>
-      </c>
-      <c r="C137" s="4">
-        <v>1</v>
-      </c>
-      <c r="D137" s="4">
-        <v>1</v>
-      </c>
-      <c r="E137" s="4"/>
-    </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A138" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="B138" s="4"/>
-      <c r="C138" s="4"/>
-      <c r="D138" s="4"/>
-      <c r="E138" s="4"/>
-    </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A139" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="B139" s="4">
-        <v>1.02514285714285</v>
-      </c>
-      <c r="C139" s="4">
         <v>4.0639999999999903</v>
       </c>
-      <c r="D139" s="4">
-        <v>1.1404444444444399</v>
-      </c>
-      <c r="E139" s="4"/>
-    </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A140" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="B140" s="4">
-        <v>1.2914285714285699E-4</v>
-      </c>
-      <c r="C140" s="4">
-        <v>5.5360000000000196E-4</v>
-      </c>
-      <c r="D140" s="4">
-        <v>9.6702777777777705E-4</v>
-      </c>
-      <c r="E140" s="4"/>
-    </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A141" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="B141" s="4">
-        <v>1</v>
-      </c>
-      <c r="C141" s="4">
-        <v>1</v>
-      </c>
-      <c r="D141" s="4">
-        <v>1</v>
-      </c>
-      <c r="E141" s="4"/>
+      <c r="E41" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6426,25 +6422,25 @@
       <selection activeCell="C41" sqref="C41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.83203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.1640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="47.83203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="47.875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="20.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="23.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.6640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="12.1640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.1640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="7.83203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="23.375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.625" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="12.125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="7.875" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="14.5" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="4.83203125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="4.875" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="10" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="13.83203125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -6491,7 +6487,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>53</v>
       </c>
@@ -6516,7 +6512,7 @@
       <c r="H2">
         <v>1.3508206686930001E-2</v>
       </c>
-      <c r="I2" s="8">
+      <c r="I2" s="7">
         <v>7.0749932979667396E-6</v>
       </c>
       <c r="J2" s="2">
@@ -6538,7 +6534,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>53</v>
       </c>
@@ -6563,7 +6559,7 @@
       <c r="H3">
         <v>4.8000000000000001E-2</v>
       </c>
-      <c r="I3" s="8">
+      <c r="I3" s="7">
         <v>4.4675675675675602E-5</v>
       </c>
       <c r="J3" s="2">
@@ -6585,7 +6581,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>53</v>
       </c>
@@ -6632,7 +6628,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>53</v>
       </c>
@@ -6679,7 +6675,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>53</v>
       </c>
@@ -6726,7 +6722,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>53</v>
       </c>
@@ -6773,7 +6769,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>53</v>
       </c>
@@ -6798,7 +6794,7 @@
       <c r="H8">
         <v>4.240625E-2</v>
       </c>
-      <c r="I8" s="8">
+      <c r="I8" s="7">
         <v>3.1481966845878097E-5</v>
       </c>
       <c r="J8" s="2">
@@ -6820,7 +6816,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>53</v>
       </c>
@@ -6845,7 +6841,7 @@
       <c r="H9">
         <v>7.0074074074073997E-2</v>
       </c>
-      <c r="I9" s="8">
+      <c r="I9" s="7">
         <v>2.05135327635327E-5</v>
       </c>
       <c r="J9" s="2">
@@ -6867,7 +6863,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>53</v>
       </c>
@@ -6914,7 +6910,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>53</v>
       </c>
@@ -6961,7 +6957,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>53</v>
       </c>
@@ -7008,7 +7004,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>53</v>
       </c>
@@ -7055,7 +7051,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>53</v>
       </c>
@@ -7080,7 +7076,7 @@
       <c r="H14">
         <v>6.1916666666666599E-2</v>
       </c>
-      <c r="I14" s="8">
+      <c r="I14" s="7">
         <v>8.0014367816091908E-6</v>
       </c>
       <c r="J14" s="2">
@@ -7102,7 +7098,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>53</v>
       </c>
@@ -7149,7 +7145,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>53</v>
       </c>
@@ -7196,7 +7192,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>53</v>
       </c>
@@ -7243,7 +7239,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>53</v>
       </c>
@@ -7290,7 +7286,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>53</v>
       </c>
@@ -7337,7 +7333,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>53</v>
       </c>
@@ -7384,7 +7380,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>53</v>
       </c>
@@ -7431,7 +7427,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>53</v>
       </c>
@@ -7478,7 +7474,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>53</v>
       </c>
@@ -7525,7 +7521,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>53</v>
       </c>
@@ -7572,7 +7568,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>53</v>
       </c>
@@ -7619,7 +7615,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>53</v>
       </c>
@@ -7666,7 +7662,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>53</v>
       </c>
@@ -7713,7 +7709,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>53</v>
       </c>
@@ -7760,7 +7756,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>15</v>
       </c>
@@ -7807,7 +7803,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>15</v>
       </c>
@@ -7854,7 +7850,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>15</v>
       </c>
@@ -7901,7 +7897,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>15</v>
       </c>
@@ -7948,7 +7944,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>15</v>
       </c>
@@ -7995,7 +7991,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>15</v>
       </c>
@@ -8042,7 +8038,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>15</v>
       </c>
@@ -8089,7 +8085,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>15</v>
       </c>
@@ -8136,7 +8132,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>15</v>
       </c>
@@ -8183,7 +8179,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>15</v>
       </c>
@@ -8230,7 +8226,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>15</v>
       </c>
@@ -8277,7 +8273,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>15</v>
       </c>
@@ -8324,7 +8320,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>15</v>
       </c>
@@ -8371,7 +8367,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>15</v>
       </c>
@@ -8418,7 +8414,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>15</v>
       </c>
@@ -8465,7 +8461,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>15</v>
       </c>
@@ -8512,7 +8508,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>15</v>
       </c>
@@ -8559,7 +8555,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>15</v>
       </c>
@@ -8606,7 +8602,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>15</v>
       </c>
@@ -8653,7 +8649,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
         <v>15</v>
       </c>
@@ -8700,7 +8696,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>15</v>
       </c>
@@ -8747,7 +8743,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
         <v>40</v>
       </c>
@@ -8794,7 +8790,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>40</v>
       </c>
@@ -8841,7 +8837,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
         <v>40</v>
       </c>
@@ -8888,7 +8884,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
         <v>40</v>
       </c>
@@ -8935,7 +8931,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
         <v>40</v>
       </c>
@@ -8982,7 +8978,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
         <v>40</v>
       </c>
@@ -9029,7 +9025,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
         <v>40</v>
       </c>
@@ -9076,7 +9072,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
         <v>40</v>
       </c>
@@ -9123,7 +9119,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="58" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
         <v>40</v>
       </c>
@@ -9170,7 +9166,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="59" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
         <v>40</v>
       </c>
@@ -9195,7 +9191,7 @@
       <c r="H59">
         <v>0.253347826086956</v>
       </c>
-      <c r="I59" s="8">
+      <c r="I59" s="7">
         <v>6.2055335968379502E-5</v>
       </c>
       <c r="J59" s="2">
@@ -9217,7 +9213,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="60" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
         <v>40</v>
       </c>
@@ -9264,7 +9260,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="61" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
         <v>40</v>
       </c>
@@ -9311,7 +9307,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="62" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
         <v>40</v>
       </c>
@@ -9358,7 +9354,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="63" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
         <v>40</v>
       </c>
@@ -9405,7 +9401,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="64" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
         <v>40</v>
       </c>
@@ -9452,7 +9448,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="65" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
         <v>40</v>
       </c>
@@ -9499,7 +9495,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="66" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
         <v>40</v>
       </c>
@@ -9546,7 +9542,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="67" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
         <v>40</v>
       </c>
@@ -9593,7 +9589,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="68" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
         <v>40</v>
       </c>
@@ -9640,7 +9636,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="69" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
         <v>40</v>
       </c>
@@ -9665,7 +9661,7 @@
       <c r="H69">
         <v>0.106361702127659</v>
       </c>
-      <c r="I69" s="8">
+      <c r="I69" s="7">
         <v>3.6409805735430101E-5</v>
       </c>
       <c r="J69" s="2">
@@ -9687,7 +9683,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="70" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
         <v>40</v>
       </c>
@@ -9734,12 +9730,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="71" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C71" s="1" t="s">
         <v>41</v>
@@ -9781,12 +9777,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="72" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C72" s="1" t="s">
         <v>42</v>
@@ -9828,12 +9824,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="73" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C73" s="1" t="s">
         <v>43</v>
@@ -9875,12 +9871,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="74" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C74" s="1" t="s">
         <v>44</v>
@@ -9900,7 +9896,7 @@
       <c r="H74">
         <v>0.27168181818181802</v>
       </c>
-      <c r="I74" s="8">
+      <c r="I74" s="7">
         <v>3.19415584415583E-5</v>
       </c>
       <c r="J74" s="2">
@@ -9922,12 +9918,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="75" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C75" s="1" t="s">
         <v>45</v>
@@ -9969,12 +9965,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="76" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C76" s="1" t="s">
         <v>46</v>
@@ -10016,12 +10012,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="77" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C77" s="1" t="s">
         <v>47</v>
@@ -10063,12 +10059,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="78" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C78" s="1" t="s">
         <v>48</v>
@@ -10110,12 +10106,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="79" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C79" s="1" t="s">
         <v>49</v>
@@ -10157,12 +10153,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="80" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C80" s="1" t="s">
         <v>50</v>
@@ -10204,12 +10200,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="81" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C81" s="1" t="s">
         <v>51</v>
@@ -10251,12 +10247,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="82" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C82" s="1" t="s">
         <v>52</v>
@@ -10298,12 +10294,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="83" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C83" s="1" t="s">
         <v>55</v>
@@ -10345,12 +10341,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="84" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C84" s="1" t="s">
         <v>38</v>
@@ -10392,12 +10388,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="85" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C85" s="1" t="s">
         <v>39</v>

--- a/benchmarks/benchmarks.xlsx
+++ b/benchmarks/benchmarks.xlsx
@@ -16,11 +16,11 @@
     <sheet name="Data" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="benchmarks" localSheetId="1">Data!$A$1:$O$127</definedName>
+    <definedName name="benchmarks" localSheetId="1">Data!$A$1:$O$174</definedName>
   </definedNames>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <pivotCaches>
-    <pivotCache cacheId="10" r:id="rId3"/>
+    <pivotCache cacheId="22" r:id="rId3"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
@@ -60,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="822" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1121" uniqueCount="80">
   <si>
     <t>Set</t>
   </si>
@@ -262,6 +262,45 @@
   <si>
     <t>(Multiple Items)</t>
   </si>
+  <si>
+    <t>0.1.3-mac2014.json</t>
+  </si>
+  <si>
+    <t>0.1.3-nexus-2013.json</t>
+  </si>
+  <si>
+    <t>Monte Carlo Math.random (projects: 1, runs: 10.000)</t>
+  </si>
+  <si>
+    <t>54.0.2840.68</t>
+  </si>
+  <si>
+    <t>Android</t>
+  </si>
+  <si>
+    <t>6.0.1</t>
+  </si>
+  <si>
+    <t>Monte Carlo Math.random (projects: 4, runs: 10.000)</t>
+  </si>
+  <si>
+    <t>Monte Carlo Math.random (projects: 8, runs: 10.000)</t>
+  </si>
+  <si>
+    <t>Monte Carlo Math.random (projects: 16, runs: 10.000)</t>
+  </si>
+  <si>
+    <t>Monte Carlo Math.random (projects: 1, runs: 100.000)</t>
+  </si>
+  <si>
+    <t>Monte Carlo Math.random (projects: 4, runs: 100.000)</t>
+  </si>
+  <si>
+    <t>Monte Carlo Math.random (projects: 8, runs: 100.000)</t>
+  </si>
+  <si>
+    <t>Monte Carlo Math.random (projects: 16, runs: 100.000)</t>
+  </si>
 </sst>
 </file>
 
@@ -757,46 +796,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="32"/>
                 <c:pt idx="0">
-                  <c:v>0.142405405405405</c:v>
+                  <c:v>0.136230769230769</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>21.5606</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>5.7164</c:v>
+                  <c:v>21.0798</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.1382</c:v>
+                  <c:v>0.0851527777777777</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.983799999999999</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>77.349</c:v>
+                  <c:v>0.618666666666666</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.805454545454545</c:v>
+                  <c:v>0.892</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>7.4544</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>20.1502</c:v>
+                  <c:v>7.2866</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0.271681818181818</c:v>
+                  <c:v>0.254416666666666</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>1.262</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>35.6716</c:v>
+                  <c:v>1.244875</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0.4183125</c:v>
+                  <c:v>0.466666666666666</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>4.06399999999999</c:v>
+                  <c:v>3.5455</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -942,64 +969,52 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="32"/>
                 <c:pt idx="0">
-                  <c:v>0.106361702127659</c:v>
+                  <c:v>0.104666666666666</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>34.7268</c:v>
+                  <c:v>33.0358</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>33.7198</c:v>
+                  <c:v>40.3298</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>32.9964</c:v>
+                  <c:v>39.6363999999999</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>32.9079999999999</c:v>
+                  <c:v>38.9006</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>32.6412</c:v>
+                  <c:v>38.9835999999999</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>33.0164</c:v>
+                  <c:v>39.5216</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>32.6948</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>5.6564</c:v>
+                  <c:v>39.1149999999999</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.0654607843137255</c:v>
+                  <c:v>0.0444363636363636</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.460466666666666</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>33.5306</c:v>
+                  <c:v>0.480571428571428</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.253347826086956</c:v>
+                  <c:v>0.23156</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>2.65016666666666</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>6.2272</c:v>
+                  <c:v>2.44571428571428</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0.0695384615384615</c:v>
+                  <c:v>0.0588068181818182</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0.623153846153846</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>13.275</c:v>
+                  <c:v>0.606538461538461</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0.123767441860465</c:v>
+                  <c:v>0.118837209302325</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>1.14044444444444</c:v>
+                  <c:v>1.15677777777777</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1145,64 +1160,52 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="32"/>
                 <c:pt idx="0">
-                  <c:v>0.110565217391304</c:v>
+                  <c:v>0.107191489361702</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>21.718</c:v>
+                  <c:v>21.7392</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>21.8034</c:v>
+                  <c:v>21.829</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>21.6244</c:v>
+                  <c:v>26.8437999999999</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>21.0646</c:v>
+                  <c:v>26.4182</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>21.562</c:v>
+                  <c:v>26.8591999999999</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>21.1264</c:v>
+                  <c:v>26.6034</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>20.9668</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1.95342857142857</c:v>
+                  <c:v>26.9344</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.0282176470588235</c:v>
+                  <c:v>0.0163408801020408</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.135461538461538</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>18.5816</c:v>
+                  <c:v>0.158617647058823</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.155685714285714</c:v>
+                  <c:v>0.0921320754716981</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1.56275</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>4.4425</c:v>
+                  <c:v>1.15211111111111</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.0456636363636363</c:v>
+                  <c:v>0.0186160256410256</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.374764705882352</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>7.87339999999999</c:v>
+                  <c:v>0.266043478260869</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.0580111111111111</c:v>
+                  <c:v>0.0424922480620155</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.6715</c:v>
+                  <c:v>0.560076923076923</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1222,11 +1225,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="-2043374736"/>
-        <c:axId val="-2043372016"/>
+        <c:axId val="387121904"/>
+        <c:axId val="387124192"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2043374736"/>
+        <c:axId val="387121904"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1269,7 +1272,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2043372016"/>
+        <c:crossAx val="387124192"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1277,7 +1280,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2043372016"/>
+        <c:axId val="387124192"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1398,7 +1401,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2043374736"/>
+        <c:crossAx val="387121904"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1810,7 +1813,7 @@
                   <c:v>2.65016666666666</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>6.227199999999999</c:v>
+                  <c:v>6.227199999999998</c:v>
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>0.0695384615384615</c:v>
@@ -2010,7 +2013,7 @@
                   <c:v>0.4183125</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>4.063999999999989</c:v>
+                  <c:v>4.063999999999988</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2177,7 +2180,7 @@
                   <c:v>21.1264</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>20.96679999999999</c:v>
+                  <c:v>20.96679999999998</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>1.95342857142857</c:v>
@@ -2383,7 +2386,7 @@
                   <c:v>1.66933333333333</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>5.111999999999999</c:v>
+                  <c:v>5.111999999999998</c:v>
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>0.04240625</c:v>
@@ -2454,11 +2457,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="219"/>
-        <c:axId val="-2043341488"/>
-        <c:axId val="-2043338736"/>
+        <c:axId val="285180064"/>
+        <c:axId val="285181840"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2043341488"/>
+        <c:axId val="285180064"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2501,7 +2504,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2043338736"/>
+        <c:crossAx val="285181840"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2509,7 +2512,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2043338736"/>
+        <c:axId val="285181840"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2560,7 +2563,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2043341488"/>
+        <c:crossAx val="285180064"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3763,7 +3766,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3799,7 +3802,7 @@
         <xdr:cNvPr id="3" name="Chart 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{71BCEE03-D0EA-484D-A53C-E6485F8BD875}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{71BCEE03-D0EA-484D-A53C-E6485F8BD875}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3821,9 +3824,9 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Micha Reiser" refreshedDate="42674.410304166668" createdVersion="4" refreshedVersion="4" minRefreshableVersion="3" recordCount="126">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Micha Reiser" refreshedDate="42675.304933217594" createdVersion="4" refreshedVersion="4" minRefreshableVersion="3" recordCount="173">
   <cacheSource type="worksheet">
-    <worksheetSource ref="A1:O127" sheet="Data"/>
+    <worksheetSource ref="A1:O174" sheet="Data"/>
   </cacheSource>
   <cacheFields count="16">
     <cacheField name="Set" numFmtId="49">
@@ -3835,16 +3838,18 @@
       </sharedItems>
     </cacheField>
     <cacheField name="File" numFmtId="49">
-      <sharedItems count="5">
+      <sharedItems count="7">
         <s v="mac-28.11.2016.json"/>
         <s v="pi3-28.11.2016.json"/>
         <s v="0.1.1-mac2014.json"/>
+        <s v="0.1.3-mac2014.json"/>
+        <s v="0.1.3-nexus-2013.json"/>
         <s v="mac-v0.2.1+.json"/>
         <s v="pi-v0.2.1+.json"/>
       </sharedItems>
     </cacheField>
     <cacheField name="Name" numFmtId="49">
-      <sharedItems count="34">
+      <sharedItems count="42">
         <s v="Monte Carlo Math.random (projects: 1, runs: 10,000)"/>
         <s v="Monte Carlo simjs (projects: 1, runs: 10,000)"/>
         <s v="Monte Carlo Math.random (projects: 1, runs: 100,000)"/>
@@ -3878,17 +3883,25 @@
         <s v="Mandelbrot 10000x10000, 1000 (300)"/>
         <s v="Mandelbrot 10000x10000, 1000 (600)"/>
         <s v="Mandelbrot 10000x10000, 1000 (1200)"/>
+        <s v="Monte Carlo Math.random (projects: 1, runs: 10.000)"/>
+        <s v="Monte Carlo Math.random (projects: 4, runs: 10.000)"/>
+        <s v="Monte Carlo Math.random (projects: 8, runs: 10.000)"/>
+        <s v="Monte Carlo Math.random (projects: 16, runs: 10.000)"/>
+        <s v="Monte Carlo Math.random (projects: 1, runs: 100.000)"/>
+        <s v="Monte Carlo Math.random (projects: 4, runs: 100.000)"/>
+        <s v="Monte Carlo Math.random (projects: 8, runs: 100.000)"/>
+        <s v="Monte Carlo Math.random (projects: 16, runs: 100.000)"/>
         <s v="Mandelbrot 10000x10000, 1000 (undefined)" u="1"/>
       </sharedItems>
     </cacheField>
     <cacheField name="Margin of Error" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="6.7790028036832702E-4" maxValue="417.59642761368201"/>
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="4.3683155607957002E-4" maxValue="417.59642761368201"/>
     </cacheField>
     <cacheField name="Relative Margin of Error" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="0.12095762338054999" maxValue="52.304719875831502"/>
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="0.12095762338054999" maxValue="66.444273299933002"/>
     </cacheField>
     <cacheField name="Standard Error of the mean" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="2.93972367896065E-4" maxValue="150.430989774381"/>
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="2.2287324289774001E-4" maxValue="150.430989774381"/>
     </cacheField>
     <cacheField name="Standard Deviation" numFmtId="0">
       <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="8.8191710368819699E-4" maxValue="336.37391905809199"/>
@@ -3900,7 +3913,7 @@
       <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="7.7777777777777895E-7" maxValue="113147.4134225"/>
     </cacheField>
     <cacheField name="Time Stamp" numFmtId="22">
-      <sharedItems containsSemiMixedTypes="0" containsNonDate="0" containsDate="1" containsString="0" minDate="2016-10-27T16:12:32" maxDate="2016-10-30T08:33:12" count="165">
+      <sharedItems containsSemiMixedTypes="0" containsNonDate="0" containsDate="1" containsString="0" minDate="2016-10-27T16:12:32" maxDate="2016-11-01T00:58:38" count="227">
         <d v="2016-10-28T05:24:42"/>
         <d v="2016-10-28T05:24:48"/>
         <d v="2016-10-28T05:24:54"/>
@@ -3975,6 +3988,40 @@
         <d v="2016-10-27T21:20:40"/>
         <d v="2016-10-27T21:22:28"/>
         <d v="2016-10-27T21:22:34"/>
+        <d v="2016-10-31T21:18:22"/>
+        <d v="2016-10-31T21:18:41"/>
+        <d v="2016-10-31T21:18:59"/>
+        <d v="2016-10-31T21:19:18"/>
+        <d v="2016-10-31T21:19:40"/>
+        <d v="2016-10-31T21:20:00"/>
+        <d v="2016-10-31T21:20:25"/>
+        <d v="2016-10-31T21:21:04"/>
+        <d v="2016-10-31T21:22:09"/>
+        <d v="2016-10-31T21:26:43"/>
+        <d v="2016-10-31T21:31:54"/>
+        <d v="2016-10-31T21:37:24"/>
+        <d v="2016-10-31T21:42:51"/>
+        <d v="2016-10-31T21:48:21"/>
+        <d v="2016-10-31T21:53:52"/>
+        <d v="2016-10-31T22:01:10"/>
+        <d v="2016-10-31T22:01:27"/>
+        <d v="2016-10-31T18:22:53"/>
+        <d v="2016-10-31T18:23:01"/>
+        <d v="2016-10-31T18:23:09"/>
+        <d v="2016-10-31T18:23:16"/>
+        <d v="2016-10-31T18:23:24"/>
+        <d v="2016-10-31T18:23:37"/>
+        <d v="2016-10-31T18:23:58"/>
+        <d v="2016-10-31T18:24:21"/>
+        <d v="2016-10-31T18:25:05"/>
+        <d v="2016-10-31T18:40:47"/>
+        <d v="2016-10-31T18:58:25"/>
+        <d v="2016-10-31T19:15:34"/>
+        <d v="2016-10-31T19:32:48"/>
+        <d v="2016-10-31T19:50:37"/>
+        <d v="2016-10-31T20:08:10"/>
+        <d v="2016-10-31T20:26:23"/>
+        <d v="2016-10-31T20:26:30"/>
         <d v="2016-10-28T16:46:18"/>
         <d v="2016-10-28T16:46:25"/>
         <d v="2016-10-28T16:46:32"/>
@@ -3996,21 +4043,34 @@
         <d v="2016-10-28T17:08:58"/>
         <d v="2016-10-28T17:11:43"/>
         <d v="2016-10-28T17:11:49"/>
-        <d v="2016-10-29T11:27:52"/>
-        <d v="2016-10-29T11:27:58"/>
-        <d v="2016-10-29T11:28:08"/>
-        <d v="2016-10-29T11:28:37"/>
-        <d v="2016-10-29T11:28:43"/>
-        <d v="2016-10-29T11:28:53"/>
-        <d v="2016-10-29T11:30:34"/>
-        <d v="2016-10-29T11:30:41"/>
-        <d v="2016-10-29T11:31:06"/>
-        <d v="2016-10-29T11:34:04"/>
-        <d v="2016-10-29T11:34:13"/>
-        <d v="2016-10-29T11:34:51"/>
-        <d v="2016-10-29T11:41:17"/>
-        <d v="2016-10-29T11:43:05"/>
-        <d v="2016-10-29T11:43:11"/>
+        <d v="2016-10-31T21:18:29"/>
+        <d v="2016-10-31T21:18:47"/>
+        <d v="2016-10-31T21:19:05"/>
+        <d v="2016-10-31T21:19:24"/>
+        <d v="2016-10-31T21:19:45"/>
+        <d v="2016-10-31T21:20:07"/>
+        <d v="2016-10-31T21:20:32"/>
+        <d v="2016-10-31T21:21:15"/>
+        <d v="2016-10-31T21:23:57"/>
+        <d v="2016-10-31T21:28:32"/>
+        <d v="2016-10-31T21:34:09"/>
+        <d v="2016-10-31T21:39:37"/>
+        <d v="2016-10-31T21:45:06"/>
+        <d v="2016-10-31T21:50:34"/>
+        <d v="2016-10-31T21:56:06"/>
+        <d v="2016-10-31T22:01:16"/>
+        <d v="2016-10-31T23:29:51"/>
+        <d v="2016-10-31T21:18:34"/>
+        <d v="2016-10-31T21:18:53"/>
+        <d v="2016-10-31T21:19:11"/>
+        <d v="2016-10-31T21:19:30"/>
+        <d v="2016-10-31T21:19:52"/>
+        <d v="2016-10-31T21:20:15"/>
+        <d v="2016-10-31T21:20:43"/>
+        <d v="2016-10-31T21:21:32"/>
+        <d v="2016-10-31T21:59:24"/>
+        <d v="2016-10-31T22:01:21"/>
+        <d v="2016-11-01T00:58:38"/>
         <d v="2016-10-30T06:57:26"/>
         <d v="2016-10-30T06:57:38"/>
         <d v="2016-10-30T06:58:12"/>
@@ -4029,14 +4089,20 @@
         <d v="2016-10-27T21:20:00" u="1"/>
         <d v="2016-10-28T17:00:00" u="1"/>
         <d v="2016-10-29T11:31:00" u="1"/>
+        <d v="2016-10-29T11:30:41" u="1"/>
         <d v="2016-10-28T05:54:00" u="1"/>
+        <d v="2016-10-29T11:28:53" u="1"/>
+        <d v="2016-10-29T11:28:43" u="1"/>
         <d v="2016-10-28T17:03:00" u="1"/>
         <d v="2016-10-29T11:34:00" u="1"/>
         <d v="2016-10-27T21:07:00" u="1"/>
         <d v="2016-10-28T05:41:00" u="1"/>
+        <d v="2016-10-29T11:30:34" u="1"/>
         <d v="2016-10-28T17:06:00" u="1"/>
         <d v="2016-10-28T05:25:00" u="1"/>
+        <d v="2016-10-29T11:34:13" u="1"/>
         <d v="2016-10-27T21:13:00" u="1"/>
+        <d v="2016-10-29T11:31:06" u="1"/>
         <d v="2016-10-29T11:43:00" u="1"/>
         <d v="2016-10-28T05:31:00" u="1"/>
         <d v="2016-10-29T11:27:00" u="1"/>
@@ -4049,21 +4115,30 @@
         <d v="2016-10-27T21:09:00" u="1"/>
         <d v="2016-10-28T17:08:00" u="1"/>
         <d v="2016-10-28T05:27:00" u="1"/>
+        <d v="2016-10-29T11:28:08" u="1"/>
         <d v="2016-10-28T17:11:00" u="1"/>
         <d v="2016-10-27T21:15:00" u="1"/>
         <d v="2016-10-28T16:46:00" u="1"/>
         <d v="2016-10-28T05:33:00" u="1"/>
         <d v="2016-10-27T21:18:00" u="1"/>
         <d v="2016-10-28T16:49:00" u="1"/>
+        <d v="2016-10-29T11:27:52" u="1"/>
         <d v="2016-10-28T16:52:00" u="1"/>
+        <d v="2016-10-29T11:43:05" u="1"/>
         <d v="2016-10-28T16:55:00" u="1"/>
+        <d v="2016-10-29T11:34:51" u="1"/>
         <d v="2016-10-27T21:08:00" u="1"/>
+        <d v="2016-10-29T11:41:17" u="1"/>
         <d v="2016-10-28T16:58:00" u="1"/>
         <d v="2016-10-28T05:26:00" u="1"/>
         <d v="2016-10-27T21:11:00" u="1"/>
+        <d v="2016-10-29T11:28:37" u="1"/>
+        <d v="2016-10-29T11:27:58" u="1"/>
+        <d v="2016-10-29T11:34:04" u="1"/>
         <d v="2016-10-29T11:41:00" u="1"/>
         <d v="2016-10-28T05:29:00" u="1"/>
         <d v="2016-10-27T21:17:00" u="1"/>
+        <d v="2016-10-29T11:43:11" u="1"/>
         <d v="2016-10-28T16:48:00" u="1"/>
         <d v="2016-10-29T11:28:00" u="1"/>
       </sharedItems>
@@ -4074,21 +4149,24 @@
       </sharedItems>
     </cacheField>
     <cacheField name="Browser Version" numFmtId="0">
-      <sharedItems count="2">
+      <sharedItems count="3">
         <s v="54.0.2840.71"/>
         <s v="51.0.2704.91"/>
+        <s v="54.0.2840.68"/>
       </sharedItems>
     </cacheField>
     <cacheField name="OS" numFmtId="0">
-      <sharedItems count="2">
+      <sharedItems count="3">
         <s v="OS X"/>
         <s v="Linux armv7l"/>
+        <s v="Android"/>
       </sharedItems>
     </cacheField>
     <cacheField name="OS Version" numFmtId="14">
-      <sharedItems containsNonDate="0" containsDate="1" containsString="0" containsBlank="1" minDate="2001-12-10T00:00:00" maxDate="2001-12-11T00:00:00" count="2">
+      <sharedItems containsDate="1" containsBlank="1" containsMixedTypes="1" minDate="2001-12-10T00:00:00" maxDate="2001-12-11T00:00:00" count="3">
         <d v="2001-12-10T00:00:00"/>
         <m/>
+        <s v="6.0.1"/>
       </sharedItems>
     </cacheField>
     <cacheField name="OS Architecture" numFmtId="0">
@@ -4105,7 +4183,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="126">
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="173">
   <r>
     <x v="0"/>
     <x v="0"/>
@@ -5382,6 +5460,584 @@
     <n v="32"/>
   </r>
   <r>
+    <x v="1"/>
+    <x v="3"/>
+    <x v="0"/>
+    <n v="1.08575790346143E-2"/>
+    <n v="66.444273299933002"/>
+    <n v="5.5395811401093703E-3"/>
+    <n v="4.1454429385047703E-2"/>
+    <n v="1.6340880102040801E-2"/>
+    <n v="1.7184697156399E-3"/>
+    <x v="74"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="32"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="3"/>
+    <x v="6"/>
+    <n v="3.69443479053784E-3"/>
+    <n v="19.8454539211426"/>
+    <n v="1.88491570945808E-3"/>
+    <n v="1.3592320480757401E-2"/>
+    <n v="1.8616025641025599E-2"/>
+    <n v="1.84751176051617E-4"/>
+    <x v="75"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="32"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="3"/>
+    <x v="12"/>
+    <n v="5.7607879116609697E-3"/>
+    <n v="13.557267912145599"/>
+    <n v="2.9391775059494701E-3"/>
+    <n v="1.9273475807274901E-2"/>
+    <n v="4.24922480620155E-2"/>
+    <n v="3.7146686969361301E-4"/>
+    <x v="76"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="32"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="3"/>
+    <x v="18"/>
+    <n v="4.3938227655365798E-3"/>
+    <n v="4.7690478511865404"/>
+    <n v="2.24174630894723E-3"/>
+    <n v="1.6320159473024801E-2"/>
+    <n v="9.2132075471698105E-2"/>
+    <n v="2.6634760522496298E-4"/>
+    <x v="77"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="32"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="3"/>
+    <x v="2"/>
+    <n v="2.07046030434477E-3"/>
+    <n v="1.30531522988545"/>
+    <n v="1.0563572981350899E-3"/>
+    <n v="6.1595685891944699E-3"/>
+    <n v="0.158617647058823"/>
+    <n v="3.79402852049911E-5"/>
+    <x v="78"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="32"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="3"/>
+    <x v="8"/>
+    <n v="5.1060763366735304E-3"/>
+    <n v="1.91926386245287"/>
+    <n v="2.4619461604018901E-3"/>
+    <n v="1.18070790047541E-2"/>
+    <n v="0.26604347826086899"/>
+    <n v="1.3940711462450599E-4"/>
+    <x v="79"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="32"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="3"/>
+    <x v="14"/>
+    <n v="1.9127747938510901E-2"/>
+    <n v="3.4152001538338399"/>
+    <n v="8.77822300987194E-3"/>
+    <n v="3.1650333169551098E-2"/>
+    <n v="0.56007692307692303"/>
+    <n v="1.00174358974358E-3"/>
+    <x v="80"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="32"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="3"/>
+    <x v="20"/>
+    <n v="8.5997487851838694E-2"/>
+    <n v="7.4643397691826401"/>
+    <n v="3.7292926215021102E-2"/>
+    <n v="0.111878778645063"/>
+    <n v="1.15211111111111"/>
+    <n v="1.25168611111111E-2"/>
+    <x v="81"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="32"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="3"/>
+    <x v="24"/>
+    <n v="0.33380681464200102"/>
+    <n v="1.5355064337326101"/>
+    <n v="0.120247411614553"/>
+    <n v="0.26888138648853899"/>
+    <n v="21.7392"/>
+    <n v="7.2297199999999506E-2"/>
+    <x v="82"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="32"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="3"/>
+    <x v="27"/>
+    <n v="9.8256283731882596E-2"/>
+    <n v="0.45011811687151299"/>
+    <n v="3.5394914889006701E-2"/>
+    <n v="7.9145435749638393E-2"/>
+    <n v="21.829000000000001"/>
+    <n v="6.2640000000001401E-3"/>
+    <x v="83"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="32"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="3"/>
+    <x v="28"/>
+    <n v="1.08613021228476"/>
+    <n v="4.0325019762265697"/>
+    <n v="0.39125728108240898"/>
+    <n v="0.87487787719201004"/>
+    <n v="26.9344"/>
+    <n v="0.76541129999999902"/>
+    <x v="84"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="32"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="3"/>
+    <x v="29"/>
+    <n v="0.19684247807584601"/>
+    <n v="0.74510177860658999"/>
+    <n v="7.0908673658446095E-2"/>
+    <n v="0.15855661449463401"/>
+    <n v="26.418199999999999"/>
+    <n v="2.5140200000000001E-2"/>
+    <x v="85"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="32"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="3"/>
+    <x v="30"/>
+    <n v="0.28880327831491098"/>
+    <n v="1.0752489959303"/>
+    <n v="0.10403576308173999"/>
+    <n v="0.23263103834183399"/>
+    <n v="26.859199999999898"/>
+    <n v="5.4117199999999997E-2"/>
+    <x v="86"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="32"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="3"/>
+    <x v="31"/>
+    <n v="0.31733286409220302"/>
+    <n v="1.19282822531031"/>
+    <n v="0.114312991387681"/>
+    <n v="0.25561161945420302"/>
+    <n v="26.603400000000001"/>
+    <n v="6.5337300000000403E-2"/>
+    <x v="87"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="32"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="3"/>
+    <x v="32"/>
+    <n v="0.18056039552637099"/>
+    <n v="0.67263351509984304"/>
+    <n v="6.5043370146387502E-2"/>
+    <n v="0.145441397133002"/>
+    <n v="26.843799999999899"/>
+    <n v="2.1153199999999799E-2"/>
+    <x v="88"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="32"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="3"/>
+    <x v="25"/>
+    <n v="3.1833943690189499E-3"/>
+    <n v="2.9698200743130299"/>
+    <n v="1.62418080051987E-3"/>
+    <n v="1.11348225769671E-2"/>
+    <n v="0.107191489361702"/>
+    <n v="1.2398427382053601E-4"/>
+    <x v="89"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="32"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="3"/>
+    <x v="26"/>
+    <n v="3.6623060053188898"/>
+    <n v="0.34527613705043497"/>
+    <n v="1.31927449759326"/>
+    <n v="2.9499874576004101"/>
+    <n v="1060.6890000000001"/>
+    <n v="8.7024259999997806"/>
+    <x v="90"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="32"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="4"/>
+    <x v="33"/>
+    <n v="3.7990219500025603E-2"/>
+    <n v="31.719515317940399"/>
+    <n v="1.9382765051033399E-2"/>
+    <n v="0.12104532894712999"/>
+    <n v="0.11976923076923"/>
+    <n v="1.4651971659918999E-2"/>
+    <x v="91"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="2"/>
+    <n v="32"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="4"/>
+    <x v="34"/>
+    <n v="0.203055971738624"/>
+    <n v="63.817591117853297"/>
+    <n v="9.76230633358771E-2"/>
+    <n v="0.45789275479283797"/>
+    <n v="0.31818181818181801"/>
+    <n v="0.20966577489177399"/>
+    <x v="92"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="2"/>
+    <n v="32"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="4"/>
+    <x v="35"/>
+    <n v="6.5377918521134698E-2"/>
+    <n v="18.640939860294999"/>
+    <n v="3.0984795507646799E-2"/>
+    <n v="0.13145735410281301"/>
+    <n v="0.35072222222222199"/>
+    <n v="1.7281035947712398E-2"/>
+    <x v="93"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="2"/>
+    <n v="32"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="4"/>
+    <x v="36"/>
+    <n v="7.2299282507089904E-2"/>
+    <n v="9.6605134295951203"/>
+    <n v="3.1962547527449099E-2"/>
+    <n v="0.101074450008122"/>
+    <n v="0.74839999999999995"/>
+    <n v="1.02160444444444E-2"/>
+    <x v="94"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="2"/>
+    <n v="32"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="4"/>
+    <x v="37"/>
+    <n v="0.13403029309714801"/>
+    <n v="7.63332561776941"/>
+    <n v="5.4773311441417297E-2"/>
+    <n v="0.14491656055747901"/>
+    <n v="1.7558571428571399"/>
+    <n v="2.1000809523809501E-2"/>
+    <x v="95"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="2"/>
+    <n v="32"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="4"/>
+    <x v="38"/>
+    <n v="0.39648811166370401"/>
+    <n v="11.6963895470879"/>
+    <n v="0.15421552378984901"/>
+    <n v="0.37774934370117202"/>
+    <n v="3.3898333333333301"/>
+    <n v="0.142694566666666"/>
+    <x v="96"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="2"/>
+    <n v="32"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="4"/>
+    <x v="39"/>
+    <n v="0.147744538178742"/>
+    <n v="3.8044171025812399"/>
+    <n v="5.7465786922887001E-2"/>
+    <n v="0.14076185562857499"/>
+    <n v="3.88349999999999"/>
+    <n v="1.9813899999999902E-2"/>
+    <x v="97"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="2"/>
+    <n v="32"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="4"/>
+    <x v="40"/>
+    <n v="0.58505173073758099"/>
+    <n v="6.7799069524125199"/>
+    <n v="0.210753505308927"/>
+    <n v="0.47125916436712301"/>
+    <n v="8.6292000000000009"/>
+    <n v="0.22208519999999901"/>
+    <x v="98"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="2"/>
+    <n v="32"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="4"/>
+    <x v="24"/>
+    <n v="10.802488270416299"/>
+    <n v="5.7375384780203698"/>
+    <n v="3.8913862645592001"/>
+    <n v="8.7014042142633503"/>
+    <n v="188.2774"/>
+    <n v="75.714435300000005"/>
+    <x v="99"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="2"/>
+    <n v="32"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="4"/>
+    <x v="27"/>
+    <n v="3.6587432096883901"/>
+    <n v="1.7304782346882299"/>
+    <n v="1.3179910697724699"/>
+    <n v="2.9471176257489198"/>
+    <n v="211.42959999999999"/>
+    <n v="8.6855022999999694"/>
+    <x v="100"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="2"/>
+    <n v="32"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="4"/>
+    <x v="28"/>
+    <n v="2.2226892013423298"/>
+    <n v="1.07998822261574"/>
+    <n v="0.80068054803398103"/>
+    <n v="1.79037613366576"/>
+    <n v="205.80679999999899"/>
+    <n v="3.20544669999998"/>
+    <x v="101"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="2"/>
+    <n v="32"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="4"/>
+    <x v="29"/>
+    <n v="1.5085809256288401"/>
+    <n v="0.72963253141524398"/>
+    <n v="0.54343693286341699"/>
+    <n v="1.21516192336658"/>
+    <n v="206.75899999999999"/>
+    <n v="1.4766184999999901"/>
+    <x v="102"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="2"/>
+    <n v="32"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="4"/>
+    <x v="30"/>
+    <n v="2.6068247310615602"/>
+    <n v="1.2197942499055101"/>
+    <n v="0.93905790023831603"/>
+    <n v="2.0997972997410899"/>
+    <n v="213.71019999999999"/>
+    <n v="4.4091486999999701"/>
+    <x v="103"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="2"/>
+    <n v="32"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="4"/>
+    <x v="31"/>
+    <n v="3.1490205943395999"/>
+    <n v="1.49754259781262"/>
+    <n v="1.1343734129465399"/>
+    <n v="2.5365360632169098"/>
+    <n v="210.2792"/>
+    <n v="6.4340151999999602"/>
+    <x v="104"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="2"/>
+    <n v="32"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="4"/>
+    <x v="32"/>
+    <n v="5.3225731683487698"/>
+    <n v="2.4362033229625499"/>
+    <n v="1.9173534468115101"/>
+    <n v="4.2873326439640804"/>
+    <n v="218.47819999999999"/>
+    <n v="18.381221199999999"/>
+    <x v="105"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="2"/>
+    <n v="32"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="4"/>
+    <x v="25"/>
+    <n v="4.9479754786699998E-2"/>
+    <n v="9.9044404777494996"/>
+    <n v="2.2907293882731401E-2"/>
+    <n v="8.5711245367323802E-2"/>
+    <n v="0.499571428571428"/>
+    <n v="7.3464175824175804E-3"/>
+    <x v="106"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="2"/>
+    <n v="32"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="4"/>
+    <x v="26"/>
+    <n v="260.18279122759401"/>
+    <n v="4.9280116333691497"/>
+    <n v="93.725789347116105"/>
+    <n v="209.57723622497701"/>
+    <n v="5279.6707999999999"/>
+    <n v="43922.617943699901"/>
+    <x v="107"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="2"/>
+    <n v="32"/>
+  </r>
+  <r>
     <x v="2"/>
     <x v="2"/>
     <x v="1"/>
@@ -5391,7 +6047,7 @@
     <n v="0.124753029748269"/>
     <n v="6.5460784313725498E-2"/>
     <n v="1.55633184313725E-2"/>
-    <x v="74"/>
+    <x v="108"/>
     <x v="0"/>
     <x v="0"/>
     <x v="0"/>
@@ -5408,7 +6064,7 @@
     <n v="3.5411593474185099E-2"/>
     <n v="0.46046666666666602"/>
     <n v="1.25398095238095E-3"/>
-    <x v="75"/>
+    <x v="109"/>
     <x v="0"/>
     <x v="0"/>
     <x v="0"/>
@@ -5425,7 +6081,7 @@
     <n v="0.13866794871202201"/>
     <n v="5.6563999999999997"/>
     <n v="1.9228800000000001E-2"/>
-    <x v="76"/>
+    <x v="110"/>
     <x v="0"/>
     <x v="0"/>
     <x v="0"/>
@@ -5442,7 +6098,7 @@
     <n v="1.273638830456E-2"/>
     <n v="6.9538461538461493E-2"/>
     <n v="1.62215587044534E-4"/>
-    <x v="77"/>
+    <x v="111"/>
     <x v="0"/>
     <x v="0"/>
     <x v="0"/>
@@ -5459,7 +6115,7 @@
     <n v="5.34849607426333E-2"/>
     <n v="0.62315384615384595"/>
     <n v="2.8606410256410198E-3"/>
-    <x v="78"/>
+    <x v="112"/>
     <x v="0"/>
     <x v="0"/>
     <x v="0"/>
@@ -5476,7 +6132,7 @@
     <n v="0.58529881257354299"/>
     <n v="6.2271999999999998"/>
     <n v="0.34257470000000001"/>
-    <x v="79"/>
+    <x v="113"/>
     <x v="0"/>
     <x v="0"/>
     <x v="0"/>
@@ -5493,7 +6149,7 @@
     <n v="1.6764243708251001E-2"/>
     <n v="0.123767441860465"/>
     <n v="2.81039867109634E-4"/>
-    <x v="80"/>
+    <x v="114"/>
     <x v="0"/>
     <x v="0"/>
     <x v="0"/>
@@ -5510,7 +6166,7 @@
     <n v="3.1097070244281402E-2"/>
     <n v="1.1404444444444399"/>
     <n v="9.6702777777777705E-4"/>
-    <x v="81"/>
+    <x v="115"/>
     <x v="0"/>
     <x v="0"/>
     <x v="0"/>
@@ -5527,7 +6183,7 @@
     <n v="0.56976003720864798"/>
     <n v="13.275"/>
     <n v="0.32462649999999998"/>
-    <x v="82"/>
+    <x v="116"/>
     <x v="0"/>
     <x v="0"/>
     <x v="0"/>
@@ -5544,7 +6200,7 @@
     <n v="7.8775209278287208E-3"/>
     <n v="0.253347826086956"/>
     <n v="6.2055335968379502E-5"/>
-    <x v="83"/>
+    <x v="117"/>
     <x v="0"/>
     <x v="0"/>
     <x v="0"/>
@@ -5561,7 +6217,7 @@
     <n v="1.36296245974224E-2"/>
     <n v="2.6501666666666601"/>
     <n v="1.8576666666666401E-4"/>
-    <x v="84"/>
+    <x v="118"/>
     <x v="0"/>
     <x v="0"/>
     <x v="0"/>
@@ -5578,7 +6234,7 @@
     <n v="6.6726826913918202"/>
     <n v="33.5306"/>
     <n v="44.5246943"/>
-    <x v="85"/>
+    <x v="119"/>
     <x v="0"/>
     <x v="0"/>
     <x v="0"/>
@@ -5595,7 +6251,7 @@
     <n v="2.7618558434501899"/>
     <n v="34.726799999999997"/>
     <n v="7.6278477000000002"/>
-    <x v="86"/>
+    <x v="120"/>
     <x v="0"/>
     <x v="0"/>
     <x v="0"/>
@@ -5612,7 +6268,7 @@
     <n v="0.17215312950974601"/>
     <n v="33.719799999999999"/>
     <n v="2.9636699999999402E-2"/>
-    <x v="87"/>
+    <x v="121"/>
     <x v="0"/>
     <x v="0"/>
     <x v="0"/>
@@ -5629,7 +6285,7 @@
     <n v="0.23022315261502299"/>
     <n v="32.694800000000001"/>
     <n v="5.3002700000000201E-2"/>
-    <x v="88"/>
+    <x v="122"/>
     <x v="0"/>
     <x v="0"/>
     <x v="0"/>
@@ -5646,7 +6302,7 @@
     <n v="0.31382877497132"/>
     <n v="32.907999999999902"/>
     <n v="9.8488499999999396E-2"/>
-    <x v="89"/>
+    <x v="123"/>
     <x v="0"/>
     <x v="0"/>
     <x v="0"/>
@@ -5663,7 +6319,7 @@
     <n v="0.24478092245924801"/>
     <n v="32.641199999999998"/>
     <n v="5.9917700000000497E-2"/>
-    <x v="90"/>
+    <x v="124"/>
     <x v="0"/>
     <x v="0"/>
     <x v="0"/>
@@ -5680,7 +6336,7 @@
     <n v="0.442077255691807"/>
     <n v="33.016399999999997"/>
     <n v="0.1954323"/>
-    <x v="91"/>
+    <x v="125"/>
     <x v="0"/>
     <x v="0"/>
     <x v="0"/>
@@ -5697,7 +6353,7 @@
     <n v="0.28664228578491202"/>
     <n v="32.996400000000001"/>
     <n v="8.2163799999999301E-2"/>
-    <x v="92"/>
+    <x v="126"/>
     <x v="0"/>
     <x v="0"/>
     <x v="0"/>
@@ -5714,7 +6370,7 @@
     <n v="6.0340538392883204E-3"/>
     <n v="0.106361702127659"/>
     <n v="3.6409805735430101E-5"/>
-    <x v="93"/>
+    <x v="127"/>
     <x v="0"/>
     <x v="0"/>
     <x v="0"/>
@@ -5731,58 +6387,313 @@
     <n v="3.0140099037661199"/>
     <n v="1090.5922"/>
     <n v="9.0842557000003108"/>
-    <x v="94"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <n v="32"/>
-  </r>
-  <r>
+    <x v="128"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="32"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="3"/>
+    <x v="1"/>
+    <n v="4.3683155607957002E-4"/>
+    <n v="0.98304973749494196"/>
+    <n v="2.2287324289774001E-4"/>
+    <n v="1.6528722067923199E-3"/>
+    <n v="4.44363636363636E-2"/>
+    <n v="2.7319865319865302E-6"/>
+    <x v="129"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="32"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="3"/>
+    <x v="7"/>
+    <n v="3.7008889508499299E-3"/>
+    <n v="6.2932990855032704"/>
+    <n v="1.8882086483928201E-3"/>
+    <n v="1.2524959225246201E-2"/>
+    <n v="5.8806818181818203E-2"/>
+    <n v="1.5687460359408001E-4"/>
+    <x v="130"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="32"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="3"/>
+    <x v="13"/>
+    <n v="3.3468162722064998E-3"/>
+    <n v="2.8163033210348201"/>
+    <n v="1.70755932255433E-3"/>
+    <n v="1.11972152842488E-2"/>
+    <n v="0.118837209302325"/>
+    <n v="1.25377630121816E-4"/>
+    <x v="131"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="32"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="3"/>
+    <x v="19"/>
+    <n v="5.04320425380531E-3"/>
+    <n v="2.1779254853192702"/>
+    <n v="2.4434129136653598E-3"/>
+    <n v="1.22170645683268E-2"/>
+    <n v="0.23155999999999999"/>
+    <n v="1.49256666666666E-4"/>
+    <x v="132"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="32"/>
+  </r>
+  <r>
+    <x v="2"/>
     <x v="3"/>
     <x v="3"/>
-    <x v="1"/>
-    <n v="1.64508922180297E-2"/>
-    <n v="11.9036846729592"/>
-    <n v="8.3933123561376107E-3"/>
-    <n v="5.3083968317258298E-2"/>
-    <n v="0.13819999999999999"/>
-    <n v="2.81790769230769E-3"/>
-    <x v="95"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <n v="32"/>
-  </r>
-  <r>
+    <n v="2.62176784102728E-2"/>
+    <n v="5.4555216668225404"/>
+    <n v="1.213781407883E-2"/>
+    <n v="4.5415541707343098E-2"/>
+    <n v="0.48057142857142798"/>
+    <n v="2.0625714285714201E-3"/>
+    <x v="133"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="32"/>
+  </r>
+  <r>
+    <x v="2"/>
     <x v="3"/>
+    <x v="9"/>
+    <n v="2.8950432962393802E-2"/>
+    <n v="4.7730580660890203"/>
+    <n v="1.3286109666082501E-2"/>
+    <n v="4.7903749652498301E-2"/>
+    <n v="0.60653846153846103"/>
+    <n v="2.29476923076923E-3"/>
+    <x v="134"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="32"/>
+  </r>
+  <r>
+    <x v="2"/>
     <x v="3"/>
+    <x v="15"/>
+    <n v="1.4476555555555499E-2"/>
+    <n v="1.25145519162424"/>
+    <n v="6.2777777777777797E-3"/>
+    <n v="1.8833333333333299E-2"/>
+    <n v="1.1567777777777699"/>
+    <n v="3.5469444444444502E-4"/>
+    <x v="135"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="32"/>
+  </r>
+  <r>
+    <x v="2"/>
     <x v="3"/>
-    <n v="4.4562356842519003E-2"/>
-    <n v="4.5296154546166898"/>
-    <n v="1.9700423007302799E-2"/>
-    <n v="6.22982075718609E-2"/>
-    <n v="0.98379999999999901"/>
-    <n v="3.8810666666666601E-3"/>
-    <x v="96"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <n v="32"/>
-  </r>
-  <r>
+    <x v="21"/>
+    <n v="0.16268384773298999"/>
+    <n v="6.6517928395498398"/>
+    <n v="6.6482978231708401E-2"/>
+    <n v="0.17589742682002099"/>
+    <n v="2.44571428571428"/>
+    <n v="3.09399047619047E-2"/>
+    <x v="136"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="32"/>
+  </r>
+  <r>
+    <x v="2"/>
     <x v="3"/>
+    <x v="24"/>
+    <n v="0.61150900996194502"/>
+    <n v="1.85104949770232"/>
+    <n v="0.22028422549061399"/>
+    <n v="0.49257050256790502"/>
+    <n v="33.035800000000002"/>
+    <n v="0.242625699999999"/>
+    <x v="137"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="32"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="3"/>
+    <x v="27"/>
+    <n v="0.40504437065467003"/>
+    <n v="1.00433022394028"/>
+    <n v="0.145909355423152"/>
+    <n v="0.32626323727934597"/>
+    <n v="40.329799999999999"/>
+    <n v="0.10644769999999799"/>
+    <x v="138"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="32"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="3"/>
+    <x v="28"/>
+    <n v="0.35884994556276401"/>
+    <n v="0.91742284433788701"/>
+    <n v="0.129268712378517"/>
+    <n v="0.28905362824223302"/>
+    <n v="39.114999999999903"/>
+    <n v="8.3551999999999405E-2"/>
+    <x v="139"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="32"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="3"/>
+    <x v="29"/>
+    <n v="0.19896504336832699"/>
+    <n v="0.51147037158380004"/>
+    <n v="7.1673286515968201E-2"/>
+    <n v="0.16026634082052299"/>
+    <n v="38.900599999999997"/>
+    <n v="2.56853000000003E-2"/>
+    <x v="140"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="32"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="3"/>
+    <x v="30"/>
+    <n v="0.26571787316204398"/>
+    <n v="0.68161450754174502"/>
+    <n v="9.5719694943099398E-2"/>
+    <n v="0.21403574467831299"/>
+    <n v="38.983599999999903"/>
+    <n v="4.5811299999999999E-2"/>
+    <x v="141"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="32"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="3"/>
+    <x v="31"/>
+    <n v="0.35845201446129599"/>
+    <n v="0.90697748689652402"/>
+    <n v="0.12912536543994799"/>
+    <n v="0.288733094743226"/>
+    <n v="39.521599999999999"/>
+    <n v="8.3366800000001004E-2"/>
+    <x v="142"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="32"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="3"/>
+    <x v="32"/>
+    <n v="0.71376979271650098"/>
+    <n v="1.8007936964923701"/>
+    <n v="0.257121683255224"/>
+    <n v="0.57494156224784998"/>
+    <n v="39.636399999999902"/>
+    <n v="0.33055779999999801"/>
+    <x v="143"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="32"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="3"/>
+    <x v="25"/>
+    <n v="7.1553217147524205E-4"/>
+    <n v="0.68362946319290596"/>
+    <n v="3.6506743442614399E-4"/>
+    <n v="2.5292613784596001E-3"/>
+    <n v="0.10466666666666601"/>
+    <n v="6.3971631205673702E-6"/>
+    <x v="144"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="32"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="3"/>
+    <x v="26"/>
+    <n v="3.3973969817295102"/>
+    <n v="0.318907271975514"/>
+    <n v="1.2238461749745999"/>
+    <n v="2.7366032412463199"/>
+    <n v="1065.3244"/>
+    <n v="7.4889972999999097"/>
+    <x v="145"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="32"/>
+  </r>
+  <r>
     <x v="3"/>
     <x v="5"/>
-    <n v="0.13817287285484001"/>
-    <n v="2.4171309365132001"/>
-    <n v="4.9774089645115399E-2"/>
-    <n v="0.111298247964646"/>
-    <n v="5.7164000000000001"/>
-    <n v="1.23872999999999E-2"/>
-    <x v="97"/>
+    <x v="1"/>
+    <n v="1.9558883184367899E-2"/>
+    <n v="22.969166355806401"/>
+    <n v="9.9790220328408105E-3"/>
+    <n v="5.9874132197044801E-2"/>
+    <n v="8.5152777777777702E-2"/>
+    <n v="3.5849117063492001E-3"/>
+    <x v="146"/>
     <x v="0"/>
     <x v="0"/>
     <x v="0"/>
@@ -5791,15 +6702,32 @@
   </r>
   <r>
     <x v="3"/>
+    <x v="5"/>
+    <x v="7"/>
+    <n v="2.1729110377482E-2"/>
+    <n v="8.54075743628513"/>
+    <n v="1.05022283119778E-2"/>
+    <n v="5.1450201053113397E-2"/>
+    <n v="0.25441666666666601"/>
+    <n v="2.64712318840579E-3"/>
+    <x v="147"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="32"/>
+  </r>
+  <r>
     <x v="3"/>
-    <x v="7"/>
-    <n v="2.5062826369813998E-3"/>
-    <n v="0.92250657543233805"/>
-    <n v="1.2049435754718199E-3"/>
-    <n v="5.6516863360910503E-3"/>
-    <n v="0.27168181818181802"/>
-    <n v="3.19415584415583E-5"/>
-    <x v="98"/>
+    <x v="5"/>
+    <x v="13"/>
+    <n v="5.6661212482614501E-3"/>
+    <n v="1.21416883891316"/>
+    <n v="2.6415483674878501E-3"/>
+    <n v="1.02306728354818E-2"/>
+    <n v="0.46666666666666601"/>
+    <n v="1.0466666666666599E-4"/>
+    <x v="148"/>
     <x v="0"/>
     <x v="0"/>
     <x v="0"/>
@@ -5808,15 +6736,49 @@
   </r>
   <r>
     <x v="3"/>
+    <x v="5"/>
+    <x v="19"/>
+    <n v="1.3750942571329401E-2"/>
+    <n v="1.54158549005935"/>
+    <n v="6.0791081217194702E-3"/>
+    <n v="1.92238278070616E-2"/>
+    <n v="0.89200000000000002"/>
+    <n v="3.6955555555555602E-4"/>
+    <x v="149"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="32"/>
+  </r>
+  <r>
     <x v="3"/>
+    <x v="5"/>
+    <x v="3"/>
+    <n v="7.7122291812707798E-3"/>
+    <n v="1.24658876852437"/>
+    <n v="3.5039660069381001E-3"/>
+    <n v="1.2138094304022001E-2"/>
+    <n v="0.61866666666666603"/>
+    <n v="1.47333333333333E-4"/>
+    <x v="150"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="32"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="5"/>
     <x v="9"/>
-    <n v="2.2759011107847799E-2"/>
-    <n v="1.8034081701939599"/>
-    <n v="9.6232605107179001E-3"/>
-    <n v="2.72186910570133E-2"/>
-    <n v="1.262"/>
-    <n v="7.4085714285714E-4"/>
-    <x v="99"/>
+    <n v="3.9330348194015303E-3"/>
+    <n v="0.315938131892883"/>
+    <n v="1.66301683695625E-3"/>
+    <n v="4.7037219305566796E-3"/>
+    <n v="1.244875"/>
+    <n v="2.2124999999999799E-5"/>
+    <x v="151"/>
     <x v="0"/>
     <x v="0"/>
     <x v="0"/>
@@ -5825,15 +6787,32 @@
   </r>
   <r>
     <x v="3"/>
+    <x v="5"/>
+    <x v="15"/>
+    <n v="4.0557474068906099E-2"/>
+    <n v="1.1439140902244"/>
+    <n v="1.57749801901618E-2"/>
+    <n v="3.8640652168409298E-2"/>
+    <n v="3.5455000000000001"/>
+    <n v="1.4930999999999901E-3"/>
+    <x v="152"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="32"/>
+  </r>
+  <r>
     <x v="3"/>
-    <x v="11"/>
-    <n v="0.52141704878363804"/>
-    <n v="2.5876519775666602"/>
-    <n v="0.18783034898546"/>
-    <n v="0.42000142856899803"/>
-    <n v="20.150200000000002"/>
-    <n v="0.17640119999999901"/>
-    <x v="100"/>
+    <x v="5"/>
+    <x v="21"/>
+    <n v="0.121741447558996"/>
+    <n v="1.6707579331786599"/>
+    <n v="4.3854988313759599E-2"/>
+    <n v="9.8062735022025393E-2"/>
+    <n v="7.2866"/>
+    <n v="9.6162999999999804E-3"/>
+    <x v="153"/>
     <x v="0"/>
     <x v="0"/>
     <x v="0"/>
@@ -5842,15 +6821,32 @@
   </r>
   <r>
     <x v="3"/>
+    <x v="5"/>
+    <x v="24"/>
+    <n v="0.160246147892048"/>
+    <n v="0.76018817964140295"/>
+    <n v="5.7725557598000098E-2"/>
+    <n v="0.129078270828207"/>
+    <n v="21.079799999999999"/>
+    <n v="1.6661200000000102E-2"/>
+    <x v="154"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="32"/>
+  </r>
+  <r>
     <x v="3"/>
-    <x v="13"/>
-    <n v="7.3684512356559399E-3"/>
-    <n v="1.76147048812931"/>
-    <n v="3.4577434235832601E-3"/>
-    <n v="1.3830973694333001E-2"/>
-    <n v="0.41831249999999998"/>
-    <n v="1.9129583333333299E-4"/>
-    <x v="101"/>
+    <x v="5"/>
+    <x v="25"/>
+    <n v="1.9672098266915699E-3"/>
+    <n v="1.4440275407673899"/>
+    <n v="1.0036784830059001E-3"/>
+    <n v="6.2679701174074296E-3"/>
+    <n v="0.13623076923076899"/>
+    <n v="3.9287449392712501E-5"/>
+    <x v="155"/>
     <x v="0"/>
     <x v="0"/>
     <x v="0"/>
@@ -5859,143 +6855,24 @@
   </r>
   <r>
     <x v="3"/>
+    <x v="5"/>
+    <x v="26"/>
+    <n v="9.7004458123816697"/>
+    <n v="0.88680806665543499"/>
+    <n v="3.4943969064775402"/>
+    <n v="7.8137090232487703"/>
+    <n v="1093.8607999999999"/>
+    <n v="61.054048699999299"/>
+    <x v="156"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="32"/>
+  </r>
+  <r>
     <x v="3"/>
-    <x v="15"/>
-    <n v="2.4695879202814401E-2"/>
-    <n v="0.60767419298263803"/>
-    <n v="9.6055539489748893E-3"/>
-    <n v="2.3528705871764401E-2"/>
-    <n v="4.0639999999999903"/>
-    <n v="5.5360000000000196E-4"/>
-    <x v="102"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <n v="32"/>
-  </r>
-  <r>
-    <x v="3"/>
-    <x v="3"/>
-    <x v="17"/>
-    <n v="1.02596941631267"/>
-    <n v="2.87615194247712"/>
-    <n v="0.36958552460831001"/>
-    <n v="0.826418356524103"/>
-    <n v="35.671599999999998"/>
-    <n v="0.68296730000000005"/>
-    <x v="103"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <n v="32"/>
-  </r>
-  <r>
-    <x v="3"/>
-    <x v="3"/>
-    <x v="19"/>
-    <n v="7.0734487166520896E-3"/>
-    <n v="0.87819340725928796"/>
-    <n v="3.1747974491257102E-3"/>
-    <n v="1.0529611924127401E-2"/>
-    <n v="0.80545454545454498"/>
-    <n v="1.10872727272726E-4"/>
-    <x v="104"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <n v="32"/>
-  </r>
-  <r>
-    <x v="3"/>
-    <x v="3"/>
-    <x v="21"/>
-    <n v="9.8712467829347297E-2"/>
-    <n v="1.32421748000304"/>
-    <n v="3.55592463362202E-2"/>
-    <n v="7.9512892036448707E-2"/>
-    <n v="7.4543999999999997"/>
-    <n v="6.32229999999995E-3"/>
-    <x v="105"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <n v="32"/>
-  </r>
-  <r>
-    <x v="3"/>
-    <x v="3"/>
-    <x v="23"/>
-    <n v="0.82981693470692797"/>
-    <n v="1.07282180080793"/>
-    <n v="0.29892540875609802"/>
-    <n v="0.66841753418054595"/>
-    <n v="77.349000000000004"/>
-    <n v="0.44678200000000101"/>
-    <x v="106"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <n v="32"/>
-  </r>
-  <r>
-    <x v="3"/>
-    <x v="3"/>
-    <x v="24"/>
-    <n v="0.27308504055579302"/>
-    <n v="1.26659295453648"/>
-    <n v="9.83735736872456E-2"/>
-    <n v="0.219969997954265"/>
-    <n v="21.560600000000001"/>
-    <n v="4.8386799999999702E-2"/>
-    <x v="107"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <n v="32"/>
-  </r>
-  <r>
-    <x v="3"/>
-    <x v="3"/>
-    <x v="25"/>
-    <n v="5.6801421464601704E-3"/>
-    <n v="3.9887124581329698"/>
-    <n v="2.8980317073776401E-3"/>
-    <n v="1.7628038681252799E-2"/>
-    <n v="0.142405405405405"/>
-    <n v="3.1074774774774702E-4"/>
-    <x v="108"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <n v="32"/>
-  </r>
-  <r>
-    <x v="3"/>
-    <x v="3"/>
-    <x v="26"/>
-    <n v="18.967511407593999"/>
-    <n v="1.6527572346235"/>
-    <n v="6.83267702002665"/>
-    <n v="15.278330285080299"/>
-    <n v="1147.6284000000001"/>
-    <n v="233.42737630000099"/>
-    <x v="109"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <n v="32"/>
-  </r>
-  <r>
-    <x v="3"/>
-    <x v="4"/>
+    <x v="6"/>
     <x v="1"/>
     <n v="0.116178061030854"/>
     <n v="11.008660236657001"/>
@@ -6003,7 +6880,7 @@
     <n v="0.151142317039272"/>
     <n v="1.0553333333333299"/>
     <n v="2.2844E-2"/>
-    <x v="110"/>
+    <x v="157"/>
     <x v="0"/>
     <x v="1"/>
     <x v="1"/>
@@ -6012,7 +6889,7 @@
   </r>
   <r>
     <x v="3"/>
-    <x v="4"/>
+    <x v="6"/>
     <x v="3"/>
     <n v="4.8934825331659201E-2"/>
     <n v="0.72806679360321302"/>
@@ -6020,7 +6897,7 @@
     <n v="3.9417001408021797E-2"/>
     <n v="6.7211999999999996"/>
     <n v="1.5536999999999899E-3"/>
-    <x v="111"/>
+    <x v="158"/>
     <x v="0"/>
     <x v="1"/>
     <x v="1"/>
@@ -6029,7 +6906,7 @@
   </r>
   <r>
     <x v="3"/>
-    <x v="4"/>
+    <x v="6"/>
     <x v="5"/>
     <n v="0.438080066578517"/>
     <n v="0.94196991962146903"/>
@@ -6037,7 +6914,7 @@
     <n v="0.35287349007824098"/>
     <n v="46.506799999999998"/>
     <n v="0.124519699999998"/>
-    <x v="112"/>
+    <x v="159"/>
     <x v="0"/>
     <x v="1"/>
     <x v="1"/>
@@ -6046,7 +6923,7 @@
   </r>
   <r>
     <x v="3"/>
-    <x v="4"/>
+    <x v="6"/>
     <x v="7"/>
     <n v="0.105494035495664"/>
     <n v="8.7919836972032499"/>
@@ -6054,7 +6931,7 @@
     <n v="0.137242890931046"/>
     <n v="1.1998888888888799"/>
     <n v="1.8835611111111102E-2"/>
-    <x v="113"/>
+    <x v="160"/>
     <x v="0"/>
     <x v="1"/>
     <x v="1"/>
@@ -6063,7 +6940,7 @@
   </r>
   <r>
     <x v="3"/>
-    <x v="4"/>
+    <x v="6"/>
     <x v="9"/>
     <n v="0.73019301602137998"/>
     <n v="9.6509782714958998"/>
@@ -6071,7 +6948,7 @@
     <n v="0.58817046848681498"/>
     <n v="7.5659999999999998"/>
     <n v="0.34594449999999899"/>
-    <x v="114"/>
+    <x v="161"/>
     <x v="0"/>
     <x v="1"/>
     <x v="1"/>
@@ -6080,7 +6957,7 @@
   </r>
   <r>
     <x v="3"/>
-    <x v="4"/>
+    <x v="6"/>
     <x v="11"/>
     <n v="5.1164116284911998"/>
     <n v="5.3864902496064699"/>
@@ -6088,7 +6965,7 @@
     <n v="4.1212695252798"/>
     <n v="94.985999999999905"/>
     <n v="16.984862499999899"/>
-    <x v="115"/>
+    <x v="162"/>
     <x v="0"/>
     <x v="1"/>
     <x v="1"/>
@@ -6097,7 +6974,7 @@
   </r>
   <r>
     <x v="3"/>
-    <x v="4"/>
+    <x v="6"/>
     <x v="13"/>
     <n v="0.11105956212163801"/>
     <n v="4.1324488231307202"/>
@@ -6105,7 +6982,7 @@
     <n v="0.10581067999025399"/>
     <n v="2.6875"/>
     <n v="1.11959E-2"/>
-    <x v="116"/>
+    <x v="163"/>
     <x v="0"/>
     <x v="1"/>
     <x v="1"/>
@@ -6114,7 +6991,7 @@
   </r>
   <r>
     <x v="3"/>
-    <x v="4"/>
+    <x v="6"/>
     <x v="15"/>
     <n v="0.23428946629876399"/>
     <n v="1.1721271652496601"/>
@@ -6122,7 +6999,7 @@
     <n v="0.18872016320467699"/>
     <n v="19.988399999999999"/>
     <n v="3.5615300000000003E-2"/>
-    <x v="117"/>
+    <x v="164"/>
     <x v="0"/>
     <x v="1"/>
     <x v="1"/>
@@ -6131,7 +7008,7 @@
   </r>
   <r>
     <x v="3"/>
-    <x v="4"/>
+    <x v="6"/>
     <x v="17"/>
     <n v="5.7724342113731302"/>
     <n v="2.6840391710853901"/>
@@ -6139,7 +7016,7 @@
     <n v="4.64969571047396"/>
     <n v="215.0652"/>
     <n v="21.619670200000002"/>
-    <x v="118"/>
+    <x v="165"/>
     <x v="0"/>
     <x v="1"/>
     <x v="1"/>
@@ -6148,7 +7025,7 @@
   </r>
   <r>
     <x v="3"/>
-    <x v="4"/>
+    <x v="6"/>
     <x v="19"/>
     <n v="0.69123481405195397"/>
     <n v="12.546918137877601"/>
@@ -6156,7 +7033,7 @@
     <n v="0.55678963711620899"/>
     <n v="5.5091999999999999"/>
     <n v="0.31001469999999898"/>
-    <x v="119"/>
+    <x v="166"/>
     <x v="0"/>
     <x v="1"/>
     <x v="1"/>
@@ -6165,7 +7042,7 @@
   </r>
   <r>
     <x v="3"/>
-    <x v="4"/>
+    <x v="6"/>
     <x v="21"/>
     <n v="0.45070905520967702"/>
     <n v="1.0817969306331201"/>
@@ -6173,7 +7050,7 @@
     <n v="0.36304614031827898"/>
     <n v="41.662999999999997"/>
     <n v="0.13180249999999899"/>
-    <x v="120"/>
+    <x v="167"/>
     <x v="0"/>
     <x v="1"/>
     <x v="1"/>
@@ -6182,7 +7059,7 @@
   </r>
   <r>
     <x v="3"/>
-    <x v="4"/>
+    <x v="6"/>
     <x v="23"/>
     <n v="5.2441865145501199"/>
     <n v="1.1452869568052"/>
@@ -6190,7 +7067,7 @@
     <n v="4.2241921949646102"/>
     <n v="457.892799999999"/>
     <n v="17.843799699999899"/>
-    <x v="121"/>
+    <x v="168"/>
     <x v="0"/>
     <x v="1"/>
     <x v="1"/>
@@ -6199,7 +7076,7 @@
   </r>
   <r>
     <x v="3"/>
-    <x v="4"/>
+    <x v="6"/>
     <x v="24"/>
     <n v="2.8519575617873598"/>
     <n v="1.17800126797588"/>
@@ -6207,7 +7084,7 @@
     <n v="2.2972517929038498"/>
     <n v="242.10140000000001"/>
     <n v="5.2773657999999903"/>
-    <x v="122"/>
+    <x v="169"/>
     <x v="0"/>
     <x v="1"/>
     <x v="1"/>
@@ -6216,7 +7093,7 @@
   </r>
   <r>
     <x v="3"/>
-    <x v="4"/>
+    <x v="6"/>
     <x v="25"/>
     <n v="4.2604601525662603E-2"/>
     <n v="4.06101899736246"/>
@@ -6224,7 +7101,7 @@
     <n v="5.5426628177358099E-2"/>
     <n v="1.04911111111111"/>
     <n v="3.0721111111111101E-3"/>
-    <x v="123"/>
+    <x v="170"/>
     <x v="0"/>
     <x v="1"/>
     <x v="1"/>
@@ -6233,7 +7110,7 @@
   </r>
   <r>
     <x v="3"/>
-    <x v="4"/>
+    <x v="6"/>
     <x v="26"/>
     <n v="67.709751965615794"/>
     <n v="0.747618289475945"/>
@@ -6241,7 +7118,7 @@
     <n v="54.540204659498201"/>
     <n v="9056.7276000000002"/>
     <n v="2974.6339242999502"/>
-    <x v="124"/>
+    <x v="171"/>
     <x v="0"/>
     <x v="1"/>
     <x v="1"/>
@@ -6252,7 +7129,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable2" cacheId="10" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable2" cacheId="22" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
   <location ref="A8:E41" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="6" colPageCount="1"/>
   <pivotFields count="16">
     <pivotField axis="axisCol" showAll="0" sortType="descending">
@@ -6265,17 +7142,19 @@
       </items>
     </pivotField>
     <pivotField axis="axisPage" multipleItemSelectionAllowed="1" showAll="0">
-      <items count="6">
-        <item x="2"/>
+      <items count="8">
+        <item h="1" x="2"/>
         <item x="0"/>
+        <item x="5"/>
+        <item h="1" x="6"/>
+        <item h="1" x="1"/>
         <item x="3"/>
         <item h="1" x="4"/>
-        <item h="1" x="1"/>
         <item t="default"/>
       </items>
     </pivotField>
     <pivotField axis="axisRow" showAll="0">
-      <items count="35">
+      <items count="43">
         <item x="25"/>
         <item h="1" x="26"/>
         <item x="24"/>
@@ -6285,7 +7164,7 @@
         <item x="30"/>
         <item x="31"/>
         <item x="28"/>
-        <item m="1" x="33"/>
+        <item m="1" x="41"/>
         <item x="4"/>
         <item x="0"/>
         <item x="2"/>
@@ -6310,6 +7189,14 @@
         <item x="17"/>
         <item x="13"/>
         <item x="15"/>
+        <item h="1" x="33"/>
+        <item h="1" x="34"/>
+        <item h="1" x="35"/>
+        <item h="1" x="36"/>
+        <item h="1" x="37"/>
+        <item h="1" x="38"/>
+        <item h="1" x="39"/>
+        <item h="1" x="40"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -6320,7 +7207,7 @@
     <pivotField dataField="1" showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField axis="axisPage" numFmtId="14" showAll="0" defaultSubtotal="0">
-      <items count="165">
+      <items count="227">
         <item x="54"/>
         <item x="55"/>
         <item x="56"/>
@@ -6369,6 +7256,123 @@
         <item x="24"/>
         <item x="25"/>
         <item x="26"/>
+        <item x="108"/>
+        <item x="109"/>
+        <item x="110"/>
+        <item x="111"/>
+        <item x="112"/>
+        <item x="113"/>
+        <item x="114"/>
+        <item x="115"/>
+        <item x="116"/>
+        <item x="117"/>
+        <item x="118"/>
+        <item x="119"/>
+        <item x="120"/>
+        <item x="121"/>
+        <item x="122"/>
+        <item x="123"/>
+        <item x="124"/>
+        <item x="125"/>
+        <item x="126"/>
+        <item x="127"/>
+        <item x="128"/>
+        <item m="1" x="208"/>
+        <item m="1" x="219"/>
+        <item m="1" x="201"/>
+        <item m="1" x="218"/>
+        <item m="1" x="178"/>
+        <item m="1" x="177"/>
+        <item m="1" x="183"/>
+        <item m="1" x="175"/>
+        <item m="1" x="188"/>
+        <item m="1" x="220"/>
+        <item m="1" x="186"/>
+        <item m="1" x="212"/>
+        <item m="1" x="214"/>
+        <item m="1" x="210"/>
+        <item m="1" x="224"/>
+        <item m="1" x="197"/>
+        <item m="1" x="185"/>
+        <item m="1" x="216"/>
+        <item m="1" x="200"/>
+        <item m="1" x="222"/>
+        <item m="1" x="190"/>
+        <item m="1" x="205"/>
+        <item m="1" x="192"/>
+        <item m="1" x="194"/>
+        <item m="1" x="182"/>
+        <item m="1" x="176"/>
+        <item m="1" x="196"/>
+        <item m="1" x="181"/>
+        <item m="1" x="213"/>
+        <item m="1" x="198"/>
+        <item m="1" x="217"/>
+        <item m="1" x="187"/>
+        <item m="1" x="203"/>
+        <item m="1" x="223"/>
+        <item m="1" x="206"/>
+        <item m="1" x="172"/>
+        <item m="1" x="195"/>
+        <item m="1" x="204"/>
+        <item m="1" x="225"/>
+        <item m="1" x="207"/>
+        <item m="1" x="209"/>
+        <item m="1" x="211"/>
+        <item m="1" x="215"/>
+        <item m="1" x="173"/>
+        <item m="1" x="179"/>
+        <item m="1" x="184"/>
+        <item m="1" x="199"/>
+        <item m="1" x="202"/>
+        <item m="1" x="191"/>
+        <item m="1" x="226"/>
+        <item m="1" x="193"/>
+        <item m="1" x="174"/>
+        <item m="1" x="180"/>
+        <item m="1" x="221"/>
+        <item m="1" x="189"/>
+        <item x="27"/>
+        <item x="28"/>
+        <item x="29"/>
+        <item x="30"/>
+        <item x="31"/>
+        <item x="32"/>
+        <item x="33"/>
+        <item x="34"/>
+        <item x="35"/>
+        <item x="36"/>
+        <item x="37"/>
+        <item x="38"/>
+        <item x="39"/>
+        <item x="40"/>
+        <item x="41"/>
+        <item x="42"/>
+        <item x="43"/>
+        <item x="44"/>
+        <item x="45"/>
+        <item x="46"/>
+        <item x="47"/>
+        <item x="48"/>
+        <item x="49"/>
+        <item x="50"/>
+        <item x="51"/>
+        <item x="52"/>
+        <item x="157"/>
+        <item x="158"/>
+        <item x="159"/>
+        <item x="160"/>
+        <item x="161"/>
+        <item x="162"/>
+        <item x="163"/>
+        <item x="164"/>
+        <item x="165"/>
+        <item x="166"/>
+        <item x="167"/>
+        <item x="168"/>
+        <item x="169"/>
+        <item x="170"/>
+        <item x="171"/>
         <item x="74"/>
         <item x="75"/>
         <item x="76"/>
@@ -6403,89 +7407,34 @@
         <item x="105"/>
         <item x="106"/>
         <item x="107"/>
-        <item x="108"/>
-        <item x="109"/>
-        <item m="1" x="144"/>
-        <item m="1" x="134"/>
-        <item m="1" x="158"/>
-        <item m="1" x="147"/>
-        <item m="1" x="161"/>
-        <item m="1" x="137"/>
-        <item m="1" x="151"/>
-        <item m="1" x="139"/>
-        <item m="1" x="141"/>
-        <item m="1" x="132"/>
-        <item m="1" x="128"/>
-        <item m="1" x="143"/>
-        <item m="1" x="131"/>
-        <item m="1" x="156"/>
-        <item m="1" x="145"/>
-        <item m="1" x="159"/>
-        <item m="1" x="135"/>
-        <item m="1" x="149"/>
-        <item m="1" x="162"/>
-        <item m="1" x="152"/>
-        <item m="1" x="125"/>
-        <item m="1" x="142"/>
-        <item m="1" x="150"/>
-        <item m="1" x="163"/>
-        <item m="1" x="153"/>
-        <item m="1" x="154"/>
-        <item m="1" x="155"/>
-        <item m="1" x="157"/>
-        <item m="1" x="126"/>
-        <item m="1" x="129"/>
-        <item m="1" x="133"/>
-        <item m="1" x="146"/>
-        <item m="1" x="148"/>
-        <item m="1" x="138"/>
-        <item m="1" x="164"/>
-        <item m="1" x="140"/>
-        <item m="1" x="127"/>
-        <item m="1" x="130"/>
-        <item m="1" x="160"/>
-        <item m="1" x="136"/>
-        <item x="27"/>
-        <item x="28"/>
-        <item x="29"/>
-        <item x="30"/>
-        <item x="31"/>
-        <item x="32"/>
-        <item x="33"/>
-        <item x="34"/>
-        <item x="35"/>
-        <item x="36"/>
-        <item x="37"/>
-        <item x="38"/>
-        <item x="39"/>
-        <item x="40"/>
-        <item x="41"/>
-        <item x="42"/>
-        <item x="43"/>
-        <item x="44"/>
-        <item x="45"/>
-        <item x="46"/>
-        <item x="47"/>
-        <item x="48"/>
-        <item x="49"/>
-        <item x="50"/>
-        <item x="51"/>
-        <item x="52"/>
-        <item x="110"/>
-        <item x="111"/>
-        <item x="112"/>
-        <item x="113"/>
-        <item x="114"/>
-        <item x="115"/>
-        <item x="116"/>
-        <item x="117"/>
-        <item x="118"/>
-        <item x="119"/>
-        <item x="120"/>
-        <item x="121"/>
-        <item x="122"/>
-        <item x="123"/>
-        <item x="124"/>
+        <item x="129"/>
+        <item x="130"/>
+        <item x="131"/>
+        <item x="132"/>
+        <item x="133"/>
+        <item x="134"/>
+        <item x="135"/>
+        <item x="136"/>
+        <item x="137"/>
+        <item x="138"/>
+        <item x="139"/>
+        <item x="140"/>
+        <item x="141"/>
+        <item x="142"/>
+        <item x="143"/>
+        <item x="144"/>
+        <item x="145"/>
+        <item x="146"/>
+        <item x="147"/>
+        <item x="148"/>
+        <item x="149"/>
+        <item x="150"/>
+        <item x="151"/>
+        <item x="152"/>
+        <item x="153"/>
+        <item x="154"/>
+        <item x="155"/>
+        <item x="156"/>
       </items>
     </pivotField>
     <pivotField axis="axisPage" showAll="0">
@@ -6495,23 +7444,26 @@
       </items>
     </pivotField>
     <pivotField axis="axisPage" showAll="0">
-      <items count="3">
+      <items count="4">
         <item x="0"/>
         <item x="1"/>
+        <item x="2"/>
         <item t="default"/>
       </items>
     </pivotField>
     <pivotField axis="axisPage" showAll="0">
-      <items count="3">
+      <items count="4">
         <item x="0"/>
         <item x="1"/>
+        <item x="2"/>
         <item t="default"/>
       </items>
     </pivotField>
     <pivotField axis="axisPage" numFmtId="14" showAll="0">
-      <items count="3">
+      <items count="4">
         <item x="0"/>
         <item x="1"/>
+        <item x="2"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -6975,7 +7927,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B89" sqref="B89"/>
     </sheetView>
   </sheetViews>
@@ -7241,13 +8193,13 @@
         <v>0.244714285714285</v>
       </c>
       <c r="C10" s="4">
-        <v>0.142405405405405</v>
+        <v>0.13623076923076899</v>
       </c>
       <c r="D10" s="4">
-        <v>0.106361702127659</v>
+        <v>0.10466666666666601</v>
       </c>
       <c r="E10" s="4">
-        <v>0.110565217391304</v>
+        <v>0.107191489361702</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
@@ -7258,13 +8210,13 @@
         <v>74.738799999999998</v>
       </c>
       <c r="C11" s="4">
-        <v>21.560600000000001</v>
+        <v>21.079799999999999</v>
       </c>
       <c r="D11" s="4">
-        <v>34.726799999999997</v>
+        <v>33.035800000000002</v>
       </c>
       <c r="E11" s="4">
-        <v>21.718</v>
+        <v>21.7392</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
@@ -7274,10 +8226,10 @@
       <c r="B12" s="4"/>
       <c r="C12" s="4"/>
       <c r="D12" s="4">
-        <v>33.719799999999999</v>
+        <v>40.329799999999999</v>
       </c>
       <c r="E12" s="4">
-        <v>21.8034</v>
+        <v>21.829000000000001</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
@@ -7287,10 +8239,10 @@
       <c r="B13" s="4"/>
       <c r="C13" s="4"/>
       <c r="D13" s="4">
-        <v>32.996400000000001</v>
+        <v>39.636399999999902</v>
       </c>
       <c r="E13" s="4">
-        <v>21.624400000000001</v>
+        <v>26.843799999999899</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
@@ -7300,10 +8252,10 @@
       <c r="B14" s="4"/>
       <c r="C14" s="4"/>
       <c r="D14" s="4">
-        <v>32.907999999999902</v>
+        <v>38.900599999999997</v>
       </c>
       <c r="E14" s="4">
-        <v>21.064599999999999</v>
+        <v>26.418199999999999</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
@@ -7313,10 +8265,10 @@
       <c r="B15" s="4"/>
       <c r="C15" s="4"/>
       <c r="D15" s="4">
-        <v>32.641199999999998</v>
+        <v>38.983599999999903</v>
       </c>
       <c r="E15" s="4">
-        <v>21.562000000000001</v>
+        <v>26.859199999999898</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
@@ -7326,10 +8278,10 @@
       <c r="B16" s="4"/>
       <c r="C16" s="4"/>
       <c r="D16" s="4">
-        <v>33.016399999999997</v>
+        <v>39.521599999999999</v>
       </c>
       <c r="E16" s="4">
-        <v>21.1264</v>
+        <v>26.603400000000001</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
@@ -7339,10 +8291,10 @@
       <c r="B17" s="4"/>
       <c r="C17" s="4"/>
       <c r="D17" s="4">
-        <v>32.694800000000001</v>
+        <v>39.114999999999903</v>
       </c>
       <c r="E17" s="4">
-        <v>20.966799999999999</v>
+        <v>26.9344</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
@@ -7354,9 +8306,7 @@
       </c>
       <c r="C18" s="4"/>
       <c r="D18" s="4"/>
-      <c r="E18" s="4">
-        <v>1.95342857142857</v>
-      </c>
+      <c r="E18" s="4"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="s">
@@ -7368,7 +8318,7 @@
       <c r="C19" s="4"/>
       <c r="D19" s="4"/>
       <c r="E19" s="4">
-        <v>2.82176470588235E-2</v>
+        <v>1.6340880102040801E-2</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
@@ -7381,7 +8331,7 @@
       <c r="C20" s="4"/>
       <c r="D20" s="4"/>
       <c r="E20" s="4">
-        <v>0.13546153846153799</v>
+        <v>0.158617647058823</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
@@ -7393,9 +8343,7 @@
       </c>
       <c r="C21" s="4"/>
       <c r="D21" s="4"/>
-      <c r="E21" s="4">
-        <v>18.581600000000002</v>
-      </c>
+      <c r="E21" s="4"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="s">
@@ -7407,7 +8355,7 @@
       <c r="C22" s="4"/>
       <c r="D22" s="4"/>
       <c r="E22" s="4">
-        <v>0.15568571428571401</v>
+        <v>9.2132075471698105E-2</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
@@ -7420,7 +8368,7 @@
       <c r="C23" s="4"/>
       <c r="D23" s="4"/>
       <c r="E23" s="4">
-        <v>1.5627500000000001</v>
+        <v>1.15211111111111</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
@@ -7432,9 +8380,7 @@
       </c>
       <c r="C24" s="4"/>
       <c r="D24" s="4"/>
-      <c r="E24" s="4">
-        <v>4.4424999999999999</v>
-      </c>
+      <c r="E24" s="4"/>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="6" t="s">
@@ -7446,7 +8392,7 @@
       <c r="C25" s="4"/>
       <c r="D25" s="4"/>
       <c r="E25" s="4">
-        <v>4.5663636363636302E-2</v>
+        <v>1.8616025641025599E-2</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
@@ -7459,7 +8405,7 @@
       <c r="C26" s="4"/>
       <c r="D26" s="4"/>
       <c r="E26" s="4">
-        <v>0.374764705882352</v>
+        <v>0.26604347826086899</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
@@ -7471,9 +8417,7 @@
       </c>
       <c r="C27" s="4"/>
       <c r="D27" s="4"/>
-      <c r="E27" s="4">
-        <v>7.8733999999999904</v>
-      </c>
+      <c r="E27" s="4"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="6" t="s">
@@ -7485,7 +8429,7 @@
       <c r="C28" s="4"/>
       <c r="D28" s="4"/>
       <c r="E28" s="4">
-        <v>5.8011111111111097E-2</v>
+        <v>4.24922480620155E-2</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
@@ -7498,7 +8442,7 @@
       <c r="C29" s="4"/>
       <c r="D29" s="4"/>
       <c r="E29" s="4">
-        <v>0.67149999999999999</v>
+        <v>0.56007692307692303</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
@@ -7508,12 +8452,8 @@
       <c r="B30" s="4">
         <v>4.6452</v>
       </c>
-      <c r="C30" s="4">
-        <v>5.7164000000000001</v>
-      </c>
-      <c r="D30" s="4">
-        <v>5.6563999999999997</v>
-      </c>
+      <c r="C30" s="4"/>
+      <c r="D30" s="4"/>
       <c r="E30" s="4"/>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
@@ -7524,10 +8464,10 @@
         <v>4.8000000000000001E-2</v>
       </c>
       <c r="C31" s="4">
-        <v>0.13819999999999999</v>
+        <v>8.5152777777777702E-2</v>
       </c>
       <c r="D31" s="4">
-        <v>6.5460784313725498E-2</v>
+        <v>4.44363636363636E-2</v>
       </c>
       <c r="E31" s="4"/>
     </row>
@@ -7539,10 +8479,10 @@
         <v>0.48230000000000001</v>
       </c>
       <c r="C32" s="4">
-        <v>0.98379999999999901</v>
+        <v>0.61866666666666603</v>
       </c>
       <c r="D32" s="4">
-        <v>0.46046666666666602</v>
+        <v>0.48057142857142798</v>
       </c>
       <c r="E32" s="4"/>
     </row>
@@ -7553,12 +8493,8 @@
       <c r="B33" s="4">
         <v>23.865200000000002</v>
       </c>
-      <c r="C33" s="4">
-        <v>77.349000000000004</v>
-      </c>
-      <c r="D33" s="4">
-        <v>33.5306</v>
-      </c>
+      <c r="C33" s="4"/>
+      <c r="D33" s="4"/>
       <c r="E33" s="4"/>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
@@ -7569,10 +8505,10 @@
         <v>0.17983333333333301</v>
       </c>
       <c r="C34" s="4">
-        <v>0.80545454545454498</v>
+        <v>0.89200000000000002</v>
       </c>
       <c r="D34" s="4">
-        <v>0.253347826086956</v>
+        <v>0.23155999999999999</v>
       </c>
       <c r="E34" s="4"/>
     </row>
@@ -7584,10 +8520,10 @@
         <v>2.47019999999999</v>
       </c>
       <c r="C35" s="4">
-        <v>7.4543999999999997</v>
+        <v>7.2866</v>
       </c>
       <c r="D35" s="4">
-        <v>2.6501666666666601</v>
+        <v>2.44571428571428</v>
       </c>
       <c r="E35" s="4"/>
     </row>
@@ -7598,12 +8534,8 @@
       <c r="B36" s="4">
         <v>7.9885999999999999</v>
       </c>
-      <c r="C36" s="4">
-        <v>20.150200000000002</v>
-      </c>
-      <c r="D36" s="4">
-        <v>6.2271999999999998</v>
-      </c>
+      <c r="C36" s="4"/>
+      <c r="D36" s="4"/>
       <c r="E36" s="4"/>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
@@ -7614,10 +8546,10 @@
         <v>7.0074074074073997E-2</v>
       </c>
       <c r="C37" s="4">
-        <v>0.27168181818181802</v>
+        <v>0.25441666666666601</v>
       </c>
       <c r="D37" s="4">
-        <v>6.9538461538461493E-2</v>
+        <v>5.8806818181818203E-2</v>
       </c>
       <c r="E37" s="4"/>
     </row>
@@ -7629,10 +8561,10 @@
         <v>0.73599999999999999</v>
       </c>
       <c r="C38" s="4">
-        <v>1.262</v>
+        <v>1.244875</v>
       </c>
       <c r="D38" s="4">
-        <v>0.62315384615384595</v>
+        <v>0.60653846153846103</v>
       </c>
       <c r="E38" s="4"/>
     </row>
@@ -7643,12 +8575,8 @@
       <c r="B39" s="4">
         <v>14.410599999999899</v>
       </c>
-      <c r="C39" s="4">
-        <v>35.671599999999998</v>
-      </c>
-      <c r="D39" s="4">
-        <v>13.275</v>
-      </c>
+      <c r="C39" s="4"/>
+      <c r="D39" s="4"/>
       <c r="E39" s="4"/>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
@@ -7659,10 +8587,10 @@
         <v>0.10224999999999999</v>
       </c>
       <c r="C40" s="4">
-        <v>0.41831249999999998</v>
+        <v>0.46666666666666601</v>
       </c>
       <c r="D40" s="4">
-        <v>0.123767441860465</v>
+        <v>0.118837209302325</v>
       </c>
       <c r="E40" s="4"/>
     </row>
@@ -7674,10 +8602,10 @@
         <v>1.02514285714285</v>
       </c>
       <c r="C41" s="4">
-        <v>4.0639999999999903</v>
+        <v>3.5455000000000001</v>
       </c>
       <c r="D41" s="4">
-        <v>1.1404444444444399</v>
+        <v>1.1567777777777699</v>
       </c>
       <c r="E41" s="4"/>
     </row>
@@ -7690,7 +8618,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O127"/>
+  <dimension ref="A1:O174"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C41" sqref="C41"/>
@@ -7699,7 +8627,7 @@
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="15.83203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="47.83203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.6640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="20.5" bestFit="1" customWidth="1"/>
@@ -11234,34 +12162,34 @@
     </row>
     <row r="77" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A77" s="1" t="s">
-        <v>40</v>
+        <v>15</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>16</v>
+        <v>67</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>41</v>
+        <v>17</v>
       </c>
       <c r="D77">
-        <v>3.4239079863816399E-2</v>
+        <v>1.08575790346143E-2</v>
       </c>
       <c r="E77">
-        <v>52.304719875831502</v>
+        <v>66.444273299933002</v>
       </c>
       <c r="F77">
-        <v>1.74689182978655E-2</v>
+        <v>5.5395811401093703E-3</v>
       </c>
       <c r="G77">
-        <v>0.124753029748269</v>
+        <v>4.1454429385047703E-2</v>
       </c>
       <c r="H77">
-        <v>6.5460784313725498E-2</v>
+        <v>1.6340880102040801E-2</v>
       </c>
       <c r="I77">
-        <v>1.55633184313725E-2</v>
+        <v>1.7184697156399E-3</v>
       </c>
       <c r="J77" s="2">
-        <v>42671.698819444442</v>
+        <v>42674.887754629628</v>
       </c>
       <c r="K77" t="s">
         <v>18</v>
@@ -11281,34 +12209,34 @@
     </row>
     <row r="78" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="s">
-        <v>40</v>
+        <v>15</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>16</v>
+        <v>67</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>42</v>
+        <v>23</v>
       </c>
       <c r="D78">
-        <v>1.9612237185710601E-2</v>
+        <v>3.69443479053784E-3</v>
       </c>
       <c r="E78">
-        <v>4.2592088864291204</v>
+        <v>19.8454539211426</v>
       </c>
       <c r="F78">
-        <v>9.1432341192124195E-3</v>
+        <v>1.88491570945808E-3</v>
       </c>
       <c r="G78">
-        <v>3.5411593474185099E-2</v>
+        <v>1.3592320480757401E-2</v>
       </c>
       <c r="H78">
-        <v>0.46046666666666602</v>
+        <v>1.8616025641025599E-2</v>
       </c>
       <c r="I78">
-        <v>1.25398095238095E-3</v>
+        <v>1.84751176051617E-4</v>
       </c>
       <c r="J78" s="2">
-        <v>42671.698900462965</v>
+        <v>42674.887974537036</v>
       </c>
       <c r="K78" t="s">
         <v>18</v>
@@ -11328,34 +12256,34 @@
     </row>
     <row r="79" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A79" s="1" t="s">
-        <v>40</v>
+        <v>15</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>16</v>
+        <v>67</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>43</v>
+        <v>26</v>
       </c>
       <c r="D79">
-        <v>0.17215139678132099</v>
+        <v>5.7607879116609697E-3</v>
       </c>
       <c r="E79">
-        <v>3.0434798950095701</v>
+        <v>13.557267912145599</v>
       </c>
       <c r="F79">
-        <v>6.2014191924107197E-2</v>
+        <v>2.9391775059494701E-3</v>
       </c>
       <c r="G79">
-        <v>0.13866794871202201</v>
+        <v>1.9273475807274901E-2</v>
       </c>
       <c r="H79">
-        <v>5.6563999999999997</v>
+        <v>4.24922480620155E-2</v>
       </c>
       <c r="I79">
-        <v>1.9228800000000001E-2</v>
+        <v>3.7146686969361301E-4</v>
       </c>
       <c r="J79" s="2">
-        <v>42671.698981481481</v>
+        <v>42674.888182870367</v>
       </c>
       <c r="K79" t="s">
         <v>18</v>
@@ -11375,34 +12303,34 @@
     </row>
     <row r="80" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A80" s="1" t="s">
-        <v>40</v>
+        <v>15</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>16</v>
+        <v>67</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="D80">
-        <v>3.9973305168936497E-3</v>
+        <v>4.3938227655365798E-3</v>
       </c>
       <c r="E80">
-        <v>5.7483735309311399</v>
+        <v>4.7690478511865404</v>
       </c>
       <c r="F80">
-        <v>2.0394543453539E-3</v>
+        <v>2.24174630894723E-3</v>
       </c>
       <c r="G80">
-        <v>1.273638830456E-2</v>
+        <v>1.6320159473024801E-2</v>
       </c>
       <c r="H80">
-        <v>6.9538461538461493E-2</v>
+        <v>9.2132075471698105E-2</v>
       </c>
       <c r="I80">
-        <v>1.62215587044534E-4</v>
+        <v>2.6634760522496298E-4</v>
       </c>
       <c r="J80" s="2">
-        <v>42671.699305555558</v>
+        <v>42674.888402777775</v>
       </c>
       <c r="K80" t="s">
         <v>18</v>
@@ -11422,34 +12350,34 @@
     </row>
     <row r="81" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A81" s="1" t="s">
-        <v>40</v>
+        <v>15</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>16</v>
+        <v>67</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>45</v>
+        <v>21</v>
       </c>
       <c r="D81">
-        <v>3.2323414799641202E-2</v>
+        <v>2.07046030434477E-3</v>
       </c>
       <c r="E81">
-        <v>5.1870681693042302</v>
+        <v>1.30531522988545</v>
       </c>
       <c r="F81">
-        <v>1.4834059109518599E-2</v>
+        <v>1.0563572981350899E-3</v>
       </c>
       <c r="G81">
-        <v>5.34849607426333E-2</v>
+        <v>6.1595685891944699E-3</v>
       </c>
       <c r="H81">
-        <v>0.62315384615384595</v>
+        <v>0.158617647058823</v>
       </c>
       <c r="I81">
-        <v>2.8606410256410198E-3</v>
+        <v>3.79402852049911E-5</v>
       </c>
       <c r="J81" s="2">
-        <v>42671.699374999997</v>
+        <v>42674.888657407406</v>
       </c>
       <c r="K81" t="s">
         <v>18</v>
@@ -11469,34 +12397,34 @@
     </row>
     <row r="82" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A82" s="1" t="s">
-        <v>40</v>
+        <v>15</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>16</v>
+        <v>67</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="D82">
-        <v>0.72662795588212803</v>
+        <v>5.1060763366735304E-3</v>
       </c>
       <c r="E82">
-        <v>11.6686143994432</v>
+        <v>1.91926386245287</v>
       </c>
       <c r="F82">
-        <v>0.26175358641287</v>
+        <v>2.4619461604018901E-3</v>
       </c>
       <c r="G82">
-        <v>0.58529881257354299</v>
+        <v>1.18070790047541E-2</v>
       </c>
       <c r="H82">
-        <v>6.2271999999999998</v>
+        <v>0.26604347826086899</v>
       </c>
       <c r="I82">
-        <v>0.34257470000000001</v>
+        <v>1.3940711462450599E-4</v>
       </c>
       <c r="J82" s="2">
-        <v>42671.699479166666</v>
+        <v>42674.888888888891</v>
       </c>
       <c r="K82" t="s">
         <v>18</v>
@@ -11516,34 +12444,34 @@
     </row>
     <row r="83" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A83" s="1" t="s">
-        <v>40</v>
+        <v>15</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>16</v>
+        <v>67</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>47</v>
+        <v>27</v>
       </c>
       <c r="D83">
-        <v>5.0107854685026596E-3</v>
+        <v>1.9127747938510901E-2</v>
       </c>
       <c r="E83">
-        <v>4.0485489505000798</v>
+        <v>3.4152001538338399</v>
       </c>
       <c r="F83">
-        <v>2.5565231982156399E-3</v>
+        <v>8.77822300987194E-3</v>
       </c>
       <c r="G83">
-        <v>1.6764243708251001E-2</v>
+        <v>3.1650333169551098E-2</v>
       </c>
       <c r="H83">
-        <v>0.123767441860465</v>
+        <v>0.56007692307692303</v>
       </c>
       <c r="I83">
-        <v>2.81039867109634E-4</v>
+        <v>1.00174358974358E-3</v>
       </c>
       <c r="J83" s="2">
-        <v>42671.699837962966</v>
+        <v>42674.889178240737</v>
       </c>
       <c r="K83" t="s">
         <v>18</v>
@@ -11563,34 +12491,34 @@
     </row>
     <row r="84" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A84" s="1" t="s">
-        <v>40</v>
+        <v>15</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>16</v>
+        <v>67</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>48</v>
+        <v>30</v>
       </c>
       <c r="D84">
-        <v>2.3903281327771E-2</v>
+        <v>8.5997487851838694E-2</v>
       </c>
       <c r="E84">
-        <v>2.0959619246876402</v>
+        <v>7.4643397691826401</v>
       </c>
       <c r="F84">
-        <v>1.03656900814271E-2</v>
+        <v>3.7292926215021102E-2</v>
       </c>
       <c r="G84">
-        <v>3.1097070244281402E-2</v>
+        <v>0.111878778645063</v>
       </c>
       <c r="H84">
-        <v>1.1404444444444399</v>
+        <v>1.15211111111111</v>
       </c>
       <c r="I84">
-        <v>9.6702777777777705E-4</v>
+        <v>1.25168611111111E-2</v>
       </c>
       <c r="J84" s="2">
-        <v>42671.699907407405</v>
+        <v>42674.88962962963</v>
       </c>
       <c r="K84" t="s">
         <v>18</v>
@@ -11610,34 +12538,34 @@
     </row>
     <row r="85" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A85" s="1" t="s">
-        <v>40</v>
+        <v>15</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>16</v>
+        <v>67</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="D85">
-        <v>0.70733711103885999</v>
+        <v>0.33380681464200102</v>
       </c>
       <c r="E85">
-        <v>5.3283398195017702</v>
+        <v>1.5355064337326101</v>
       </c>
       <c r="F85">
-        <v>0.254804434812269</v>
+        <v>0.120247411614553</v>
       </c>
       <c r="G85">
-        <v>0.56976003720864798</v>
+        <v>0.26888138648853899</v>
       </c>
       <c r="H85">
-        <v>13.275</v>
+        <v>21.7392</v>
       </c>
       <c r="I85">
-        <v>0.32462649999999998</v>
+        <v>7.2297199999999506E-2</v>
       </c>
       <c r="J85" s="2">
-        <v>42671.70003472222</v>
+        <v>42674.890381944446</v>
       </c>
       <c r="K85" t="s">
         <v>18</v>
@@ -11657,34 +12585,34 @@
     </row>
     <row r="86" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A86" s="1" t="s">
-        <v>40</v>
+        <v>15</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>16</v>
+        <v>67</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>50</v>
+        <v>32</v>
       </c>
       <c r="D86">
-        <v>3.4067039938532502E-3</v>
+        <v>9.8256283731882596E-2</v>
       </c>
       <c r="E86">
-        <v>1.34467465005362</v>
+        <v>0.45011811687151299</v>
       </c>
       <c r="F86">
-        <v>1.6425766604885499E-3</v>
+        <v>3.5394914889006701E-2</v>
       </c>
       <c r="G86">
-        <v>7.8775209278287208E-3</v>
+        <v>7.9145435749638393E-2</v>
       </c>
       <c r="H86">
-        <v>0.253347826086956</v>
+        <v>21.829000000000001</v>
       </c>
       <c r="I86">
-        <v>6.2055335968379502E-5</v>
+        <v>6.2640000000001401E-3</v>
       </c>
       <c r="J86" s="2">
-        <v>42671.700798611113</v>
+        <v>42674.893553240741</v>
       </c>
       <c r="K86" t="s">
         <v>18</v>
@@ -11704,34 +12632,34 @@
     </row>
     <row r="87" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A87" s="1" t="s">
-        <v>40</v>
+        <v>15</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>16</v>
+        <v>67</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>51</v>
+        <v>33</v>
       </c>
       <c r="D87">
-        <v>1.43057405907557E-2</v>
+        <v>1.08613021228476</v>
       </c>
       <c r="E87">
-        <v>0.53980531755571703</v>
+        <v>4.0325019762265697</v>
       </c>
       <c r="F87">
-        <v>5.5642709415619496E-3</v>
+        <v>0.39125728108240898</v>
       </c>
       <c r="G87">
-        <v>1.36296245974224E-2</v>
+        <v>0.87487787719201004</v>
       </c>
       <c r="H87">
-        <v>2.6501666666666601</v>
+        <v>26.9344</v>
       </c>
       <c r="I87">
-        <v>1.8576666666666401E-4</v>
+        <v>0.76541129999999902</v>
       </c>
       <c r="J87" s="2">
-        <v>42671.700868055559</v>
+        <v>42674.897152777776</v>
       </c>
       <c r="K87" t="s">
         <v>18</v>
@@ -11751,34 +12679,34 @@
     </row>
     <row r="88" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A88" s="1" t="s">
-        <v>40</v>
+        <v>15</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>16</v>
+        <v>67</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>52</v>
+        <v>34</v>
       </c>
       <c r="D88">
-        <v>8.2839016245003396</v>
+        <v>0.19684247807584601</v>
       </c>
       <c r="E88">
-        <v>24.705497737888098</v>
+        <v>0.74510177860658999</v>
       </c>
       <c r="F88">
-        <v>2.9841144180476702</v>
+        <v>7.0908673658446095E-2</v>
       </c>
       <c r="G88">
-        <v>6.6726826913918202</v>
+        <v>0.15855661449463401</v>
       </c>
       <c r="H88">
-        <v>33.5306</v>
+        <v>26.418199999999999</v>
       </c>
       <c r="I88">
-        <v>44.5246943</v>
+        <v>2.5140200000000001E-2</v>
       </c>
       <c r="J88" s="2">
-        <v>42671.701053240744</v>
+        <v>42674.900972222225</v>
       </c>
       <c r="K88" t="s">
         <v>18</v>
@@ -11798,34 +12726,34 @@
     </row>
     <row r="89" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A89" s="1" t="s">
-        <v>40</v>
+        <v>15</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>16</v>
+        <v>67</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>55</v>
+        <v>35</v>
       </c>
       <c r="D89">
-        <v>3.4287472020373602</v>
+        <v>0.28880327831491098</v>
       </c>
       <c r="E89">
-        <v>9.8734902209168798</v>
+        <v>1.0752489959303</v>
       </c>
       <c r="F89">
-        <v>1.2351394820019299</v>
+        <v>0.10403576308173999</v>
       </c>
       <c r="G89">
-        <v>2.7618558434501899</v>
+        <v>0.23263103834183399</v>
       </c>
       <c r="H89">
-        <v>34.726799999999997</v>
+        <v>26.859199999999898</v>
       </c>
       <c r="I89">
-        <v>7.6278477000000002</v>
+        <v>5.4117199999999997E-2</v>
       </c>
       <c r="J89" s="2">
-        <v>42671.702997685185</v>
+        <v>42674.904756944445</v>
       </c>
       <c r="K89" t="s">
         <v>18</v>
@@ -11845,34 +12773,34 @@
     </row>
     <row r="90" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A90" s="1" t="s">
-        <v>40</v>
+        <v>15</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>16</v>
+        <v>67</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="D90">
-        <v>0.21372207478835401</v>
+        <v>0.31733286409220302</v>
       </c>
       <c r="E90">
-        <v>0.633817741470456</v>
+        <v>1.19282822531031</v>
       </c>
       <c r="F90">
-        <v>7.6989220024623495E-2</v>
+        <v>0.114312991387681</v>
       </c>
       <c r="G90">
-        <v>0.17215312950974601</v>
+        <v>0.25561161945420302</v>
       </c>
       <c r="H90">
-        <v>33.719799999999999</v>
+        <v>26.603400000000001</v>
       </c>
       <c r="I90">
-        <v>2.9636699999999402E-2</v>
+        <v>6.5337300000000403E-2</v>
       </c>
       <c r="J90" s="2">
-        <v>42671.705011574071</v>
+        <v>42674.908576388887</v>
       </c>
       <c r="K90" t="s">
         <v>18</v>
@@ -11892,34 +12820,34 @@
     </row>
     <row r="91" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A91" s="1" t="s">
-        <v>40</v>
+        <v>15</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>16</v>
+        <v>67</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="D91">
-        <v>0.28581397260288</v>
+        <v>0.18056039552637099</v>
       </c>
       <c r="E91">
-        <v>0.87418786046368402</v>
+        <v>0.67263351509984304</v>
       </c>
       <c r="F91">
-        <v>0.10295892384829999</v>
+        <v>6.5043370146387502E-2</v>
       </c>
       <c r="G91">
-        <v>0.23022315261502299</v>
+        <v>0.145441397133002</v>
       </c>
       <c r="H91">
-        <v>32.694800000000001</v>
+        <v>26.843799999999899</v>
       </c>
       <c r="I91">
-        <v>5.3002700000000201E-2</v>
+        <v>2.1153199999999799E-2</v>
       </c>
       <c r="J91" s="2">
-        <v>42671.706956018519</v>
+        <v>42674.912407407406</v>
       </c>
       <c r="K91" t="s">
         <v>18</v>
@@ -11939,34 +12867,34 @@
     </row>
     <row r="92" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A92" s="1" t="s">
-        <v>40</v>
+        <v>15</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>16</v>
+        <v>67</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="D92">
-        <v>0.38960742163772799</v>
+        <v>3.1833943690189499E-3</v>
       </c>
       <c r="E92">
-        <v>1.1839292015246401</v>
+        <v>2.9698200743130299</v>
       </c>
       <c r="F92">
-        <v>0.14034849482627099</v>
+        <v>1.62418080051987E-3</v>
       </c>
       <c r="G92">
-        <v>0.31382877497132</v>
+        <v>1.11348225769671E-2</v>
       </c>
       <c r="H92">
-        <v>32.907999999999902</v>
+        <v>0.107191489361702</v>
       </c>
       <c r="I92">
-        <v>9.8488499999999396E-2</v>
+        <v>1.2398427382053601E-4</v>
       </c>
       <c r="J92" s="2">
-        <v>42671.708854166667</v>
+        <v>42674.91747685185</v>
       </c>
       <c r="K92" t="s">
         <v>18</v>
@@ -11986,34 +12914,34 @@
     </row>
     <row r="93" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A93" s="1" t="s">
-        <v>40</v>
+        <v>15</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>16</v>
+        <v>67</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="D93">
-        <v>0.30388693348520401</v>
+        <v>3.6623060053188898</v>
       </c>
       <c r="E93">
-        <v>0.93099191661214598</v>
+        <v>0.34527613705043497</v>
       </c>
       <c r="F93">
-        <v>0.109469356442796</v>
+        <v>1.31927449759326</v>
       </c>
       <c r="G93">
-        <v>0.24478092245924801</v>
+        <v>2.9499874576004101</v>
       </c>
       <c r="H93">
-        <v>32.641199999999998</v>
+        <v>1060.6890000000001</v>
       </c>
       <c r="I93">
-        <v>5.9917700000000497E-2</v>
+        <v>8.7024259999997806</v>
       </c>
       <c r="J93" s="2">
-        <v>42671.710763888892</v>
+        <v>42674.917673611111</v>
       </c>
       <c r="K93" t="s">
         <v>18</v>
@@ -12033,46 +12961,46 @@
     </row>
     <row r="94" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A94" s="1" t="s">
-        <v>40</v>
+        <v>15</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>16</v>
+        <v>68</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>36</v>
+        <v>69</v>
       </c>
       <c r="D94">
-        <v>0.54882341420256398</v>
+        <v>3.7990219500025603E-2</v>
       </c>
       <c r="E94">
-        <v>1.66227515477933</v>
+        <v>31.719515317940399</v>
       </c>
       <c r="F94">
-        <v>0.197702959006687</v>
+        <v>1.9382765051033399E-2</v>
       </c>
       <c r="G94">
-        <v>0.442077255691807</v>
+        <v>0.12104532894712999</v>
       </c>
       <c r="H94">
-        <v>33.016399999999997</v>
+        <v>0.11976923076923</v>
       </c>
       <c r="I94">
-        <v>0.1954323</v>
+        <v>1.4651971659918999E-2</v>
       </c>
       <c r="J94" s="2">
-        <v>42671.712650462963</v>
+        <v>42674.7658912037</v>
       </c>
       <c r="K94" t="s">
         <v>18</v>
       </c>
       <c r="L94" t="s">
-        <v>19</v>
+        <v>70</v>
       </c>
       <c r="M94" t="s">
-        <v>20</v>
-      </c>
-      <c r="N94" s="3">
-        <v>37235</v>
+        <v>71</v>
+      </c>
+      <c r="N94" s="3" t="s">
+        <v>72</v>
       </c>
       <c r="O94">
         <v>32</v>
@@ -12080,46 +13008,46 @@
     </row>
     <row r="95" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A95" s="1" t="s">
-        <v>40</v>
+        <v>15</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>16</v>
+        <v>68</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>37</v>
+        <v>73</v>
       </c>
       <c r="D95">
-        <v>0.35585634844099501</v>
+        <v>0.203055971738624</v>
       </c>
       <c r="E95">
-        <v>1.0784702223303</v>
+        <v>63.817591117853297</v>
       </c>
       <c r="F95">
-        <v>0.12819032724819701</v>
+        <v>9.76230633358771E-2</v>
       </c>
       <c r="G95">
-        <v>0.28664228578491202</v>
+        <v>0.45789275479283797</v>
       </c>
       <c r="H95">
-        <v>32.996400000000001</v>
+        <v>0.31818181818181801</v>
       </c>
       <c r="I95">
-        <v>8.2163799999999301E-2</v>
+        <v>0.20966577489177399</v>
       </c>
       <c r="J95" s="2">
-        <v>42671.714560185188</v>
+        <v>42674.765983796293</v>
       </c>
       <c r="K95" t="s">
         <v>18</v>
       </c>
       <c r="L95" t="s">
-        <v>19</v>
+        <v>70</v>
       </c>
       <c r="M95" t="s">
-        <v>20</v>
-      </c>
-      <c r="N95" s="3">
-        <v>37235</v>
+        <v>71</v>
+      </c>
+      <c r="N95" s="3" t="s">
+        <v>72</v>
       </c>
       <c r="O95">
         <v>32</v>
@@ -12127,46 +13055,46 @@
     </row>
     <row r="96" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A96" s="1" t="s">
-        <v>40</v>
+        <v>15</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>16</v>
+        <v>68</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>38</v>
+        <v>74</v>
       </c>
       <c r="D96">
-        <v>1.72510813545263E-3</v>
+        <v>6.5377918521134698E-2</v>
       </c>
       <c r="E96">
-        <v>1.62192603253198</v>
+        <v>18.640939860294999</v>
       </c>
       <c r="F96">
-        <v>8.8015721196562898E-4</v>
+        <v>3.0984795507646799E-2</v>
       </c>
       <c r="G96">
-        <v>6.0340538392883204E-3</v>
+        <v>0.13145735410281301</v>
       </c>
       <c r="H96">
-        <v>0.106361702127659</v>
+        <v>0.35072222222222199</v>
       </c>
       <c r="I96">
-        <v>3.6409805735430101E-5</v>
+        <v>1.7281035947712398E-2</v>
       </c>
       <c r="J96" s="2">
-        <v>42671.716469907406</v>
+        <v>42674.766076388885</v>
       </c>
       <c r="K96" t="s">
         <v>18</v>
       </c>
       <c r="L96" t="s">
-        <v>19</v>
+        <v>70</v>
       </c>
       <c r="M96" t="s">
-        <v>20</v>
-      </c>
-      <c r="N96" s="3">
-        <v>37235</v>
+        <v>71</v>
+      </c>
+      <c r="N96" s="3" t="s">
+        <v>72</v>
       </c>
       <c r="O96">
         <v>32</v>
@@ -12174,46 +13102,46 @@
     </row>
     <row r="97" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A97" s="1" t="s">
-        <v>40</v>
+        <v>15</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>16</v>
+        <v>68</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>39</v>
+        <v>75</v>
       </c>
       <c r="D97">
-        <v>3.7417876276775899</v>
+        <v>7.2299282507089904E-2</v>
       </c>
       <c r="E97">
-        <v>0.34309686312423499</v>
+        <v>9.6605134295951203</v>
       </c>
       <c r="F97">
-        <v>1.3479062059357301</v>
+        <v>3.1962547527449099E-2</v>
       </c>
       <c r="G97">
-        <v>3.0140099037661199</v>
+        <v>0.101074450008122</v>
       </c>
       <c r="H97">
-        <v>1090.5922</v>
+        <v>0.74839999999999995</v>
       </c>
       <c r="I97">
-        <v>9.0842557000003108</v>
+        <v>1.02160444444444E-2</v>
       </c>
       <c r="J97" s="2">
-        <v>42671.716539351852</v>
+        <v>42674.766157407408</v>
       </c>
       <c r="K97" t="s">
         <v>18</v>
       </c>
       <c r="L97" t="s">
-        <v>19</v>
+        <v>70</v>
       </c>
       <c r="M97" t="s">
-        <v>20</v>
-      </c>
-      <c r="N97" s="3">
-        <v>37235</v>
+        <v>71</v>
+      </c>
+      <c r="N97" s="3" t="s">
+        <v>72</v>
       </c>
       <c r="O97">
         <v>32</v>
@@ -12221,46 +13149,46 @@
     </row>
     <row r="98" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A98" s="1" t="s">
-        <v>59</v>
+        <v>15</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>41</v>
+        <v>76</v>
       </c>
       <c r="D98">
-        <v>1.64508922180297E-2</v>
+        <v>0.13403029309714801</v>
       </c>
       <c r="E98">
-        <v>11.9036846729592</v>
+        <v>7.63332561776941</v>
       </c>
       <c r="F98">
-        <v>8.3933123561376107E-3</v>
+        <v>5.4773311441417297E-2</v>
       </c>
       <c r="G98">
-        <v>5.3083968317258298E-2</v>
+        <v>0.14491656055747901</v>
       </c>
       <c r="H98">
-        <v>0.13819999999999999</v>
+        <v>1.7558571428571399</v>
       </c>
       <c r="I98">
-        <v>2.81790769230769E-3</v>
+        <v>2.1000809523809501E-2</v>
       </c>
       <c r="J98" s="2">
-        <v>42672.477685185186</v>
+        <v>42674.766250000001</v>
       </c>
       <c r="K98" t="s">
         <v>18</v>
       </c>
       <c r="L98" t="s">
-        <v>19</v>
+        <v>70</v>
       </c>
       <c r="M98" t="s">
-        <v>20</v>
-      </c>
-      <c r="N98" s="3">
-        <v>37235</v>
+        <v>71</v>
+      </c>
+      <c r="N98" s="3" t="s">
+        <v>72</v>
       </c>
       <c r="O98">
         <v>32</v>
@@ -12268,46 +13196,46 @@
     </row>
     <row r="99" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A99" s="1" t="s">
-        <v>59</v>
+        <v>15</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>42</v>
+        <v>77</v>
       </c>
       <c r="D99">
-        <v>4.4562356842519003E-2</v>
+        <v>0.39648811166370401</v>
       </c>
       <c r="E99">
-        <v>4.5296154546166898</v>
+        <v>11.6963895470879</v>
       </c>
       <c r="F99">
-        <v>1.9700423007302799E-2</v>
+        <v>0.15421552378984901</v>
       </c>
       <c r="G99">
-        <v>6.22982075718609E-2</v>
+        <v>0.37774934370117202</v>
       </c>
       <c r="H99">
-        <v>0.98379999999999901</v>
+        <v>3.3898333333333301</v>
       </c>
       <c r="I99">
-        <v>3.8810666666666601E-3</v>
+        <v>0.142694566666666</v>
       </c>
       <c r="J99" s="2">
-        <v>42672.477754629632</v>
+        <v>42674.766400462962</v>
       </c>
       <c r="K99" t="s">
         <v>18</v>
       </c>
       <c r="L99" t="s">
-        <v>19</v>
+        <v>70</v>
       </c>
       <c r="M99" t="s">
-        <v>20</v>
-      </c>
-      <c r="N99" s="3">
-        <v>37235</v>
+        <v>71</v>
+      </c>
+      <c r="N99" s="3" t="s">
+        <v>72</v>
       </c>
       <c r="O99">
         <v>32</v>
@@ -12315,46 +13243,46 @@
     </row>
     <row r="100" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A100" s="1" t="s">
-        <v>59</v>
+        <v>15</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>43</v>
+        <v>78</v>
       </c>
       <c r="D100">
-        <v>0.13817287285484001</v>
+        <v>0.147744538178742</v>
       </c>
       <c r="E100">
-        <v>2.4171309365132001</v>
+        <v>3.8044171025812399</v>
       </c>
       <c r="F100">
-        <v>4.9774089645115399E-2</v>
+        <v>5.7465786922887001E-2</v>
       </c>
       <c r="G100">
-        <v>0.111298247964646</v>
+        <v>0.14076185562857499</v>
       </c>
       <c r="H100">
-        <v>5.7164000000000001</v>
+        <v>3.88349999999999</v>
       </c>
       <c r="I100">
-        <v>1.23872999999999E-2</v>
+        <v>1.9813899999999902E-2</v>
       </c>
       <c r="J100" s="2">
-        <v>42672.477870370371</v>
+        <v>42674.766643518517</v>
       </c>
       <c r="K100" t="s">
         <v>18</v>
       </c>
       <c r="L100" t="s">
-        <v>19</v>
+        <v>70</v>
       </c>
       <c r="M100" t="s">
-        <v>20</v>
-      </c>
-      <c r="N100" s="3">
-        <v>37235</v>
+        <v>71</v>
+      </c>
+      <c r="N100" s="3" t="s">
+        <v>72</v>
       </c>
       <c r="O100">
         <v>32</v>
@@ -12362,46 +13290,46 @@
     </row>
     <row r="101" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A101" s="1" t="s">
-        <v>59</v>
+        <v>15</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="D101">
-        <v>2.5062826369813998E-3</v>
+        <v>0.58505173073758099</v>
       </c>
       <c r="E101">
-        <v>0.92250657543233805</v>
+        <v>6.7799069524125199</v>
       </c>
       <c r="F101">
-        <v>1.2049435754718199E-3</v>
+        <v>0.210753505308927</v>
       </c>
       <c r="G101">
-        <v>5.6516863360910503E-3</v>
+        <v>0.47125916436712301</v>
       </c>
       <c r="H101">
-        <v>0.27168181818181802</v>
+        <v>8.6292000000000009</v>
       </c>
       <c r="I101">
-        <v>3.19415584415583E-5</v>
+        <v>0.22208519999999901</v>
       </c>
       <c r="J101" s="2">
-        <v>42672.478206018517</v>
+        <v>42674.766909722224</v>
       </c>
       <c r="K101" t="s">
         <v>18</v>
       </c>
       <c r="L101" t="s">
-        <v>19</v>
+        <v>70</v>
       </c>
       <c r="M101" t="s">
-        <v>20</v>
-      </c>
-      <c r="N101" s="3">
-        <v>37235</v>
+        <v>71</v>
+      </c>
+      <c r="N101" s="3" t="s">
+        <v>72</v>
       </c>
       <c r="O101">
         <v>32</v>
@@ -12409,46 +13337,46 @@
     </row>
     <row r="102" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A102" s="1" t="s">
-        <v>59</v>
+        <v>15</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="D102">
-        <v>2.2759011107847799E-2</v>
+        <v>10.802488270416299</v>
       </c>
       <c r="E102">
-        <v>1.8034081701939599</v>
+        <v>5.7375384780203698</v>
       </c>
       <c r="F102">
-        <v>9.6232605107179001E-3</v>
+        <v>3.8913862645592001</v>
       </c>
       <c r="G102">
-        <v>2.72186910570133E-2</v>
+        <v>8.7014042142633503</v>
       </c>
       <c r="H102">
-        <v>1.262</v>
+        <v>188.2774</v>
       </c>
       <c r="I102">
-        <v>7.4085714285714E-4</v>
+        <v>75.714435300000005</v>
       </c>
       <c r="J102" s="2">
-        <v>42672.478275462963</v>
+        <v>42674.767418981479</v>
       </c>
       <c r="K102" t="s">
         <v>18</v>
       </c>
       <c r="L102" t="s">
-        <v>19</v>
+        <v>70</v>
       </c>
       <c r="M102" t="s">
-        <v>20</v>
-      </c>
-      <c r="N102" s="3">
-        <v>37235</v>
+        <v>71</v>
+      </c>
+      <c r="N102" s="3" t="s">
+        <v>72</v>
       </c>
       <c r="O102">
         <v>32</v>
@@ -12456,46 +13384,46 @@
     </row>
     <row r="103" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A103" s="1" t="s">
-        <v>59</v>
+        <v>15</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="D103">
-        <v>0.52141704878363804</v>
+        <v>3.6587432096883901</v>
       </c>
       <c r="E103">
-        <v>2.5876519775666602</v>
+        <v>1.7304782346882299</v>
       </c>
       <c r="F103">
-        <v>0.18783034898546</v>
+        <v>1.3179910697724699</v>
       </c>
       <c r="G103">
-        <v>0.42000142856899803</v>
+        <v>2.9471176257489198</v>
       </c>
       <c r="H103">
-        <v>20.150200000000002</v>
+        <v>211.42959999999999</v>
       </c>
       <c r="I103">
-        <v>0.17640119999999901</v>
+        <v>8.6855022999999694</v>
       </c>
       <c r="J103" s="2">
-        <v>42672.478391203702</v>
+        <v>42674.778321759259</v>
       </c>
       <c r="K103" t="s">
         <v>18</v>
       </c>
       <c r="L103" t="s">
-        <v>19</v>
+        <v>70</v>
       </c>
       <c r="M103" t="s">
-        <v>20</v>
-      </c>
-      <c r="N103" s="3">
-        <v>37235</v>
+        <v>71</v>
+      </c>
+      <c r="N103" s="3" t="s">
+        <v>72</v>
       </c>
       <c r="O103">
         <v>32</v>
@@ -12503,46 +13431,46 @@
     </row>
     <row r="104" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A104" s="1" t="s">
-        <v>59</v>
+        <v>15</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>47</v>
+        <v>33</v>
       </c>
       <c r="D104">
-        <v>7.3684512356559399E-3</v>
+        <v>2.2226892013423298</v>
       </c>
       <c r="E104">
-        <v>1.76147048812931</v>
+        <v>1.07998822261574</v>
       </c>
       <c r="F104">
-        <v>3.4577434235832601E-3</v>
+        <v>0.80068054803398103</v>
       </c>
       <c r="G104">
-        <v>1.3830973694333001E-2</v>
+        <v>1.79037613366576</v>
       </c>
       <c r="H104">
-        <v>0.41831249999999998</v>
+        <v>205.80679999999899</v>
       </c>
       <c r="I104">
-        <v>1.9129583333333299E-4</v>
+        <v>3.20544669999998</v>
       </c>
       <c r="J104" s="2">
-        <v>42672.479560185187</v>
+        <v>42674.790567129632</v>
       </c>
       <c r="K104" t="s">
         <v>18</v>
       </c>
       <c r="L104" t="s">
-        <v>19</v>
+        <v>70</v>
       </c>
       <c r="M104" t="s">
-        <v>20</v>
-      </c>
-      <c r="N104" s="3">
-        <v>37235</v>
+        <v>71</v>
+      </c>
+      <c r="N104" s="3" t="s">
+        <v>72</v>
       </c>
       <c r="O104">
         <v>32</v>
@@ -12550,46 +13478,46 @@
     </row>
     <row r="105" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A105" s="1" t="s">
-        <v>59</v>
+        <v>15</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="D105">
-        <v>2.4695879202814401E-2</v>
+        <v>1.5085809256288401</v>
       </c>
       <c r="E105">
-        <v>0.60767419298263803</v>
+        <v>0.72963253141524398</v>
       </c>
       <c r="F105">
-        <v>9.6055539489748893E-3</v>
+        <v>0.54343693286341699</v>
       </c>
       <c r="G105">
-        <v>2.3528705871764401E-2</v>
+        <v>1.21516192336658</v>
       </c>
       <c r="H105">
-        <v>4.0639999999999903</v>
+        <v>206.75899999999999</v>
       </c>
       <c r="I105">
-        <v>5.5360000000000196E-4</v>
+        <v>1.4766184999999901</v>
       </c>
       <c r="J105" s="2">
-        <v>42672.479641203703</v>
+        <v>42674.802476851852</v>
       </c>
       <c r="K105" t="s">
         <v>18</v>
       </c>
       <c r="L105" t="s">
-        <v>19</v>
+        <v>70</v>
       </c>
       <c r="M105" t="s">
-        <v>20</v>
-      </c>
-      <c r="N105" s="3">
-        <v>37235</v>
+        <v>71</v>
+      </c>
+      <c r="N105" s="3" t="s">
+        <v>72</v>
       </c>
       <c r="O105">
         <v>32</v>
@@ -12597,46 +13525,46 @@
     </row>
     <row r="106" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A106" s="1" t="s">
-        <v>59</v>
+        <v>15</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="D106">
-        <v>1.02596941631267</v>
+        <v>2.6068247310615602</v>
       </c>
       <c r="E106">
-        <v>2.87615194247712</v>
+        <v>1.2197942499055101</v>
       </c>
       <c r="F106">
-        <v>0.36958552460831001</v>
+        <v>0.93905790023831603</v>
       </c>
       <c r="G106">
-        <v>0.826418356524103</v>
+        <v>2.0997972997410899</v>
       </c>
       <c r="H106">
-        <v>35.671599999999998</v>
+        <v>213.71019999999999</v>
       </c>
       <c r="I106">
-        <v>0.68296730000000005</v>
+        <v>4.4091486999999701</v>
       </c>
       <c r="J106" s="2">
-        <v>42672.479930555557</v>
+        <v>42674.814444444448</v>
       </c>
       <c r="K106" t="s">
         <v>18</v>
       </c>
       <c r="L106" t="s">
-        <v>19</v>
+        <v>70</v>
       </c>
       <c r="M106" t="s">
-        <v>20</v>
-      </c>
-      <c r="N106" s="3">
-        <v>37235</v>
+        <v>71</v>
+      </c>
+      <c r="N106" s="3" t="s">
+        <v>72</v>
       </c>
       <c r="O106">
         <v>32</v>
@@ -12644,46 +13572,46 @@
     </row>
     <row r="107" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A107" s="1" t="s">
-        <v>59</v>
+        <v>15</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="D107">
-        <v>7.0734487166520896E-3</v>
+        <v>3.1490205943395999</v>
       </c>
       <c r="E107">
-        <v>0.87819340725928796</v>
+        <v>1.49754259781262</v>
       </c>
       <c r="F107">
-        <v>3.1747974491257102E-3</v>
+        <v>1.1343734129465399</v>
       </c>
       <c r="G107">
-        <v>1.0529611924127401E-2</v>
+        <v>2.5365360632169098</v>
       </c>
       <c r="H107">
-        <v>0.80545454545454498</v>
+        <v>210.2792</v>
       </c>
       <c r="I107">
-        <v>1.10872727272726E-4</v>
+        <v>6.4340151999999602</v>
       </c>
       <c r="J107" s="2">
-        <v>42672.481990740744</v>
+        <v>42674.826817129629</v>
       </c>
       <c r="K107" t="s">
         <v>18</v>
       </c>
       <c r="L107" t="s">
-        <v>19</v>
+        <v>70</v>
       </c>
       <c r="M107" t="s">
-        <v>20</v>
-      </c>
-      <c r="N107" s="3">
-        <v>37235</v>
+        <v>71</v>
+      </c>
+      <c r="N107" s="3" t="s">
+        <v>72</v>
       </c>
       <c r="O107">
         <v>32</v>
@@ -12691,46 +13619,46 @@
     </row>
     <row r="108" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A108" s="1" t="s">
-        <v>59</v>
+        <v>15</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="D108">
-        <v>9.8712467829347297E-2</v>
+        <v>5.3225731683487698</v>
       </c>
       <c r="E108">
-        <v>1.32421748000304</v>
+        <v>2.4362033229625499</v>
       </c>
       <c r="F108">
-        <v>3.55592463362202E-2</v>
+        <v>1.9173534468115101</v>
       </c>
       <c r="G108">
-        <v>7.9512892036448707E-2</v>
+        <v>4.2873326439640804</v>
       </c>
       <c r="H108">
-        <v>7.4543999999999997</v>
+        <v>218.47819999999999</v>
       </c>
       <c r="I108">
-        <v>6.32229999999995E-3</v>
+        <v>18.381221199999999</v>
       </c>
       <c r="J108" s="2">
-        <v>42672.482094907406</v>
+        <v>42674.839004629626</v>
       </c>
       <c r="K108" t="s">
         <v>18</v>
       </c>
       <c r="L108" t="s">
-        <v>19</v>
+        <v>70</v>
       </c>
       <c r="M108" t="s">
-        <v>20</v>
-      </c>
-      <c r="N108" s="3">
-        <v>37235</v>
+        <v>71</v>
+      </c>
+      <c r="N108" s="3" t="s">
+        <v>72</v>
       </c>
       <c r="O108">
         <v>32</v>
@@ -12738,46 +13666,46 @@
     </row>
     <row r="109" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A109" s="1" t="s">
-        <v>59</v>
+        <v>15</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>52</v>
+        <v>38</v>
       </c>
       <c r="D109">
-        <v>0.82981693470692797</v>
+        <v>4.9479754786699998E-2</v>
       </c>
       <c r="E109">
-        <v>1.07282180080793</v>
+        <v>9.9044404777494996</v>
       </c>
       <c r="F109">
-        <v>0.29892540875609802</v>
+        <v>2.2907293882731401E-2</v>
       </c>
       <c r="G109">
-        <v>0.66841753418054595</v>
+        <v>8.5711245367323802E-2</v>
       </c>
       <c r="H109">
-        <v>77.349000000000004</v>
+        <v>0.499571428571428</v>
       </c>
       <c r="I109">
-        <v>0.44678200000000101</v>
+        <v>7.3464175824175804E-3</v>
       </c>
       <c r="J109" s="2">
-        <v>42672.482534722221</v>
+        <v>42674.851655092592</v>
       </c>
       <c r="K109" t="s">
         <v>18</v>
       </c>
       <c r="L109" t="s">
-        <v>19</v>
+        <v>70</v>
       </c>
       <c r="M109" t="s">
-        <v>20</v>
-      </c>
-      <c r="N109" s="3">
-        <v>37235</v>
+        <v>71</v>
+      </c>
+      <c r="N109" s="3" t="s">
+        <v>72</v>
       </c>
       <c r="O109">
         <v>32</v>
@@ -12785,46 +13713,46 @@
     </row>
     <row r="110" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A110" s="1" t="s">
-        <v>59</v>
+        <v>15</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>55</v>
+        <v>39</v>
       </c>
       <c r="D110">
-        <v>0.27308504055579302</v>
+        <v>260.18279122759401</v>
       </c>
       <c r="E110">
-        <v>1.26659295453648</v>
+        <v>4.9280116333691497</v>
       </c>
       <c r="F110">
-        <v>9.83735736872456E-2</v>
+        <v>93.725789347116105</v>
       </c>
       <c r="G110">
-        <v>0.219969997954265</v>
+        <v>209.57723622497701</v>
       </c>
       <c r="H110">
-        <v>21.560600000000001</v>
+        <v>5279.6707999999999</v>
       </c>
       <c r="I110">
-        <v>4.8386799999999702E-2</v>
+        <v>43922.617943699901</v>
       </c>
       <c r="J110" s="2">
-        <v>42672.487002314818</v>
+        <v>42674.851736111108</v>
       </c>
       <c r="K110" t="s">
         <v>18</v>
       </c>
       <c r="L110" t="s">
-        <v>19</v>
+        <v>70</v>
       </c>
       <c r="M110" t="s">
-        <v>20</v>
-      </c>
-      <c r="N110" s="3">
-        <v>37235</v>
+        <v>71</v>
+      </c>
+      <c r="N110" s="3" t="s">
+        <v>72</v>
       </c>
       <c r="O110">
         <v>32</v>
@@ -12832,34 +13760,34 @@
     </row>
     <row r="111" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A111" s="1" t="s">
-        <v>59</v>
+        <v>40</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>64</v>
+        <v>16</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="D111">
-        <v>5.6801421464601704E-3</v>
+        <v>3.4239079863816399E-2</v>
       </c>
       <c r="E111">
-        <v>3.9887124581329698</v>
+        <v>52.304719875831502</v>
       </c>
       <c r="F111">
-        <v>2.8980317073776401E-3</v>
+        <v>1.74689182978655E-2</v>
       </c>
       <c r="G111">
-        <v>1.7628038681252799E-2</v>
+        <v>0.124753029748269</v>
       </c>
       <c r="H111">
-        <v>0.142405405405405</v>
+        <v>6.5460784313725498E-2</v>
       </c>
       <c r="I111">
-        <v>3.1074774774774702E-4</v>
+        <v>1.55633184313725E-2</v>
       </c>
       <c r="J111" s="2">
-        <v>42672.488252314812</v>
+        <v>42671.698819444442</v>
       </c>
       <c r="K111" t="s">
         <v>18</v>
@@ -12879,34 +13807,34 @@
     </row>
     <row r="112" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A112" s="1" t="s">
-        <v>59</v>
+        <v>40</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>64</v>
+        <v>16</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="D112">
-        <v>18.967511407593999</v>
+        <v>1.9612237185710601E-2</v>
       </c>
       <c r="E112">
-        <v>1.6527572346235</v>
+        <v>4.2592088864291204</v>
       </c>
       <c r="F112">
-        <v>6.83267702002665</v>
+        <v>9.1432341192124195E-3</v>
       </c>
       <c r="G112">
-        <v>15.278330285080299</v>
+        <v>3.5411593474185099E-2</v>
       </c>
       <c r="H112">
-        <v>1147.6284000000001</v>
+        <v>0.46046666666666602</v>
       </c>
       <c r="I112">
-        <v>233.42737630000099</v>
+        <v>1.25398095238095E-3</v>
       </c>
       <c r="J112" s="2">
-        <v>42672.488321759258</v>
+        <v>42671.698900462965</v>
       </c>
       <c r="K112" t="s">
         <v>18</v>
@@ -12926,676 +13854,2885 @@
     </row>
     <row r="113" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A113" s="1" t="s">
-        <v>59</v>
+        <v>40</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>65</v>
+        <v>16</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="D113">
-        <v>0.116178061030854</v>
+        <v>0.17215139678132099</v>
       </c>
       <c r="E113">
-        <v>11.008660236657001</v>
+        <v>3.0434798950095701</v>
       </c>
       <c r="F113">
-        <v>5.0380772346424199E-2</v>
+        <v>6.2014191924107197E-2</v>
       </c>
       <c r="G113">
-        <v>0.151142317039272</v>
+        <v>0.13866794871202201</v>
       </c>
       <c r="H113">
-        <v>1.0553333333333299</v>
+        <v>5.6563999999999997</v>
       </c>
       <c r="I113">
-        <v>2.2844E-2</v>
+        <v>1.9228800000000001E-2</v>
       </c>
       <c r="J113" s="2">
-        <v>42673.289884259262</v>
+        <v>42671.698981481481</v>
       </c>
       <c r="K113" t="s">
         <v>18</v>
       </c>
       <c r="L113" t="s">
-        <v>62</v>
+        <v>19</v>
       </c>
       <c r="M113" t="s">
-        <v>63</v>
-      </c>
-      <c r="N113" s="3"/>
+        <v>20</v>
+      </c>
+      <c r="N113" s="3">
+        <v>37235</v>
+      </c>
       <c r="O113">
         <v>32</v>
       </c>
     </row>
     <row r="114" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A114" s="1" t="s">
-        <v>59</v>
+        <v>40</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>65</v>
+        <v>16</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D114">
-        <v>4.8934825331659201E-2</v>
+        <v>3.9973305168936497E-3</v>
       </c>
       <c r="E114">
-        <v>0.72806679360321302</v>
+        <v>5.7483735309311399</v>
       </c>
       <c r="F114">
-        <v>1.7627818923508301E-2</v>
+        <v>2.0394543453539E-3</v>
       </c>
       <c r="G114">
-        <v>3.9417001408021797E-2</v>
+        <v>1.273638830456E-2</v>
       </c>
       <c r="H114">
-        <v>6.7211999999999996</v>
+        <v>6.9538461538461493E-2</v>
       </c>
       <c r="I114">
-        <v>1.5536999999999899E-3</v>
+        <v>1.62215587044534E-4</v>
       </c>
       <c r="J114" s="2">
-        <v>42673.290023148147</v>
+        <v>42671.699305555558</v>
       </c>
       <c r="K114" t="s">
         <v>18</v>
       </c>
       <c r="L114" t="s">
-        <v>62</v>
+        <v>19</v>
       </c>
       <c r="M114" t="s">
-        <v>63</v>
-      </c>
-      <c r="N114" s="3"/>
+        <v>20</v>
+      </c>
+      <c r="N114" s="3">
+        <v>37235</v>
+      </c>
       <c r="O114">
         <v>32</v>
       </c>
     </row>
     <row r="115" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A115" s="1" t="s">
-        <v>59</v>
+        <v>40</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>65</v>
+        <v>16</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D115">
-        <v>0.438080066578517</v>
+        <v>3.2323414799641202E-2</v>
       </c>
       <c r="E115">
-        <v>0.94196991962146903</v>
+        <v>5.1870681693042302</v>
       </c>
       <c r="F115">
-        <v>0.15780982225450901</v>
+        <v>1.4834059109518599E-2</v>
       </c>
       <c r="G115">
-        <v>0.35287349007824098</v>
+        <v>5.34849607426333E-2</v>
       </c>
       <c r="H115">
-        <v>46.506799999999998</v>
+        <v>0.62315384615384595</v>
       </c>
       <c r="I115">
-        <v>0.124519699999998</v>
+        <v>2.8606410256410198E-3</v>
       </c>
       <c r="J115" s="2">
-        <v>42673.290416666663</v>
+        <v>42671.699374999997</v>
       </c>
       <c r="K115" t="s">
         <v>18</v>
       </c>
       <c r="L115" t="s">
-        <v>62</v>
+        <v>19</v>
       </c>
       <c r="M115" t="s">
-        <v>63</v>
-      </c>
-      <c r="N115" s="3"/>
+        <v>20</v>
+      </c>
+      <c r="N115" s="3">
+        <v>37235</v>
+      </c>
       <c r="O115">
         <v>32</v>
       </c>
     </row>
     <row r="116" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A116" s="1" t="s">
-        <v>59</v>
+        <v>40</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>65</v>
+        <v>16</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D116">
-        <v>0.105494035495664</v>
+        <v>0.72662795588212803</v>
       </c>
       <c r="E116">
-        <v>8.7919836972032499</v>
+        <v>11.6686143994432</v>
       </c>
       <c r="F116">
-        <v>4.57476303103488E-2</v>
+        <v>0.26175358641287</v>
       </c>
       <c r="G116">
-        <v>0.137242890931046</v>
+        <v>0.58529881257354299</v>
       </c>
       <c r="H116">
-        <v>1.1998888888888799</v>
+        <v>6.2271999999999998</v>
       </c>
       <c r="I116">
-        <v>1.8835611111111102E-2</v>
+        <v>0.34257470000000001</v>
       </c>
       <c r="J116" s="2">
-        <v>42673.293113425927</v>
+        <v>42671.699479166666</v>
       </c>
       <c r="K116" t="s">
         <v>18</v>
       </c>
       <c r="L116" t="s">
-        <v>62</v>
+        <v>19</v>
       </c>
       <c r="M116" t="s">
-        <v>63</v>
-      </c>
-      <c r="N116" s="3"/>
+        <v>20</v>
+      </c>
+      <c r="N116" s="3">
+        <v>37235</v>
+      </c>
       <c r="O116">
         <v>32</v>
       </c>
     </row>
     <row r="117" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A117" s="1" t="s">
-        <v>59</v>
+        <v>40</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>65</v>
+        <v>16</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D117">
-        <v>0.73019301602137998</v>
+        <v>5.0107854685026596E-3</v>
       </c>
       <c r="E117">
-        <v>9.6509782714958998</v>
+        <v>4.0485489505000798</v>
       </c>
       <c r="F117">
-        <v>0.26303782997888298</v>
+        <v>2.5565231982156399E-3</v>
       </c>
       <c r="G117">
-        <v>0.58817046848681498</v>
+        <v>1.6764243708251001E-2</v>
       </c>
       <c r="H117">
-        <v>7.5659999999999998</v>
+        <v>0.123767441860465</v>
       </c>
       <c r="I117">
-        <v>0.34594449999999899</v>
+        <v>2.81039867109634E-4</v>
       </c>
       <c r="J117" s="2">
-        <v>42673.293240740742</v>
+        <v>42671.699837962966</v>
       </c>
       <c r="K117" t="s">
         <v>18</v>
       </c>
       <c r="L117" t="s">
-        <v>62</v>
+        <v>19</v>
       </c>
       <c r="M117" t="s">
-        <v>63</v>
-      </c>
-      <c r="N117" s="3"/>
+        <v>20</v>
+      </c>
+      <c r="N117" s="3">
+        <v>37235</v>
+      </c>
       <c r="O117">
         <v>32</v>
       </c>
     </row>
     <row r="118" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A118" s="1" t="s">
-        <v>59</v>
+        <v>40</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>65</v>
+        <v>16</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D118">
-        <v>5.1164116284911998</v>
+        <v>2.3903281327771E-2</v>
       </c>
       <c r="E118">
-        <v>5.3864902496064699</v>
+        <v>2.0959619246876402</v>
       </c>
       <c r="F118">
-        <v>1.8430877624247799</v>
+        <v>1.03656900814271E-2</v>
       </c>
       <c r="G118">
-        <v>4.1212695252798</v>
+        <v>3.1097070244281402E-2</v>
       </c>
       <c r="H118">
-        <v>94.985999999999905</v>
+        <v>1.1404444444444399</v>
       </c>
       <c r="I118">
-        <v>16.984862499999899</v>
+        <v>9.6702777777777705E-4</v>
       </c>
       <c r="J118" s="2">
-        <v>42673.293692129628</v>
+        <v>42671.699907407405</v>
       </c>
       <c r="K118" t="s">
         <v>18</v>
       </c>
       <c r="L118" t="s">
-        <v>62</v>
+        <v>19</v>
       </c>
       <c r="M118" t="s">
-        <v>63</v>
-      </c>
-      <c r="N118" s="3"/>
+        <v>20</v>
+      </c>
+      <c r="N118" s="3">
+        <v>37235</v>
+      </c>
       <c r="O118">
         <v>32</v>
       </c>
     </row>
     <row r="119" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A119" s="1" t="s">
-        <v>59</v>
+        <v>40</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>65</v>
+        <v>16</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D119">
-        <v>0.11105956212163801</v>
+        <v>0.70733711103885999</v>
       </c>
       <c r="E119">
-        <v>4.1324488231307202</v>
+        <v>5.3283398195017702</v>
       </c>
       <c r="F119">
-        <v>4.3197029218840201E-2</v>
+        <v>0.254804434812269</v>
       </c>
       <c r="G119">
-        <v>0.10581067999025399</v>
+        <v>0.56976003720864798</v>
       </c>
       <c r="H119">
-        <v>2.6875</v>
+        <v>13.275</v>
       </c>
       <c r="I119">
-        <v>1.11959E-2</v>
+        <v>0.32462649999999998</v>
       </c>
       <c r="J119" s="2">
-        <v>42673.299189814818</v>
+        <v>42671.70003472222</v>
       </c>
       <c r="K119" t="s">
         <v>18</v>
       </c>
       <c r="L119" t="s">
-        <v>62</v>
+        <v>19</v>
       </c>
       <c r="M119" t="s">
-        <v>63</v>
-      </c>
-      <c r="N119" s="3"/>
+        <v>20</v>
+      </c>
+      <c r="N119" s="3">
+        <v>37235</v>
+      </c>
       <c r="O119">
         <v>32</v>
       </c>
     </row>
     <row r="120" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A120" s="1" t="s">
-        <v>59</v>
+        <v>40</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>65</v>
+        <v>16</v>
       </c>
       <c r="C120" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D120">
-        <v>0.23428946629876399</v>
+        <v>3.4067039938532502E-3</v>
       </c>
       <c r="E120">
-        <v>1.1721271652496601</v>
+        <v>1.34467465005362</v>
       </c>
       <c r="F120">
-        <v>8.4398222730102501E-2</v>
+        <v>1.6425766604885499E-3</v>
       </c>
       <c r="G120">
-        <v>0.18872016320467699</v>
+        <v>7.8775209278287208E-3</v>
       </c>
       <c r="H120">
-        <v>19.988399999999999</v>
+        <v>0.253347826086956</v>
       </c>
       <c r="I120">
-        <v>3.5615300000000003E-2</v>
+        <v>6.2055335968379502E-5</v>
       </c>
       <c r="J120" s="2">
-        <v>42673.299386574072</v>
+        <v>42671.700798611113</v>
       </c>
       <c r="K120" t="s">
         <v>18</v>
       </c>
       <c r="L120" t="s">
-        <v>62</v>
+        <v>19</v>
       </c>
       <c r="M120" t="s">
-        <v>63</v>
-      </c>
-      <c r="N120" s="3"/>
+        <v>20</v>
+      </c>
+      <c r="N120" s="3">
+        <v>37235</v>
+      </c>
       <c r="O120">
         <v>32</v>
       </c>
     </row>
     <row r="121" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A121" s="1" t="s">
-        <v>59</v>
+        <v>40</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>65</v>
+        <v>16</v>
       </c>
       <c r="C121" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D121">
-        <v>5.7724342113731302</v>
+        <v>1.43057405907557E-2</v>
       </c>
       <c r="E121">
-        <v>2.6840391710853901</v>
+        <v>0.53980531755571703</v>
       </c>
       <c r="F121">
-        <v>2.0794071366617901</v>
+        <v>5.5642709415619496E-3</v>
       </c>
       <c r="G121">
-        <v>4.64969571047396</v>
+        <v>1.36296245974224E-2</v>
       </c>
       <c r="H121">
-        <v>215.0652</v>
+        <v>2.6501666666666601</v>
       </c>
       <c r="I121">
-        <v>21.619670200000002</v>
+        <v>1.8576666666666401E-4</v>
       </c>
       <c r="J121" s="2">
-        <v>42673.300543981481</v>
+        <v>42671.700868055559</v>
       </c>
       <c r="K121" t="s">
         <v>18</v>
       </c>
       <c r="L121" t="s">
-        <v>62</v>
+        <v>19</v>
       </c>
       <c r="M121" t="s">
-        <v>63</v>
-      </c>
-      <c r="N121" s="3"/>
+        <v>20</v>
+      </c>
+      <c r="N121" s="3">
+        <v>37235</v>
+      </c>
       <c r="O121">
         <v>32</v>
       </c>
     </row>
     <row r="122" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A122" s="1" t="s">
-        <v>59</v>
+        <v>40</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>65</v>
+        <v>16</v>
       </c>
       <c r="C122" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="D122">
-        <v>0.69123481405195397</v>
+        <v>8.2839016245003396</v>
       </c>
       <c r="E122">
-        <v>12.546918137877601</v>
+        <v>24.705497737888098</v>
       </c>
       <c r="F122">
-        <v>0.24900389555185601</v>
+        <v>2.9841144180476702</v>
       </c>
       <c r="G122">
-        <v>0.55678963711620899</v>
+        <v>6.6726826913918202</v>
       </c>
       <c r="H122">
-        <v>5.5091999999999999</v>
+        <v>33.5306</v>
       </c>
       <c r="I122">
-        <v>0.31001469999999898</v>
+        <v>44.5246943</v>
       </c>
       <c r="J122" s="2">
-        <v>42673.312997685185</v>
+        <v>42671.701053240744</v>
       </c>
       <c r="K122" t="s">
         <v>18</v>
       </c>
       <c r="L122" t="s">
-        <v>62</v>
+        <v>19</v>
       </c>
       <c r="M122" t="s">
-        <v>63</v>
-      </c>
-      <c r="N122" s="3"/>
+        <v>20</v>
+      </c>
+      <c r="N122" s="3">
+        <v>37235</v>
+      </c>
       <c r="O122">
         <v>32</v>
       </c>
     </row>
     <row r="123" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A123" s="1" t="s">
-        <v>59</v>
+        <v>40</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>65</v>
+        <v>16</v>
       </c>
       <c r="C123" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="D123">
-        <v>0.45070905520967702</v>
+        <v>3.4287472020373602</v>
       </c>
       <c r="E123">
-        <v>1.0817969306331201</v>
+        <v>9.8734902209168798</v>
       </c>
       <c r="F123">
-        <v>0.16235916974412001</v>
+        <v>1.2351394820019299</v>
       </c>
       <c r="G123">
-        <v>0.36304614031827898</v>
+        <v>2.7618558434501899</v>
       </c>
       <c r="H123">
-        <v>41.662999999999997</v>
+        <v>34.726799999999997</v>
       </c>
       <c r="I123">
-        <v>0.13180249999999899</v>
+        <v>7.6278477000000002</v>
       </c>
       <c r="J123" s="2">
-        <v>42673.313321759262</v>
+        <v>42671.702997685185</v>
       </c>
       <c r="K123" t="s">
         <v>18</v>
       </c>
       <c r="L123" t="s">
-        <v>62</v>
+        <v>19</v>
       </c>
       <c r="M123" t="s">
-        <v>63</v>
-      </c>
-      <c r="N123" s="3"/>
+        <v>20</v>
+      </c>
+      <c r="N123" s="3">
+        <v>37235</v>
+      </c>
       <c r="O123">
         <v>32</v>
       </c>
     </row>
     <row r="124" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A124" s="1" t="s">
-        <v>59</v>
+        <v>40</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>65</v>
+        <v>16</v>
       </c>
       <c r="C124" s="1" t="s">
-        <v>52</v>
+        <v>32</v>
       </c>
       <c r="D124">
-        <v>5.2441865145501199</v>
+        <v>0.21372207478835401</v>
       </c>
       <c r="E124">
-        <v>1.1452869568052</v>
+        <v>0.633817741470456</v>
       </c>
       <c r="F124">
-        <v>1.8891161795929801</v>
+        <v>7.6989220024623495E-2</v>
       </c>
       <c r="G124">
-        <v>4.2241921949646102</v>
+        <v>0.17215312950974601</v>
       </c>
       <c r="H124">
-        <v>457.892799999999</v>
+        <v>33.719799999999999</v>
       </c>
       <c r="I124">
-        <v>17.843799699999899</v>
+        <v>2.9636699999999402E-2</v>
       </c>
       <c r="J124" s="2">
-        <v>42673.315740740742</v>
+        <v>42671.705011574071</v>
       </c>
       <c r="K124" t="s">
         <v>18</v>
       </c>
       <c r="L124" t="s">
-        <v>62</v>
+        <v>19</v>
       </c>
       <c r="M124" t="s">
-        <v>63</v>
-      </c>
-      <c r="N124" s="3"/>
+        <v>20</v>
+      </c>
+      <c r="N124" s="3">
+        <v>37235</v>
+      </c>
       <c r="O124">
         <v>32</v>
       </c>
     </row>
     <row r="125" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A125" s="1" t="s">
-        <v>59</v>
+        <v>40</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>65</v>
+        <v>16</v>
       </c>
       <c r="C125" s="1" t="s">
-        <v>55</v>
+        <v>33</v>
       </c>
       <c r="D125">
-        <v>2.8519575617873598</v>
+        <v>0.28581397260288</v>
       </c>
       <c r="E125">
-        <v>1.17800126797588</v>
+        <v>0.87418786046368402</v>
       </c>
       <c r="F125">
-        <v>1.02736223407325</v>
+        <v>0.10295892384829999</v>
       </c>
       <c r="G125">
-        <v>2.2972517929038498</v>
+        <v>0.23022315261502299</v>
       </c>
       <c r="H125">
-        <v>242.10140000000001</v>
+        <v>32.694800000000001</v>
       </c>
       <c r="I125">
-        <v>5.2773657999999903</v>
+        <v>5.3002700000000201E-2</v>
       </c>
       <c r="J125" s="2">
-        <v>42673.342256944445</v>
+        <v>42671.706956018519</v>
       </c>
       <c r="K125" t="s">
         <v>18</v>
       </c>
       <c r="L125" t="s">
-        <v>62</v>
+        <v>19</v>
       </c>
       <c r="M125" t="s">
-        <v>63</v>
-      </c>
-      <c r="N125" s="3"/>
+        <v>20</v>
+      </c>
+      <c r="N125" s="3">
+        <v>37235</v>
+      </c>
       <c r="O125">
         <v>32</v>
       </c>
     </row>
     <row r="126" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A126" s="1" t="s">
-        <v>59</v>
+        <v>40</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>65</v>
+        <v>16</v>
       </c>
       <c r="C126" s="1" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="D126">
-        <v>4.2604601525662603E-2</v>
+        <v>0.38960742163772799</v>
       </c>
       <c r="E126">
-        <v>4.06101899736246</v>
+        <v>1.1839292015246401</v>
       </c>
       <c r="F126">
-        <v>1.8475542725785998E-2</v>
+        <v>0.14034849482627099</v>
       </c>
       <c r="G126">
-        <v>5.5426628177358099E-2</v>
+        <v>0.31382877497132</v>
       </c>
       <c r="H126">
-        <v>1.04911111111111</v>
+        <v>32.907999999999902</v>
       </c>
       <c r="I126">
-        <v>3.0721111111111101E-3</v>
+        <v>9.8488499999999396E-2</v>
       </c>
       <c r="J126" s="2">
-        <v>42673.356273148151</v>
+        <v>42671.708854166667</v>
       </c>
       <c r="K126" t="s">
         <v>18</v>
       </c>
       <c r="L126" t="s">
-        <v>62</v>
+        <v>19</v>
       </c>
       <c r="M126" t="s">
-        <v>63</v>
-      </c>
-      <c r="N126" s="3"/>
+        <v>20</v>
+      </c>
+      <c r="N126" s="3">
+        <v>37235</v>
+      </c>
       <c r="O126">
         <v>32</v>
       </c>
     </row>
     <row r="127" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A127" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B127" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C127" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D127">
+        <v>0.30388693348520401</v>
+      </c>
+      <c r="E127">
+        <v>0.93099191661214598</v>
+      </c>
+      <c r="F127">
+        <v>0.109469356442796</v>
+      </c>
+      <c r="G127">
+        <v>0.24478092245924801</v>
+      </c>
+      <c r="H127">
+        <v>32.641199999999998</v>
+      </c>
+      <c r="I127">
+        <v>5.9917700000000497E-2</v>
+      </c>
+      <c r="J127" s="2">
+        <v>42671.710763888892</v>
+      </c>
+      <c r="K127" t="s">
+        <v>18</v>
+      </c>
+      <c r="L127" t="s">
+        <v>19</v>
+      </c>
+      <c r="M127" t="s">
+        <v>20</v>
+      </c>
+      <c r="N127" s="3">
+        <v>37235</v>
+      </c>
+      <c r="O127">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="128" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A128" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B128" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C128" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D128">
+        <v>0.54882341420256398</v>
+      </c>
+      <c r="E128">
+        <v>1.66227515477933</v>
+      </c>
+      <c r="F128">
+        <v>0.197702959006687</v>
+      </c>
+      <c r="G128">
+        <v>0.442077255691807</v>
+      </c>
+      <c r="H128">
+        <v>33.016399999999997</v>
+      </c>
+      <c r="I128">
+        <v>0.1954323</v>
+      </c>
+      <c r="J128" s="2">
+        <v>42671.712650462963</v>
+      </c>
+      <c r="K128" t="s">
+        <v>18</v>
+      </c>
+      <c r="L128" t="s">
+        <v>19</v>
+      </c>
+      <c r="M128" t="s">
+        <v>20</v>
+      </c>
+      <c r="N128" s="3">
+        <v>37235</v>
+      </c>
+      <c r="O128">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="129" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A129" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B129" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C129" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D129">
+        <v>0.35585634844099501</v>
+      </c>
+      <c r="E129">
+        <v>1.0784702223303</v>
+      </c>
+      <c r="F129">
+        <v>0.12819032724819701</v>
+      </c>
+      <c r="G129">
+        <v>0.28664228578491202</v>
+      </c>
+      <c r="H129">
+        <v>32.996400000000001</v>
+      </c>
+      <c r="I129">
+        <v>8.2163799999999301E-2</v>
+      </c>
+      <c r="J129" s="2">
+        <v>42671.714560185188</v>
+      </c>
+      <c r="K129" t="s">
+        <v>18</v>
+      </c>
+      <c r="L129" t="s">
+        <v>19</v>
+      </c>
+      <c r="M129" t="s">
+        <v>20</v>
+      </c>
+      <c r="N129" s="3">
+        <v>37235</v>
+      </c>
+      <c r="O129">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="130" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A130" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B130" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C130" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D130">
+        <v>1.72510813545263E-3</v>
+      </c>
+      <c r="E130">
+        <v>1.62192603253198</v>
+      </c>
+      <c r="F130">
+        <v>8.8015721196562898E-4</v>
+      </c>
+      <c r="G130">
+        <v>6.0340538392883204E-3</v>
+      </c>
+      <c r="H130">
+        <v>0.106361702127659</v>
+      </c>
+      <c r="I130">
+        <v>3.6409805735430101E-5</v>
+      </c>
+      <c r="J130" s="2">
+        <v>42671.716469907406</v>
+      </c>
+      <c r="K130" t="s">
+        <v>18</v>
+      </c>
+      <c r="L130" t="s">
+        <v>19</v>
+      </c>
+      <c r="M130" t="s">
+        <v>20</v>
+      </c>
+      <c r="N130" s="3">
+        <v>37235</v>
+      </c>
+      <c r="O130">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="131" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A131" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B131" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C131" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D131">
+        <v>3.7417876276775899</v>
+      </c>
+      <c r="E131">
+        <v>0.34309686312423499</v>
+      </c>
+      <c r="F131">
+        <v>1.3479062059357301</v>
+      </c>
+      <c r="G131">
+        <v>3.0140099037661199</v>
+      </c>
+      <c r="H131">
+        <v>1090.5922</v>
+      </c>
+      <c r="I131">
+        <v>9.0842557000003108</v>
+      </c>
+      <c r="J131" s="2">
+        <v>42671.716539351852</v>
+      </c>
+      <c r="K131" t="s">
+        <v>18</v>
+      </c>
+      <c r="L131" t="s">
+        <v>19</v>
+      </c>
+      <c r="M131" t="s">
+        <v>20</v>
+      </c>
+      <c r="N131" s="3">
+        <v>37235</v>
+      </c>
+      <c r="O131">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="132" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A132" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B132" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C132" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D132">
+        <v>4.3683155607957002E-4</v>
+      </c>
+      <c r="E132">
+        <v>0.98304973749494196</v>
+      </c>
+      <c r="F132">
+        <v>2.2287324289774001E-4</v>
+      </c>
+      <c r="G132">
+        <v>1.6528722067923199E-3</v>
+      </c>
+      <c r="H132">
+        <v>4.44363636363636E-2</v>
+      </c>
+      <c r="I132">
+        <v>2.7319865319865302E-6</v>
+      </c>
+      <c r="J132" s="2">
+        <v>42674.887835648151</v>
+      </c>
+      <c r="K132" t="s">
+        <v>18</v>
+      </c>
+      <c r="L132" t="s">
+        <v>19</v>
+      </c>
+      <c r="M132" t="s">
+        <v>20</v>
+      </c>
+      <c r="N132" s="3">
+        <v>37235</v>
+      </c>
+      <c r="O132">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="133" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A133" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B133" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C133" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D133">
+        <v>3.7008889508499299E-3</v>
+      </c>
+      <c r="E133">
+        <v>6.2932990855032704</v>
+      </c>
+      <c r="F133">
+        <v>1.8882086483928201E-3</v>
+      </c>
+      <c r="G133">
+        <v>1.2524959225246201E-2</v>
+      </c>
+      <c r="H133">
+        <v>5.8806818181818203E-2</v>
+      </c>
+      <c r="I133">
+        <v>1.5687460359408001E-4</v>
+      </c>
+      <c r="J133" s="2">
+        <v>42674.888043981482</v>
+      </c>
+      <c r="K133" t="s">
+        <v>18</v>
+      </c>
+      <c r="L133" t="s">
+        <v>19</v>
+      </c>
+      <c r="M133" t="s">
+        <v>20</v>
+      </c>
+      <c r="N133" s="3">
+        <v>37235</v>
+      </c>
+      <c r="O133">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="134" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A134" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B134" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C134" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D134">
+        <v>3.3468162722064998E-3</v>
+      </c>
+      <c r="E134">
+        <v>2.8163033210348201</v>
+      </c>
+      <c r="F134">
+        <v>1.70755932255433E-3</v>
+      </c>
+      <c r="G134">
+        <v>1.11972152842488E-2</v>
+      </c>
+      <c r="H134">
+        <v>0.118837209302325</v>
+      </c>
+      <c r="I134">
+        <v>1.25377630121816E-4</v>
+      </c>
+      <c r="J134" s="2">
+        <v>42674.888252314813</v>
+      </c>
+      <c r="K134" t="s">
+        <v>18</v>
+      </c>
+      <c r="L134" t="s">
+        <v>19</v>
+      </c>
+      <c r="M134" t="s">
+        <v>20</v>
+      </c>
+      <c r="N134" s="3">
+        <v>37235</v>
+      </c>
+      <c r="O134">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="135" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A135" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B135" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C135" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D135">
+        <v>5.04320425380531E-3</v>
+      </c>
+      <c r="E135">
+        <v>2.1779254853192702</v>
+      </c>
+      <c r="F135">
+        <v>2.4434129136653598E-3</v>
+      </c>
+      <c r="G135">
+        <v>1.22170645683268E-2</v>
+      </c>
+      <c r="H135">
+        <v>0.23155999999999999</v>
+      </c>
+      <c r="I135">
+        <v>1.49256666666666E-4</v>
+      </c>
+      <c r="J135" s="2">
+        <v>42674.888472222221</v>
+      </c>
+      <c r="K135" t="s">
+        <v>18</v>
+      </c>
+      <c r="L135" t="s">
+        <v>19</v>
+      </c>
+      <c r="M135" t="s">
+        <v>20</v>
+      </c>
+      <c r="N135" s="3">
+        <v>37235</v>
+      </c>
+      <c r="O135">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="136" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A136" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B136" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C136" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D136">
+        <v>2.62176784102728E-2</v>
+      </c>
+      <c r="E136">
+        <v>5.4555216668225404</v>
+      </c>
+      <c r="F136">
+        <v>1.213781407883E-2</v>
+      </c>
+      <c r="G136">
+        <v>4.5415541707343098E-2</v>
+      </c>
+      <c r="H136">
+        <v>0.48057142857142798</v>
+      </c>
+      <c r="I136">
+        <v>2.0625714285714201E-3</v>
+      </c>
+      <c r="J136" s="2">
+        <v>42674.888715277775</v>
+      </c>
+      <c r="K136" t="s">
+        <v>18</v>
+      </c>
+      <c r="L136" t="s">
+        <v>19</v>
+      </c>
+      <c r="M136" t="s">
+        <v>20</v>
+      </c>
+      <c r="N136" s="3">
+        <v>37235</v>
+      </c>
+      <c r="O136">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="137" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A137" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B137" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C137" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D137">
+        <v>2.8950432962393802E-2</v>
+      </c>
+      <c r="E137">
+        <v>4.7730580660890203</v>
+      </c>
+      <c r="F137">
+        <v>1.3286109666082501E-2</v>
+      </c>
+      <c r="G137">
+        <v>4.7903749652498301E-2</v>
+      </c>
+      <c r="H137">
+        <v>0.60653846153846103</v>
+      </c>
+      <c r="I137">
+        <v>2.29476923076923E-3</v>
+      </c>
+      <c r="J137" s="2">
+        <v>42674.888969907406</v>
+      </c>
+      <c r="K137" t="s">
+        <v>18</v>
+      </c>
+      <c r="L137" t="s">
+        <v>19</v>
+      </c>
+      <c r="M137" t="s">
+        <v>20</v>
+      </c>
+      <c r="N137" s="3">
+        <v>37235</v>
+      </c>
+      <c r="O137">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="138" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A138" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B138" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C138" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D138">
+        <v>1.4476555555555499E-2</v>
+      </c>
+      <c r="E138">
+        <v>1.25145519162424</v>
+      </c>
+      <c r="F138">
+        <v>6.2777777777777797E-3</v>
+      </c>
+      <c r="G138">
+        <v>1.8833333333333299E-2</v>
+      </c>
+      <c r="H138">
+        <v>1.1567777777777699</v>
+      </c>
+      <c r="I138">
+        <v>3.5469444444444502E-4</v>
+      </c>
+      <c r="J138" s="2">
+        <v>42674.88925925926</v>
+      </c>
+      <c r="K138" t="s">
+        <v>18</v>
+      </c>
+      <c r="L138" t="s">
+        <v>19</v>
+      </c>
+      <c r="M138" t="s">
+        <v>20</v>
+      </c>
+      <c r="N138" s="3">
+        <v>37235</v>
+      </c>
+      <c r="O138">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="139" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A139" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B139" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C139" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D139">
+        <v>0.16268384773298999</v>
+      </c>
+      <c r="E139">
+        <v>6.6517928395498398</v>
+      </c>
+      <c r="F139">
+        <v>6.6482978231708401E-2</v>
+      </c>
+      <c r="G139">
+        <v>0.17589742682002099</v>
+      </c>
+      <c r="H139">
+        <v>2.44571428571428</v>
+      </c>
+      <c r="I139">
+        <v>3.09399047619047E-2</v>
+      </c>
+      <c r="J139" s="2">
+        <v>42674.889756944445</v>
+      </c>
+      <c r="K139" t="s">
+        <v>18</v>
+      </c>
+      <c r="L139" t="s">
+        <v>19</v>
+      </c>
+      <c r="M139" t="s">
+        <v>20</v>
+      </c>
+      <c r="N139" s="3">
+        <v>37235</v>
+      </c>
+      <c r="O139">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="140" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A140" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B140" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C140" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D140">
+        <v>0.61150900996194502</v>
+      </c>
+      <c r="E140">
+        <v>1.85104949770232</v>
+      </c>
+      <c r="F140">
+        <v>0.22028422549061399</v>
+      </c>
+      <c r="G140">
+        <v>0.49257050256790502</v>
+      </c>
+      <c r="H140">
+        <v>33.035800000000002</v>
+      </c>
+      <c r="I140">
+        <v>0.242625699999999</v>
+      </c>
+      <c r="J140" s="2">
+        <v>42674.891631944447</v>
+      </c>
+      <c r="K140" t="s">
+        <v>18</v>
+      </c>
+      <c r="L140" t="s">
+        <v>19</v>
+      </c>
+      <c r="M140" t="s">
+        <v>20</v>
+      </c>
+      <c r="N140" s="3">
+        <v>37235</v>
+      </c>
+      <c r="O140">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="141" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A141" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B141" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C141" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D141">
+        <v>0.40504437065467003</v>
+      </c>
+      <c r="E141">
+        <v>1.00433022394028</v>
+      </c>
+      <c r="F141">
+        <v>0.145909355423152</v>
+      </c>
+      <c r="G141">
+        <v>0.32626323727934597</v>
+      </c>
+      <c r="H141">
+        <v>40.329799999999999</v>
+      </c>
+      <c r="I141">
+        <v>0.10644769999999799</v>
+      </c>
+      <c r="J141" s="2">
+        <v>42674.894814814812</v>
+      </c>
+      <c r="K141" t="s">
+        <v>18</v>
+      </c>
+      <c r="L141" t="s">
+        <v>19</v>
+      </c>
+      <c r="M141" t="s">
+        <v>20</v>
+      </c>
+      <c r="N141" s="3">
+        <v>37235</v>
+      </c>
+      <c r="O141">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="142" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A142" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B142" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C142" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D142">
+        <v>0.35884994556276401</v>
+      </c>
+      <c r="E142">
+        <v>0.91742284433788701</v>
+      </c>
+      <c r="F142">
+        <v>0.129268712378517</v>
+      </c>
+      <c r="G142">
+        <v>0.28905362824223302</v>
+      </c>
+      <c r="H142">
+        <v>39.114999999999903</v>
+      </c>
+      <c r="I142">
+        <v>8.3551999999999405E-2</v>
+      </c>
+      <c r="J142" s="2">
+        <v>42674.898715277777</v>
+      </c>
+      <c r="K142" t="s">
+        <v>18</v>
+      </c>
+      <c r="L142" t="s">
+        <v>19</v>
+      </c>
+      <c r="M142" t="s">
+        <v>20</v>
+      </c>
+      <c r="N142" s="3">
+        <v>37235</v>
+      </c>
+      <c r="O142">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="143" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A143" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B143" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C143" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D143">
+        <v>0.19896504336832699</v>
+      </c>
+      <c r="E143">
+        <v>0.51147037158380004</v>
+      </c>
+      <c r="F143">
+        <v>7.1673286515968201E-2</v>
+      </c>
+      <c r="G143">
+        <v>0.16026634082052299</v>
+      </c>
+      <c r="H143">
+        <v>38.900599999999997</v>
+      </c>
+      <c r="I143">
+        <v>2.56853000000003E-2</v>
+      </c>
+      <c r="J143" s="2">
+        <v>42674.902511574073</v>
+      </c>
+      <c r="K143" t="s">
+        <v>18</v>
+      </c>
+      <c r="L143" t="s">
+        <v>19</v>
+      </c>
+      <c r="M143" t="s">
+        <v>20</v>
+      </c>
+      <c r="N143" s="3">
+        <v>37235</v>
+      </c>
+      <c r="O143">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="144" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A144" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B144" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C144" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D144">
+        <v>0.26571787316204398</v>
+      </c>
+      <c r="E144">
+        <v>0.68161450754174502</v>
+      </c>
+      <c r="F144">
+        <v>9.5719694943099398E-2</v>
+      </c>
+      <c r="G144">
+        <v>0.21403574467831299</v>
+      </c>
+      <c r="H144">
+        <v>38.983599999999903</v>
+      </c>
+      <c r="I144">
+        <v>4.5811299999999999E-2</v>
+      </c>
+      <c r="J144" s="2">
+        <v>42674.906319444446</v>
+      </c>
+      <c r="K144" t="s">
+        <v>18</v>
+      </c>
+      <c r="L144" t="s">
+        <v>19</v>
+      </c>
+      <c r="M144" t="s">
+        <v>20</v>
+      </c>
+      <c r="N144" s="3">
+        <v>37235</v>
+      </c>
+      <c r="O144">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="145" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A145" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B145" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C145" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D145">
+        <v>0.35845201446129599</v>
+      </c>
+      <c r="E145">
+        <v>0.90697748689652402</v>
+      </c>
+      <c r="F145">
+        <v>0.12912536543994799</v>
+      </c>
+      <c r="G145">
+        <v>0.288733094743226</v>
+      </c>
+      <c r="H145">
+        <v>39.521599999999999</v>
+      </c>
+      <c r="I145">
+        <v>8.3366800000001004E-2</v>
+      </c>
+      <c r="J145" s="2">
+        <v>42674.910115740742</v>
+      </c>
+      <c r="K145" t="s">
+        <v>18</v>
+      </c>
+      <c r="L145" t="s">
+        <v>19</v>
+      </c>
+      <c r="M145" t="s">
+        <v>20</v>
+      </c>
+      <c r="N145" s="3">
+        <v>37235</v>
+      </c>
+      <c r="O145">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="146" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A146" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B146" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C146" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D146">
+        <v>0.71376979271650098</v>
+      </c>
+      <c r="E146">
+        <v>1.8007936964923701</v>
+      </c>
+      <c r="F146">
+        <v>0.257121683255224</v>
+      </c>
+      <c r="G146">
+        <v>0.57494156224784998</v>
+      </c>
+      <c r="H146">
+        <v>39.636399999999902</v>
+      </c>
+      <c r="I146">
+        <v>0.33055779999999801</v>
+      </c>
+      <c r="J146" s="2">
+        <v>42674.913958333331</v>
+      </c>
+      <c r="K146" t="s">
+        <v>18</v>
+      </c>
+      <c r="L146" t="s">
+        <v>19</v>
+      </c>
+      <c r="M146" t="s">
+        <v>20</v>
+      </c>
+      <c r="N146" s="3">
+        <v>37235</v>
+      </c>
+      <c r="O146">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="147" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A147" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B147" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C147" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D147">
+        <v>7.1553217147524205E-4</v>
+      </c>
+      <c r="E147">
+        <v>0.68362946319290596</v>
+      </c>
+      <c r="F147">
+        <v>3.6506743442614399E-4</v>
+      </c>
+      <c r="G147">
+        <v>2.5292613784596001E-3</v>
+      </c>
+      <c r="H147">
+        <v>0.10466666666666601</v>
+      </c>
+      <c r="I147">
+        <v>6.3971631205673702E-6</v>
+      </c>
+      <c r="J147" s="2">
+        <v>42674.917546296296</v>
+      </c>
+      <c r="K147" t="s">
+        <v>18</v>
+      </c>
+      <c r="L147" t="s">
+        <v>19</v>
+      </c>
+      <c r="M147" t="s">
+        <v>20</v>
+      </c>
+      <c r="N147" s="3">
+        <v>37235</v>
+      </c>
+      <c r="O147">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="148" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A148" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B148" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C148" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D148">
+        <v>3.3973969817295102</v>
+      </c>
+      <c r="E148">
+        <v>0.318907271975514</v>
+      </c>
+      <c r="F148">
+        <v>1.2238461749745999</v>
+      </c>
+      <c r="G148">
+        <v>2.7366032412463199</v>
+      </c>
+      <c r="H148">
+        <v>1065.3244</v>
+      </c>
+      <c r="I148">
+        <v>7.4889972999999097</v>
+      </c>
+      <c r="J148" s="2">
+        <v>42674.979062500002</v>
+      </c>
+      <c r="K148" t="s">
+        <v>18</v>
+      </c>
+      <c r="L148" t="s">
+        <v>19</v>
+      </c>
+      <c r="M148" t="s">
+        <v>20</v>
+      </c>
+      <c r="N148" s="3">
+        <v>37235</v>
+      </c>
+      <c r="O148">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="149" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A149" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="B127" s="1" t="s">
+      <c r="B149" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C149" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D149">
+        <v>1.9558883184367899E-2</v>
+      </c>
+      <c r="E149">
+        <v>22.969166355806401</v>
+      </c>
+      <c r="F149">
+        <v>9.9790220328408105E-3</v>
+      </c>
+      <c r="G149">
+        <v>5.9874132197044801E-2</v>
+      </c>
+      <c r="H149">
+        <v>8.5152777777777702E-2</v>
+      </c>
+      <c r="I149">
+        <v>3.5849117063492001E-3</v>
+      </c>
+      <c r="J149" s="2">
+        <v>42674.88789351852</v>
+      </c>
+      <c r="K149" t="s">
+        <v>18</v>
+      </c>
+      <c r="L149" t="s">
+        <v>19</v>
+      </c>
+      <c r="M149" t="s">
+        <v>20</v>
+      </c>
+      <c r="N149" s="3">
+        <v>37235</v>
+      </c>
+      <c r="O149">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="150" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A150" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B150" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C150" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D150">
+        <v>2.1729110377482E-2</v>
+      </c>
+      <c r="E150">
+        <v>8.54075743628513</v>
+      </c>
+      <c r="F150">
+        <v>1.05022283119778E-2</v>
+      </c>
+      <c r="G150">
+        <v>5.1450201053113397E-2</v>
+      </c>
+      <c r="H150">
+        <v>0.25441666666666601</v>
+      </c>
+      <c r="I150">
+        <v>2.64712318840579E-3</v>
+      </c>
+      <c r="J150" s="2">
+        <v>42674.888113425928</v>
+      </c>
+      <c r="K150" t="s">
+        <v>18</v>
+      </c>
+      <c r="L150" t="s">
+        <v>19</v>
+      </c>
+      <c r="M150" t="s">
+        <v>20</v>
+      </c>
+      <c r="N150" s="3">
+        <v>37235</v>
+      </c>
+      <c r="O150">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="151" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A151" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B151" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C151" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D151">
+        <v>5.6661212482614501E-3</v>
+      </c>
+      <c r="E151">
+        <v>1.21416883891316</v>
+      </c>
+      <c r="F151">
+        <v>2.6415483674878501E-3</v>
+      </c>
+      <c r="G151">
+        <v>1.02306728354818E-2</v>
+      </c>
+      <c r="H151">
+        <v>0.46666666666666601</v>
+      </c>
+      <c r="I151">
+        <v>1.0466666666666599E-4</v>
+      </c>
+      <c r="J151" s="2">
+        <v>42674.888321759259</v>
+      </c>
+      <c r="K151" t="s">
+        <v>18</v>
+      </c>
+      <c r="L151" t="s">
+        <v>19</v>
+      </c>
+      <c r="M151" t="s">
+        <v>20</v>
+      </c>
+      <c r="N151" s="3">
+        <v>37235</v>
+      </c>
+      <c r="O151">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="152" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A152" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B152" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C152" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D152">
+        <v>1.3750942571329401E-2</v>
+      </c>
+      <c r="E152">
+        <v>1.54158549005935</v>
+      </c>
+      <c r="F152">
+        <v>6.0791081217194702E-3</v>
+      </c>
+      <c r="G152">
+        <v>1.92238278070616E-2</v>
+      </c>
+      <c r="H152">
+        <v>0.89200000000000002</v>
+      </c>
+      <c r="I152">
+        <v>3.6955555555555602E-4</v>
+      </c>
+      <c r="J152" s="2">
+        <v>42674.888541666667</v>
+      </c>
+      <c r="K152" t="s">
+        <v>18</v>
+      </c>
+      <c r="L152" t="s">
+        <v>19</v>
+      </c>
+      <c r="M152" t="s">
+        <v>20</v>
+      </c>
+      <c r="N152" s="3">
+        <v>37235</v>
+      </c>
+      <c r="O152">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="153" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A153" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B153" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C153" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D153">
+        <v>7.7122291812707798E-3</v>
+      </c>
+      <c r="E153">
+        <v>1.24658876852437</v>
+      </c>
+      <c r="F153">
+        <v>3.5039660069381001E-3</v>
+      </c>
+      <c r="G153">
+        <v>1.2138094304022001E-2</v>
+      </c>
+      <c r="H153">
+        <v>0.61866666666666603</v>
+      </c>
+      <c r="I153">
+        <v>1.47333333333333E-4</v>
+      </c>
+      <c r="J153" s="2">
+        <v>42674.888796296298</v>
+      </c>
+      <c r="K153" t="s">
+        <v>18</v>
+      </c>
+      <c r="L153" t="s">
+        <v>19</v>
+      </c>
+      <c r="M153" t="s">
+        <v>20</v>
+      </c>
+      <c r="N153" s="3">
+        <v>37235</v>
+      </c>
+      <c r="O153">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="154" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A154" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B154" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C154" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D154">
+        <v>3.9330348194015303E-3</v>
+      </c>
+      <c r="E154">
+        <v>0.315938131892883</v>
+      </c>
+      <c r="F154">
+        <v>1.66301683695625E-3</v>
+      </c>
+      <c r="G154">
+        <v>4.7037219305566796E-3</v>
+      </c>
+      <c r="H154">
+        <v>1.244875</v>
+      </c>
+      <c r="I154">
+        <v>2.2124999999999799E-5</v>
+      </c>
+      <c r="J154" s="2">
+        <v>42674.889062499999</v>
+      </c>
+      <c r="K154" t="s">
+        <v>18</v>
+      </c>
+      <c r="L154" t="s">
+        <v>19</v>
+      </c>
+      <c r="M154" t="s">
+        <v>20</v>
+      </c>
+      <c r="N154" s="3">
+        <v>37235</v>
+      </c>
+      <c r="O154">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="155" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A155" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B155" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C155" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D155">
+        <v>4.0557474068906099E-2</v>
+      </c>
+      <c r="E155">
+        <v>1.1439140902244</v>
+      </c>
+      <c r="F155">
+        <v>1.57749801901618E-2</v>
+      </c>
+      <c r="G155">
+        <v>3.8640652168409298E-2</v>
+      </c>
+      <c r="H155">
+        <v>3.5455000000000001</v>
+      </c>
+      <c r="I155">
+        <v>1.4930999999999901E-3</v>
+      </c>
+      <c r="J155" s="2">
+        <v>42674.889386574076</v>
+      </c>
+      <c r="K155" t="s">
+        <v>18</v>
+      </c>
+      <c r="L155" t="s">
+        <v>19</v>
+      </c>
+      <c r="M155" t="s">
+        <v>20</v>
+      </c>
+      <c r="N155" s="3">
+        <v>37235</v>
+      </c>
+      <c r="O155">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="156" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A156" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B156" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C156" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D156">
+        <v>0.121741447558996</v>
+      </c>
+      <c r="E156">
+        <v>1.6707579331786599</v>
+      </c>
+      <c r="F156">
+        <v>4.3854988313759599E-2</v>
+      </c>
+      <c r="G156">
+        <v>9.8062735022025393E-2</v>
+      </c>
+      <c r="H156">
+        <v>7.2866</v>
+      </c>
+      <c r="I156">
+        <v>9.6162999999999804E-3</v>
+      </c>
+      <c r="J156" s="2">
+        <v>42674.889953703707</v>
+      </c>
+      <c r="K156" t="s">
+        <v>18</v>
+      </c>
+      <c r="L156" t="s">
+        <v>19</v>
+      </c>
+      <c r="M156" t="s">
+        <v>20</v>
+      </c>
+      <c r="N156" s="3">
+        <v>37235</v>
+      </c>
+      <c r="O156">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="157" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A157" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B157" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C157" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D157">
+        <v>0.160246147892048</v>
+      </c>
+      <c r="E157">
+        <v>0.76018817964140295</v>
+      </c>
+      <c r="F157">
+        <v>5.7725557598000098E-2</v>
+      </c>
+      <c r="G157">
+        <v>0.129078270828207</v>
+      </c>
+      <c r="H157">
+        <v>21.079799999999999</v>
+      </c>
+      <c r="I157">
+        <v>1.6661200000000102E-2</v>
+      </c>
+      <c r="J157" s="2">
+        <v>42674.916250000002</v>
+      </c>
+      <c r="K157" t="s">
+        <v>18</v>
+      </c>
+      <c r="L157" t="s">
+        <v>19</v>
+      </c>
+      <c r="M157" t="s">
+        <v>20</v>
+      </c>
+      <c r="N157" s="3">
+        <v>37235</v>
+      </c>
+      <c r="O157">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="158" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A158" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B158" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C158" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D158">
+        <v>1.9672098266915699E-3</v>
+      </c>
+      <c r="E158">
+        <v>1.4440275407673899</v>
+      </c>
+      <c r="F158">
+        <v>1.0036784830059001E-3</v>
+      </c>
+      <c r="G158">
+        <v>6.2679701174074296E-3</v>
+      </c>
+      <c r="H158">
+        <v>0.13623076923076899</v>
+      </c>
+      <c r="I158">
+        <v>3.9287449392712501E-5</v>
+      </c>
+      <c r="J158" s="2">
+        <v>42674.917604166665</v>
+      </c>
+      <c r="K158" t="s">
+        <v>18</v>
+      </c>
+      <c r="L158" t="s">
+        <v>19</v>
+      </c>
+      <c r="M158" t="s">
+        <v>20</v>
+      </c>
+      <c r="N158" s="3">
+        <v>37235</v>
+      </c>
+      <c r="O158">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="159" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A159" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B159" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C159" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D159">
+        <v>9.7004458123816697</v>
+      </c>
+      <c r="E159">
+        <v>0.88680806665543499</v>
+      </c>
+      <c r="F159">
+        <v>3.4943969064775402</v>
+      </c>
+      <c r="G159">
+        <v>7.8137090232487703</v>
+      </c>
+      <c r="H159">
+        <v>1093.8607999999999</v>
+      </c>
+      <c r="I159">
+        <v>61.054048699999299</v>
+      </c>
+      <c r="J159" s="2">
+        <v>42675.040717592594</v>
+      </c>
+      <c r="K159" t="s">
+        <v>18</v>
+      </c>
+      <c r="L159" t="s">
+        <v>19</v>
+      </c>
+      <c r="M159" t="s">
+        <v>20</v>
+      </c>
+      <c r="N159" s="3">
+        <v>37235</v>
+      </c>
+      <c r="O159">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="160" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A160" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B160" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="C127" s="1" t="s">
+      <c r="C160" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D160">
+        <v>0.116178061030854</v>
+      </c>
+      <c r="E160">
+        <v>11.008660236657001</v>
+      </c>
+      <c r="F160">
+        <v>5.0380772346424199E-2</v>
+      </c>
+      <c r="G160">
+        <v>0.151142317039272</v>
+      </c>
+      <c r="H160">
+        <v>1.0553333333333299</v>
+      </c>
+      <c r="I160">
+        <v>2.2844E-2</v>
+      </c>
+      <c r="J160" s="2">
+        <v>42673.289884259262</v>
+      </c>
+      <c r="K160" t="s">
+        <v>18</v>
+      </c>
+      <c r="L160" t="s">
+        <v>62</v>
+      </c>
+      <c r="M160" t="s">
+        <v>63</v>
+      </c>
+      <c r="N160" s="3"/>
+      <c r="O160">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="161" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A161" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B161" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C161" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D161">
+        <v>4.8934825331659201E-2</v>
+      </c>
+      <c r="E161">
+        <v>0.72806679360321302</v>
+      </c>
+      <c r="F161">
+        <v>1.7627818923508301E-2</v>
+      </c>
+      <c r="G161">
+        <v>3.9417001408021797E-2</v>
+      </c>
+      <c r="H161">
+        <v>6.7211999999999996</v>
+      </c>
+      <c r="I161">
+        <v>1.5536999999999899E-3</v>
+      </c>
+      <c r="J161" s="2">
+        <v>42673.290023148147</v>
+      </c>
+      <c r="K161" t="s">
+        <v>18</v>
+      </c>
+      <c r="L161" t="s">
+        <v>62</v>
+      </c>
+      <c r="M161" t="s">
+        <v>63</v>
+      </c>
+      <c r="N161" s="3"/>
+      <c r="O161">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="162" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A162" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B162" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C162" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D162">
+        <v>0.438080066578517</v>
+      </c>
+      <c r="E162">
+        <v>0.94196991962146903</v>
+      </c>
+      <c r="F162">
+        <v>0.15780982225450901</v>
+      </c>
+      <c r="G162">
+        <v>0.35287349007824098</v>
+      </c>
+      <c r="H162">
+        <v>46.506799999999998</v>
+      </c>
+      <c r="I162">
+        <v>0.124519699999998</v>
+      </c>
+      <c r="J162" s="2">
+        <v>42673.290416666663</v>
+      </c>
+      <c r="K162" t="s">
+        <v>18</v>
+      </c>
+      <c r="L162" t="s">
+        <v>62</v>
+      </c>
+      <c r="M162" t="s">
+        <v>63</v>
+      </c>
+      <c r="N162" s="3"/>
+      <c r="O162">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="163" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A163" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B163" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C163" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D163">
+        <v>0.105494035495664</v>
+      </c>
+      <c r="E163">
+        <v>8.7919836972032499</v>
+      </c>
+      <c r="F163">
+        <v>4.57476303103488E-2</v>
+      </c>
+      <c r="G163">
+        <v>0.137242890931046</v>
+      </c>
+      <c r="H163">
+        <v>1.1998888888888799</v>
+      </c>
+      <c r="I163">
+        <v>1.8835611111111102E-2</v>
+      </c>
+      <c r="J163" s="2">
+        <v>42673.293113425927</v>
+      </c>
+      <c r="K163" t="s">
+        <v>18</v>
+      </c>
+      <c r="L163" t="s">
+        <v>62</v>
+      </c>
+      <c r="M163" t="s">
+        <v>63</v>
+      </c>
+      <c r="N163" s="3"/>
+      <c r="O163">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="164" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A164" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B164" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C164" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D164">
+        <v>0.73019301602137998</v>
+      </c>
+      <c r="E164">
+        <v>9.6509782714958998</v>
+      </c>
+      <c r="F164">
+        <v>0.26303782997888298</v>
+      </c>
+      <c r="G164">
+        <v>0.58817046848681498</v>
+      </c>
+      <c r="H164">
+        <v>7.5659999999999998</v>
+      </c>
+      <c r="I164">
+        <v>0.34594449999999899</v>
+      </c>
+      <c r="J164" s="2">
+        <v>42673.293240740742</v>
+      </c>
+      <c r="K164" t="s">
+        <v>18</v>
+      </c>
+      <c r="L164" t="s">
+        <v>62</v>
+      </c>
+      <c r="M164" t="s">
+        <v>63</v>
+      </c>
+      <c r="N164" s="3"/>
+      <c r="O164">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="165" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A165" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B165" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C165" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D165">
+        <v>5.1164116284911998</v>
+      </c>
+      <c r="E165">
+        <v>5.3864902496064699</v>
+      </c>
+      <c r="F165">
+        <v>1.8430877624247799</v>
+      </c>
+      <c r="G165">
+        <v>4.1212695252798</v>
+      </c>
+      <c r="H165">
+        <v>94.985999999999905</v>
+      </c>
+      <c r="I165">
+        <v>16.984862499999899</v>
+      </c>
+      <c r="J165" s="2">
+        <v>42673.293692129628</v>
+      </c>
+      <c r="K165" t="s">
+        <v>18</v>
+      </c>
+      <c r="L165" t="s">
+        <v>62</v>
+      </c>
+      <c r="M165" t="s">
+        <v>63</v>
+      </c>
+      <c r="N165" s="3"/>
+      <c r="O165">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="166" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A166" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B166" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C166" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D166">
+        <v>0.11105956212163801</v>
+      </c>
+      <c r="E166">
+        <v>4.1324488231307202</v>
+      </c>
+      <c r="F166">
+        <v>4.3197029218840201E-2</v>
+      </c>
+      <c r="G166">
+        <v>0.10581067999025399</v>
+      </c>
+      <c r="H166">
+        <v>2.6875</v>
+      </c>
+      <c r="I166">
+        <v>1.11959E-2</v>
+      </c>
+      <c r="J166" s="2">
+        <v>42673.299189814818</v>
+      </c>
+      <c r="K166" t="s">
+        <v>18</v>
+      </c>
+      <c r="L166" t="s">
+        <v>62</v>
+      </c>
+      <c r="M166" t="s">
+        <v>63</v>
+      </c>
+      <c r="N166" s="3"/>
+      <c r="O166">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="167" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A167" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B167" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C167" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D167">
+        <v>0.23428946629876399</v>
+      </c>
+      <c r="E167">
+        <v>1.1721271652496601</v>
+      </c>
+      <c r="F167">
+        <v>8.4398222730102501E-2</v>
+      </c>
+      <c r="G167">
+        <v>0.18872016320467699</v>
+      </c>
+      <c r="H167">
+        <v>19.988399999999999</v>
+      </c>
+      <c r="I167">
+        <v>3.5615300000000003E-2</v>
+      </c>
+      <c r="J167" s="2">
+        <v>42673.299386574072</v>
+      </c>
+      <c r="K167" t="s">
+        <v>18</v>
+      </c>
+      <c r="L167" t="s">
+        <v>62</v>
+      </c>
+      <c r="M167" t="s">
+        <v>63</v>
+      </c>
+      <c r="N167" s="3"/>
+      <c r="O167">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="168" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A168" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B168" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C168" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D168">
+        <v>5.7724342113731302</v>
+      </c>
+      <c r="E168">
+        <v>2.6840391710853901</v>
+      </c>
+      <c r="F168">
+        <v>2.0794071366617901</v>
+      </c>
+      <c r="G168">
+        <v>4.64969571047396</v>
+      </c>
+      <c r="H168">
+        <v>215.0652</v>
+      </c>
+      <c r="I168">
+        <v>21.619670200000002</v>
+      </c>
+      <c r="J168" s="2">
+        <v>42673.300543981481</v>
+      </c>
+      <c r="K168" t="s">
+        <v>18</v>
+      </c>
+      <c r="L168" t="s">
+        <v>62</v>
+      </c>
+      <c r="M168" t="s">
+        <v>63</v>
+      </c>
+      <c r="N168" s="3"/>
+      <c r="O168">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="169" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A169" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B169" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C169" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D169">
+        <v>0.69123481405195397</v>
+      </c>
+      <c r="E169">
+        <v>12.546918137877601</v>
+      </c>
+      <c r="F169">
+        <v>0.24900389555185601</v>
+      </c>
+      <c r="G169">
+        <v>0.55678963711620899</v>
+      </c>
+      <c r="H169">
+        <v>5.5091999999999999</v>
+      </c>
+      <c r="I169">
+        <v>0.31001469999999898</v>
+      </c>
+      <c r="J169" s="2">
+        <v>42673.312997685185</v>
+      </c>
+      <c r="K169" t="s">
+        <v>18</v>
+      </c>
+      <c r="L169" t="s">
+        <v>62</v>
+      </c>
+      <c r="M169" t="s">
+        <v>63</v>
+      </c>
+      <c r="N169" s="3"/>
+      <c r="O169">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="170" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A170" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B170" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C170" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D170">
+        <v>0.45070905520967702</v>
+      </c>
+      <c r="E170">
+        <v>1.0817969306331201</v>
+      </c>
+      <c r="F170">
+        <v>0.16235916974412001</v>
+      </c>
+      <c r="G170">
+        <v>0.36304614031827898</v>
+      </c>
+      <c r="H170">
+        <v>41.662999999999997</v>
+      </c>
+      <c r="I170">
+        <v>0.13180249999999899</v>
+      </c>
+      <c r="J170" s="2">
+        <v>42673.313321759262</v>
+      </c>
+      <c r="K170" t="s">
+        <v>18</v>
+      </c>
+      <c r="L170" t="s">
+        <v>62</v>
+      </c>
+      <c r="M170" t="s">
+        <v>63</v>
+      </c>
+      <c r="N170" s="3"/>
+      <c r="O170">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="171" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A171" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B171" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C171" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D171">
+        <v>5.2441865145501199</v>
+      </c>
+      <c r="E171">
+        <v>1.1452869568052</v>
+      </c>
+      <c r="F171">
+        <v>1.8891161795929801</v>
+      </c>
+      <c r="G171">
+        <v>4.2241921949646102</v>
+      </c>
+      <c r="H171">
+        <v>457.892799999999</v>
+      </c>
+      <c r="I171">
+        <v>17.843799699999899</v>
+      </c>
+      <c r="J171" s="2">
+        <v>42673.315740740742</v>
+      </c>
+      <c r="K171" t="s">
+        <v>18</v>
+      </c>
+      <c r="L171" t="s">
+        <v>62</v>
+      </c>
+      <c r="M171" t="s">
+        <v>63</v>
+      </c>
+      <c r="N171" s="3"/>
+      <c r="O171">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="172" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A172" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B172" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C172" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D172">
+        <v>2.8519575617873598</v>
+      </c>
+      <c r="E172">
+        <v>1.17800126797588</v>
+      </c>
+      <c r="F172">
+        <v>1.02736223407325</v>
+      </c>
+      <c r="G172">
+        <v>2.2972517929038498</v>
+      </c>
+      <c r="H172">
+        <v>242.10140000000001</v>
+      </c>
+      <c r="I172">
+        <v>5.2773657999999903</v>
+      </c>
+      <c r="J172" s="2">
+        <v>42673.342256944445</v>
+      </c>
+      <c r="K172" t="s">
+        <v>18</v>
+      </c>
+      <c r="L172" t="s">
+        <v>62</v>
+      </c>
+      <c r="M172" t="s">
+        <v>63</v>
+      </c>
+      <c r="N172" s="3"/>
+      <c r="O172">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="173" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A173" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B173" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C173" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D173">
+        <v>4.2604601525662603E-2</v>
+      </c>
+      <c r="E173">
+        <v>4.06101899736246</v>
+      </c>
+      <c r="F173">
+        <v>1.8475542725785998E-2</v>
+      </c>
+      <c r="G173">
+        <v>5.5426628177358099E-2</v>
+      </c>
+      <c r="H173">
+        <v>1.04911111111111</v>
+      </c>
+      <c r="I173">
+        <v>3.0721111111111101E-3</v>
+      </c>
+      <c r="J173" s="2">
+        <v>42673.356273148151</v>
+      </c>
+      <c r="K173" t="s">
+        <v>18</v>
+      </c>
+      <c r="L173" t="s">
+        <v>62</v>
+      </c>
+      <c r="M173" t="s">
+        <v>63</v>
+      </c>
+      <c r="N173" s="3"/>
+      <c r="O173">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="174" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A174" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B174" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C174" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="D127">
+      <c r="D174">
         <v>67.709751965615794</v>
       </c>
-      <c r="E127">
+      <c r="E174">
         <v>0.747618289475945</v>
       </c>
-      <c r="F127">
+      <c r="F174">
         <v>24.391121025077702</v>
       </c>
-      <c r="G127">
+      <c r="G174">
         <v>54.540204659498201</v>
       </c>
-      <c r="H127">
+      <c r="H174">
         <v>9056.7276000000002</v>
       </c>
-      <c r="I127">
+      <c r="I174">
         <v>2974.6339242999502</v>
       </c>
-      <c r="J127" s="2">
+      <c r="J174" s="2">
         <v>42673.356388888889</v>
       </c>
-      <c r="K127" t="s">
-        <v>18</v>
-      </c>
-      <c r="L127" t="s">
+      <c r="K174" t="s">
+        <v>18</v>
+      </c>
+      <c r="L174" t="s">
         <v>62</v>
       </c>
-      <c r="M127" t="s">
+      <c r="M174" t="s">
         <v>63</v>
       </c>
-      <c r="N127" s="3"/>
-      <c r="O127">
+      <c r="N174" s="3"/>
+      <c r="O174">
         <v>32</v>
       </c>
     </row>
